--- a/matriz_total.xlsx
+++ b/matriz_total.xlsx
@@ -502,402 +502,402 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>5</v>
+        <v>2.917480356692093</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>5</v>
+        <v>2.649881837059068</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>5</v>
+        <v>6.106611762122174</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>5</v>
+        <v>6.250738792665519</v>
       </c>
       <c r="E1" s="3" t="n">
-        <v>5</v>
+        <v>5.856043773830964</v>
       </c>
       <c r="F1" s="3" t="n">
-        <v>5</v>
+        <v>7.323962829001425</v>
       </c>
       <c r="G1" s="4" t="n">
-        <v>5</v>
+        <v>2.867409350685443</v>
       </c>
       <c r="H1" s="4" t="n">
-        <v>5</v>
+        <v>3.242795707638222</v>
       </c>
       <c r="I1" s="5" t="n">
-        <v>5</v>
+        <v>6.224677088886564</v>
       </c>
       <c r="J1" s="5" t="n">
-        <v>5</v>
+        <v>4.346518932217319</v>
       </c>
       <c r="K1" s="6" t="n">
-        <v>5</v>
+        <v>3.843975048592814</v>
       </c>
       <c r="L1" s="6" t="n">
-        <v>5</v>
+        <v>6.880472713094399</v>
       </c>
       <c r="M1" s="7" t="n">
-        <v>5</v>
+        <v>3.926912292467624</v>
       </c>
       <c r="N1" s="7" t="n">
-        <v>5</v>
+        <v>5.932951174199887</v>
       </c>
       <c r="O1" s="8" t="n">
-        <v>5</v>
+        <v>6.546515913591221</v>
       </c>
       <c r="P1" s="8" t="n">
-        <v>5</v>
+        <v>3.098687113944941</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>4.311654868601988</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>5</v>
+        <v>4.167717804237641</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5</v>
+        <v>5.710623823757642</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5</v>
+        <v>6.094406305560351</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>5</v>
+        <v>3.912687212042981</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>5</v>
+        <v>7.123437216599187</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5</v>
+        <v>3.724342390361107</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5</v>
+        <v>5.986291305383677</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>5</v>
+        <v>6.603634691893245</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>5</v>
+        <v>7.319367752640984</v>
       </c>
       <c r="K2" s="6" t="n">
-        <v>5</v>
+        <v>3.677361685090404</v>
       </c>
       <c r="L2" s="6" t="n">
-        <v>5</v>
+        <v>5.773220447906267</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>5</v>
+        <v>4.041521261548703</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>5</v>
+        <v>5.603730946713183</v>
       </c>
       <c r="O2" s="8" t="n">
-        <v>5</v>
+        <v>3.110145845641247</v>
       </c>
       <c r="P2" s="8" t="n">
-        <v>5</v>
+        <v>5.120575436282031</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="2" t="n">
-        <v>5</v>
+        <v>4.119611591735215</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>5</v>
+        <v>4.88466187263188</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>5</v>
+        <v>2.836895446529672</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>5</v>
+        <v>3.812872936280541</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5</v>
+        <v>4.574823203335654</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5</v>
+        <v>3.029005936731688</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>5</v>
+        <v>7.073765797942427</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>5</v>
+        <v>5.891207778790921</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>5</v>
+        <v>5.6149831180395</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>5</v>
+        <v>6.843504382318262</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>5</v>
+        <v>6.398558338369131</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>5</v>
+        <v>6.843181038857291</v>
       </c>
       <c r="M3" s="8" t="n">
-        <v>5</v>
+        <v>4.405365549842425</v>
       </c>
       <c r="N3" s="8" t="n">
-        <v>5</v>
+        <v>3.237430839985727</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>5</v>
+        <v>3.889106867124719</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>5</v>
+        <v>2.671226834697956</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="n">
-        <v>5</v>
+        <v>6.380770880576456</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5</v>
+        <v>5.541263805585698</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>5</v>
+        <v>7.280721063306713</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>5</v>
+        <v>4.529125533362132</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5</v>
+        <v>4.545536922135314</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5</v>
+        <v>6.445697513346381</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>5</v>
+        <v>2.873363369870678</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>5</v>
+        <v>4.934525728998567</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>5</v>
+        <v>3.987287662523935</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>5</v>
+        <v>4.513376082293396</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>5</v>
+        <v>5.683755943084341</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>5</v>
+        <v>6.74683351404206</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>5</v>
+        <v>5.223864562892786</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>5</v>
+        <v>4.371675151821418</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>5</v>
+        <v>6.738683713827723</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>5</v>
+        <v>4.504203046849016</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="3" t="n">
-        <v>5</v>
+        <v>2.636288970593771</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>5</v>
+        <v>5.598686549809776</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5</v>
+        <v>2.74739802392018</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>5</v>
+        <v>2.536365096911963</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>5</v>
+        <v>3.429739756141884</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>5</v>
+        <v>6.466253333489817</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5</v>
+        <v>6.344867046149227</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>5</v>
+        <v>3.040512771195056</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>5</v>
+        <v>3.473403369707919</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>5</v>
+        <v>6.649949295352826</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>5</v>
+        <v>6.758483248944378</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>5</v>
+        <v>3.616243399157779</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5</v>
+        <v>5.541543204595959</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5</v>
+        <v>3.234105784323433</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>5</v>
+        <v>2.832933872586024</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>5</v>
+        <v>4.496963876613224</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>3.06391621393226</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>5</v>
+        <v>5.07119133763026</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5</v>
+        <v>5.980875592345168</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>5</v>
+        <v>4.986712438241089</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>5</v>
+        <v>3.168238922043614</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>5</v>
+        <v>3.052469276988863</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5</v>
+        <v>7.007887504597622</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>5</v>
+        <v>5.294117944249461</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>5</v>
+        <v>4.44685568629068</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>5</v>
+        <v>5.308785970132625</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>5</v>
+        <v>4.009546954401521</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>5</v>
+        <v>5.000604126399675</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5</v>
+        <v>3.112390769733419</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>5</v>
+        <v>6.943033328323473</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>5</v>
+        <v>4.492547197605632</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>5</v>
+        <v>6.33356484420021</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="4" t="n">
-        <v>5</v>
+        <v>7.052126258872061</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5</v>
+        <v>3.284047073962878</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>5</v>
+        <v>4.129134392288512</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>5</v>
+        <v>6.948864409065642</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>5</v>
+        <v>3.519547158554324</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5</v>
+        <v>5.064645641357379</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>5</v>
+        <v>3.013238142272167</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>5</v>
+        <v>6.276379623936763</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>5</v>
+        <v>7.092778684700678</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>5</v>
+        <v>3.606190084850887</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>5</v>
+        <v>7.28067303262214</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5</v>
+        <v>3.968446906587391</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5</v>
+        <v>6.793344949633989</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>5</v>
+        <v>7.084260598992883</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>5</v>
+        <v>3.790117500957658</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>5</v>
+        <v>7.279343145231868</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="4" t="n">
-        <v>5</v>
+        <v>6.957180661685118</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>5</v>
+        <v>6.383950144814563</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>5</v>
+        <v>7.437325332343404</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5</v>
+        <v>3.685756014176857</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>5</v>
+        <v>3.203837980016258</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5</v>
+        <v>4.208260308325726</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>5</v>
+        <v>4.05047103332386</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>5</v>
+        <v>3.160385488697595</v>
       </c>
       <c r="I8" s="8" t="n">
-        <v>5</v>
+        <v>6.873186153943234</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>5</v>
+        <v>2.513435225637851</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5</v>
+        <v>6.365121273357486</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5</v>
+        <v>5.000669129559636</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>5</v>
+        <v>5.120714812092758</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>5</v>
+        <v>5.628446215810471</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>5</v>
+        <v>3.382345448911284</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>5</v>
+        <v>3.927314699748175</v>
       </c>
     </row>
   </sheetData>
@@ -939,402 +939,402 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>5</v>
+        <v>4.964790473455103</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>5</v>
+        <v>6.854744055578411</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>5</v>
+        <v>5.420378417162102</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>5</v>
+        <v>3.267964426388154</v>
       </c>
       <c r="E1" s="3" t="n">
-        <v>5</v>
+        <v>7.431769698280652</v>
       </c>
       <c r="F1" s="3" t="n">
-        <v>5</v>
+        <v>4.456781194463741</v>
       </c>
       <c r="G1" s="4" t="n">
-        <v>5</v>
+        <v>7.233112262445052</v>
       </c>
       <c r="H1" s="4" t="n">
-        <v>5</v>
+        <v>3.298933930069698</v>
       </c>
       <c r="I1" s="5" t="n">
-        <v>5</v>
+        <v>6.229048947468991</v>
       </c>
       <c r="J1" s="5" t="n">
-        <v>5</v>
+        <v>5.077879254855961</v>
       </c>
       <c r="K1" s="6" t="n">
-        <v>5</v>
+        <v>4.929283348126359</v>
       </c>
       <c r="L1" s="6" t="n">
-        <v>5</v>
+        <v>2.598710326022109</v>
       </c>
       <c r="M1" s="7" t="n">
-        <v>5</v>
+        <v>7.424926306139287</v>
       </c>
       <c r="N1" s="7" t="n">
-        <v>5</v>
+        <v>4.569572047202868</v>
       </c>
       <c r="O1" s="8" t="n">
-        <v>5</v>
+        <v>3.229443922253472</v>
       </c>
       <c r="P1" s="8" t="n">
-        <v>5</v>
+        <v>3.684074290872431</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>4.341658724886597</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>5</v>
+        <v>6.580639622671218</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5</v>
+        <v>2.611320851457358</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5</v>
+        <v>3.70981248833738</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>5</v>
+        <v>5.710797450583516</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>5</v>
+        <v>7.467226478868005</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5</v>
+        <v>3.286878897096399</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5</v>
+        <v>5.75697254976418</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>5</v>
+        <v>4.998675578778206</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>5</v>
+        <v>5.393472843949504</v>
       </c>
       <c r="K2" s="6" t="n">
-        <v>5</v>
+        <v>4.503343945362858</v>
       </c>
       <c r="L2" s="6" t="n">
-        <v>5</v>
+        <v>4.298298857382562</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>5</v>
+        <v>6.138570914881556</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>5</v>
+        <v>4.421666941830321</v>
       </c>
       <c r="O2" s="8" t="n">
-        <v>5</v>
+        <v>7.117051454264295</v>
       </c>
       <c r="P2" s="8" t="n">
-        <v>5</v>
+        <v>4.793034112653828</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="2" t="n">
-        <v>5</v>
+        <v>5.92444342205707</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>5</v>
+        <v>6.817663040821937</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>5</v>
+        <v>4.87031618233153</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>5</v>
+        <v>5.45863805633913</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5</v>
+        <v>4.750294442286077</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5</v>
+        <v>7.089139066376624</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>5</v>
+        <v>5.514789894578181</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>5</v>
+        <v>7.183737324545115</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>5</v>
+        <v>5.453620568664565</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>5</v>
+        <v>2.985708399429163</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>5</v>
+        <v>2.595845049952424</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>5</v>
+        <v>4.920599203616503</v>
       </c>
       <c r="M3" s="8" t="n">
-        <v>5</v>
+        <v>3.899256467828241</v>
       </c>
       <c r="N3" s="8" t="n">
-        <v>5</v>
+        <v>3.120772119398563</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>5</v>
+        <v>6.019756775134294</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>5</v>
+        <v>4.918427101585201</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="n">
-        <v>5</v>
+        <v>2.543813809295964</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5</v>
+        <v>2.572741313951961</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>5</v>
+        <v>5.105323533923</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>5</v>
+        <v>4.260047150219648</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5</v>
+        <v>3.332154119761352</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5</v>
+        <v>2.655292479716778</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>5</v>
+        <v>6.671122720661105</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>5</v>
+        <v>7.238170539920981</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>5</v>
+        <v>3.382171486191473</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>5</v>
+        <v>3.835132866597635</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>5</v>
+        <v>6.013023916864744</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>5</v>
+        <v>4.74652108377568</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>5</v>
+        <v>4.130287714398392</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>5</v>
+        <v>6.713797066992755</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>5</v>
+        <v>5.288009621787601</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>5</v>
+        <v>5.493904826536307</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="3" t="n">
-        <v>5</v>
+        <v>6.116206352127653</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>5</v>
+        <v>6.98780079020751</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5</v>
+        <v>4.635290358344469</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>5</v>
+        <v>4.380356122900804</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>5</v>
+        <v>6.944428327675362</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>5</v>
+        <v>3.264229437885697</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5</v>
+        <v>2.987597128814719</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>5</v>
+        <v>3.339594388907137</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>5</v>
+        <v>3.885258680236048</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>5</v>
+        <v>5.666652534546847</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>5</v>
+        <v>5.126712671901971</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>5</v>
+        <v>4.633971884600262</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5</v>
+        <v>5.125587629162862</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5</v>
+        <v>7.460417005595388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>5</v>
+        <v>7.111355814733916</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>5</v>
+        <v>4.814619778239935</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>3.174202384600151</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>5</v>
+        <v>5.934195799826129</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5</v>
+        <v>7.473477151699514</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>5</v>
+        <v>6.93284285463916</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>5</v>
+        <v>5.88877105273732</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>5</v>
+        <v>5.101001600109845</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5</v>
+        <v>7.493739367783421</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>5</v>
+        <v>6.425914208075585</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>5</v>
+        <v>4.961460560276334</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>5</v>
+        <v>4.718091099496207</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>5</v>
+        <v>5.444272211145455</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>5</v>
+        <v>2.990041374347125</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5</v>
+        <v>6.053799806930476</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>5</v>
+        <v>3.941962477976413</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>5</v>
+        <v>4.85405011549024</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>5</v>
+        <v>5.798514895298339</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="4" t="n">
-        <v>5</v>
+        <v>5.44314273479065</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5</v>
+        <v>3.094252591759974</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>5</v>
+        <v>3.08193985834221</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>5</v>
+        <v>5.988631445687817</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>5</v>
+        <v>3.323026851388079</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5</v>
+        <v>5.362783371606263</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>5</v>
+        <v>3.2194394487765</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>5</v>
+        <v>7.106294156135959</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>5</v>
+        <v>5.931162668793052</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>5</v>
+        <v>3.206532481525393</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>5</v>
+        <v>3.537040821575921</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5</v>
+        <v>3.139771409496928</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5</v>
+        <v>5.590926373020927</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>5</v>
+        <v>3.363507192626937</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>5</v>
+        <v>6.30873764001974</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>5</v>
+        <v>5.990373542162562</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="4" t="n">
-        <v>5</v>
+        <v>3.193327767004297</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>5</v>
+        <v>2.501997206603397</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>5</v>
+        <v>5.104675205968983</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5</v>
+        <v>2.572024439405609</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>5</v>
+        <v>7.102941831960035</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5</v>
+        <v>5.585789344559561</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>5</v>
+        <v>7.478798635832755</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>5</v>
+        <v>3.297143496238642</v>
       </c>
       <c r="I8" s="8" t="n">
-        <v>5</v>
+        <v>3.577228245375053</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>5</v>
+        <v>5.756210580675798</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5</v>
+        <v>6.455097162269636</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5</v>
+        <v>4.969123913650565</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>5</v>
+        <v>4.485418937646051</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>5</v>
+        <v>7.462392777640742</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>5</v>
+        <v>2.879802545979648</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>5</v>
+        <v>5.987479255789692</v>
       </c>
     </row>
   </sheetData>
@@ -1376,402 +1376,402 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>5</v>
+        <v>5.663882644882806</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>5</v>
+        <v>4.627138837666146</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>5</v>
+        <v>2.611041666553048</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>5</v>
+        <v>2.98939990697674</v>
       </c>
       <c r="E1" s="3" t="n">
-        <v>5</v>
+        <v>5.466294290533076</v>
       </c>
       <c r="F1" s="3" t="n">
-        <v>5</v>
+        <v>3.306519787415678</v>
       </c>
       <c r="G1" s="4" t="n">
-        <v>5</v>
+        <v>4.951941014195519</v>
       </c>
       <c r="H1" s="4" t="n">
-        <v>5</v>
+        <v>6.247914205887145</v>
       </c>
       <c r="I1" s="5" t="n">
-        <v>5</v>
+        <v>7.405793700254433</v>
       </c>
       <c r="J1" s="5" t="n">
-        <v>5</v>
+        <v>6.204130350137886</v>
       </c>
       <c r="K1" s="6" t="n">
-        <v>5</v>
+        <v>4.762448287676744</v>
       </c>
       <c r="L1" s="6" t="n">
-        <v>5</v>
+        <v>2.525595398324947</v>
       </c>
       <c r="M1" s="7" t="n">
-        <v>5</v>
+        <v>6.752131494405916</v>
       </c>
       <c r="N1" s="7" t="n">
-        <v>5</v>
+        <v>6.897149634945187</v>
       </c>
       <c r="O1" s="8" t="n">
-        <v>5</v>
+        <v>5.67268796333359</v>
       </c>
       <c r="P1" s="8" t="n">
-        <v>5</v>
+        <v>2.704681019098607</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>3.265234667750346</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>5</v>
+        <v>3.699887542613838</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5</v>
+        <v>5.451385222251808</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5</v>
+        <v>4.766212365182103</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>5</v>
+        <v>5.416303064248607</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>5</v>
+        <v>4.727061744548716</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5</v>
+        <v>6.327750780820618</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5</v>
+        <v>2.730058680792696</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>5</v>
+        <v>7.331545257432946</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>5</v>
+        <v>6.599470613771898</v>
       </c>
       <c r="K2" s="6" t="n">
-        <v>5</v>
+        <v>3.41419322424695</v>
       </c>
       <c r="L2" s="6" t="n">
-        <v>5</v>
+        <v>6.581159535835759</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>5</v>
+        <v>4.70901850505839</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>5</v>
+        <v>2.905358324436643</v>
       </c>
       <c r="O2" s="8" t="n">
-        <v>5</v>
+        <v>3.979569808937082</v>
       </c>
       <c r="P2" s="8" t="n">
-        <v>5</v>
+        <v>6.195421362689571</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="2" t="n">
-        <v>5</v>
+        <v>5.180555464432864</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>5</v>
+        <v>3.992190218676515</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>5</v>
+        <v>6.03710328141669</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>5</v>
+        <v>5.368208201671061</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5</v>
+        <v>4.1703558079971</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5</v>
+        <v>7.380450139755832</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>5</v>
+        <v>3.777061050971595</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>5</v>
+        <v>4.448000818416403</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>5</v>
+        <v>4.354404065319757</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>5</v>
+        <v>5.258346741937745</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>5</v>
+        <v>6.85045885474578</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>5</v>
+        <v>3.618235796850936</v>
       </c>
       <c r="M3" s="8" t="n">
-        <v>5</v>
+        <v>4.072336232174899</v>
       </c>
       <c r="N3" s="8" t="n">
-        <v>5</v>
+        <v>5.908252239502215</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>5</v>
+        <v>5.08437621355378</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>5</v>
+        <v>6.929401219555384</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="n">
-        <v>5</v>
+        <v>3.75550617577747</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5</v>
+        <v>6.412866694353463</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>5</v>
+        <v>4.883125743038078</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>5</v>
+        <v>6.669679651889524</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5</v>
+        <v>5.974925477984324</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5</v>
+        <v>4.398340397175444</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>5</v>
+        <v>7.294046416968216</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>5</v>
+        <v>4.52666372145138</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>5</v>
+        <v>4.643348420321636</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>5</v>
+        <v>4.374133795809213</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>5</v>
+        <v>6.894349155754107</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>5</v>
+        <v>3.956465566344767</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>5</v>
+        <v>6.4448801526423</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>5</v>
+        <v>3.295848718961496</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>5</v>
+        <v>2.715597161235285</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>5</v>
+        <v>6.545675025660135</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="3" t="n">
-        <v>5</v>
+        <v>4.88489974278814</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>5</v>
+        <v>3.839014243634673</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5</v>
+        <v>6.921072525426863</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>5</v>
+        <v>6.207841074535065</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>5</v>
+        <v>2.567127090452251</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>5</v>
+        <v>4.581952984092882</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5</v>
+        <v>6.245186095260001</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>5</v>
+        <v>6.674404771310092</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>5</v>
+        <v>6.459690260577455</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>5</v>
+        <v>3.322222607601566</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>5</v>
+        <v>4.021717092671088</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>5</v>
+        <v>3.827203681916637</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5</v>
+        <v>4.414908306516551</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5</v>
+        <v>6.115628733102332</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>5</v>
+        <v>2.525310784610165</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>5</v>
+        <v>5.566171545577139</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>4.98476796581518</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>5</v>
+        <v>6.44231779874893</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5</v>
+        <v>3.0664518115357</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>5</v>
+        <v>7.271233302432325</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>5</v>
+        <v>5.296217457959937</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>5</v>
+        <v>3.330486162862079</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5</v>
+        <v>5.224579463868864</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>5</v>
+        <v>6.673273578525684</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>5</v>
+        <v>6.188079428475676</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>5</v>
+        <v>3.612582557473178</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>5</v>
+        <v>4.754470580757824</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>5</v>
+        <v>3.212275701308926</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5</v>
+        <v>3.732957483678242</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>5</v>
+        <v>4.279948307507771</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>5</v>
+        <v>3.32656858150604</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>5</v>
+        <v>6.545541138885403</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="4" t="n">
-        <v>5</v>
+        <v>4.983154431771559</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5</v>
+        <v>4.65550286030708</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>5</v>
+        <v>4.663708079881786</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>5</v>
+        <v>4.399863217133128</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>5</v>
+        <v>6.220639805868835</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5</v>
+        <v>6.398368663760898</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>5</v>
+        <v>2.880848452148995</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>5</v>
+        <v>6.625827617460152</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>5</v>
+        <v>7.032966287700855</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>5</v>
+        <v>2.560963902657472</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>5</v>
+        <v>6.305449968565085</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5</v>
+        <v>7.243358118751642</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5</v>
+        <v>4.838290035118964</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>5</v>
+        <v>6.958192647732155</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>5</v>
+        <v>6.113390186562393</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>5</v>
+        <v>6.293702924716817</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="4" t="n">
-        <v>5</v>
+        <v>4.799861810386895</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>5</v>
+        <v>5.07491242571419</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>5</v>
+        <v>5.050327574187947</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5</v>
+        <v>6.328241100385412</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>5</v>
+        <v>2.97216761641844</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5</v>
+        <v>7.126807920189461</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>5</v>
+        <v>5.743181114220228</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>5</v>
+        <v>6.603728908418304</v>
       </c>
       <c r="I8" s="8" t="n">
-        <v>5</v>
+        <v>7.488399529371533</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>5</v>
+        <v>6.029301060448958</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5</v>
+        <v>3.063610574934054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5</v>
+        <v>3.073871923769225</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>5</v>
+        <v>3.97593586828195</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>5</v>
+        <v>7.247392059599451</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>5</v>
+        <v>4.230489322772445</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>5</v>
+        <v>6.142470580260663</v>
       </c>
     </row>
   </sheetData>

--- a/matriz_total.xlsx
+++ b/matriz_total.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,406 +498,1002 @@
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="18" max="18"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="27" max="27"/>
+    <col width="5" customWidth="1" min="28" max="28"/>
+    <col width="5" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>2.917480356692093</v>
+        <v>6.485446839388962e-05</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>2.649881837059068</v>
+        <v>6.907670690183729e-05</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>6.106611762122174</v>
+        <v>4.064605401674194e-05</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>6.250738792665519</v>
+        <v>5.257091276788801e-05</v>
       </c>
       <c r="E1" s="3" t="n">
-        <v>5.856043773830964</v>
+        <v>3.757819821860228e-05</v>
       </c>
       <c r="F1" s="3" t="n">
-        <v>7.323962829001425</v>
+        <v>6.583002438188856e-05</v>
       </c>
       <c r="G1" s="4" t="n">
-        <v>2.867409350685443</v>
+        <v>7.31874816483073e-05</v>
       </c>
       <c r="H1" s="4" t="n">
-        <v>3.242795707638222</v>
-      </c>
-      <c r="I1" s="5" t="n">
-        <v>6.224677088886564</v>
-      </c>
-      <c r="J1" s="5" t="n">
-        <v>4.346518932217319</v>
-      </c>
-      <c r="K1" s="6" t="n">
-        <v>3.843975048592814</v>
-      </c>
-      <c r="L1" s="6" t="n">
-        <v>6.880472713094399</v>
-      </c>
-      <c r="M1" s="7" t="n">
-        <v>3.926912292467624</v>
-      </c>
-      <c r="N1" s="7" t="n">
-        <v>5.932951174199887</v>
-      </c>
-      <c r="O1" s="8" t="n">
-        <v>6.546515913591221</v>
-      </c>
-      <c r="P1" s="8" t="n">
-        <v>3.098687113944941</v>
+        <v>5.89011967485082e-05</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>6.044885271584871e-05</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>6.876792170060176e-05</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>6.046792783422239e-05</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>3.775759855928487e-05</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>4.736646357233741e-05</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>5.720295991972617e-05</v>
+      </c>
+      <c r="O1" s="4" t="n">
+        <v>4.6315158788502e-05</v>
+      </c>
+      <c r="P1" s="4" t="n">
+        <v>7.291397525693627e-05</v>
+      </c>
+      <c r="Q1" s="5" t="n">
+        <v>6.510681108548874e-05</v>
+      </c>
+      <c r="R1" s="5" t="n">
+        <v>5.980454190761209e-05</v>
+      </c>
+      <c r="S1" s="6" t="n">
+        <v>6.190389301737971e-05</v>
+      </c>
+      <c r="T1" s="6" t="n">
+        <v>7.061199611887162e-05</v>
+      </c>
+      <c r="U1" s="7" t="n">
+        <v>5.92968360619066e-05</v>
+      </c>
+      <c r="V1" s="7" t="n">
+        <v>6.572781993003527e-05</v>
+      </c>
+      <c r="W1" s="8" t="n">
+        <v>6.389030510768475e-05</v>
+      </c>
+      <c r="X1" s="8" t="n">
+        <v>5.824472776960107e-05</v>
+      </c>
+      <c r="Y1" s="5" t="n">
+        <v>3.83632322261611e-05</v>
+      </c>
+      <c r="Z1" s="5" t="n">
+        <v>3.870864857740235e-05</v>
+      </c>
+      <c r="AA1" s="6" t="n">
+        <v>3.817320957560682e-05</v>
+      </c>
+      <c r="AB1" s="6" t="n">
+        <v>4.009477906517598e-05</v>
+      </c>
+      <c r="AC1" s="7" t="n">
+        <v>6.719828752122896e-05</v>
+      </c>
+      <c r="AD1" s="7" t="n">
+        <v>6.530041634246054e-05</v>
+      </c>
+      <c r="AE1" s="8" t="n">
+        <v>4.074212434832214e-05</v>
+      </c>
+      <c r="AF1" s="8" t="n">
+        <v>5.326900592828442e-05</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>4.311654868601988</v>
+        <v>4.590026661023015e-05</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>4.167717804237641</v>
+        <v>3.743311785602768e-05</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5.710623823757642</v>
+        <v>5.447780927821913e-05</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>6.094406305560351</v>
+        <v>6.692735813099006e-05</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>3.912687212042981</v>
+        <v>6.903372902428455e-05</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>7.123437216599187</v>
+        <v>5.716865446168236e-05</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.724342390361107</v>
+        <v>4.029408514673206e-05</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.986291305383677</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>6.603634691893245</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>7.319367752640984</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>3.677361685090404</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>5.773220447906267</v>
-      </c>
-      <c r="M2" s="7" t="n">
-        <v>4.041521261548703</v>
-      </c>
-      <c r="N2" s="7" t="n">
-        <v>5.603730946713183</v>
-      </c>
-      <c r="O2" s="8" t="n">
-        <v>3.110145845641247</v>
-      </c>
-      <c r="P2" s="8" t="n">
-        <v>5.120575436282031</v>
+        <v>6.471840596862295e-05</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>3.953150365865198e-05</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>6.047691599731891e-05</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>6.293308527210082e-05</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>3.87564696717992e-05</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>7.331360029513024e-05</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>6.784771992020643e-05</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>4.165204320034651e-05</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>5.970495280271561e-05</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>3.784706605166075e-05</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>4.027683302310399e-05</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>6.758627721795183e-05</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>5.873144711746465e-05</v>
+      </c>
+      <c r="U2" s="7" t="n">
+        <v>4.810062866742347e-05</v>
+      </c>
+      <c r="V2" s="7" t="n">
+        <v>6.371879573406988e-05</v>
+      </c>
+      <c r="W2" s="8" t="n">
+        <v>5.580847490669015e-05</v>
+      </c>
+      <c r="X2" s="8" t="n">
+        <v>5.852437340183005e-05</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>7.067711906403626e-05</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>3.815070831848535e-05</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>6.371003513466674e-05</v>
+      </c>
+      <c r="AB2" s="6" t="n">
+        <v>3.947302441799145e-05</v>
+      </c>
+      <c r="AC2" s="7" t="n">
+        <v>4.309450214345503e-05</v>
+      </c>
+      <c r="AD2" s="7" t="n">
+        <v>3.961687937854606e-05</v>
+      </c>
+      <c r="AE2" s="8" t="n">
+        <v>7.153804207301791e-05</v>
+      </c>
+      <c r="AF2" s="8" t="n">
+        <v>4.766114591594163e-05</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="2" t="n">
-        <v>4.119611591735215</v>
+        <v>3.904363676154971e-05</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4.88466187263188</v>
+        <v>6.875456332805335e-05</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2.836895446529672</v>
+        <v>4.346993133948775e-05</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>3.812872936280541</v>
+        <v>3.87233720167444e-05</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.574823203335654</v>
+        <v>4.586873213515624e-05</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.029005936731688</v>
+        <v>5.160121271612759e-05</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>7.073765797942427</v>
+        <v>4.262255612468849e-05</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>5.891207778790921</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>5.6149831180395</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>6.843504382318262</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>6.398558338369131</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>6.843181038857291</v>
-      </c>
-      <c r="M3" s="8" t="n">
-        <v>4.405365549842425</v>
-      </c>
-      <c r="N3" s="8" t="n">
-        <v>3.237430839985727</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>3.889106867124719</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>2.671226834697956</v>
+        <v>5.838052316773866e-05</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>5.286969722069583e-05</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>5.807281088028945e-05</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>4.925122368588165e-05</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>5.871885654772566e-05</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>5.759782203240497e-05</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>6.667023133863152e-05</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>5.914875626934294e-05</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>7.33175972240702e-05</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>6.703892267647393e-05</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>5.474249369777819e-05</v>
+      </c>
+      <c r="S3" s="7" t="n">
+        <v>4.804861167038559e-05</v>
+      </c>
+      <c r="T3" s="7" t="n">
+        <v>6.563963473895692e-05</v>
+      </c>
+      <c r="U3" s="8" t="n">
+        <v>4.257015916015085e-05</v>
+      </c>
+      <c r="V3" s="8" t="n">
+        <v>4.309701033864994e-05</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>6.816419983898568e-05</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>5.014774455552653e-05</v>
+      </c>
+      <c r="Y3" s="6" t="n">
+        <v>4.018916128717975e-05</v>
+      </c>
+      <c r="Z3" s="6" t="n">
+        <v>7.31286577507808e-05</v>
+      </c>
+      <c r="AA3" s="7" t="n">
+        <v>6.781036114015083e-05</v>
+      </c>
+      <c r="AB3" s="7" t="n">
+        <v>4.64831128161855e-05</v>
+      </c>
+      <c r="AC3" s="8" t="n">
+        <v>4.335526506473341e-05</v>
+      </c>
+      <c r="AD3" s="8" t="n">
+        <v>5.186903943330894e-05</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>4.433956733660589e-05</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>4.198393268635178e-05</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="n">
-        <v>6.380770880576456</v>
+        <v>4.807927388143309e-05</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5.541263805585698</v>
+        <v>6.885674852502521e-05</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>7.280721063306713</v>
+        <v>4.626348635617648e-05</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4.529125533362132</v>
+        <v>6.933896765881457e-05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.545536922135314</v>
+        <v>7.402419883755553e-05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.445697513346381</v>
+        <v>6.218076543041552e-05</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>2.873363369870678</v>
+        <v>3.943076541541325e-05</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>4.934525728998567</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>3.987287662523935</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>4.513376082293396</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>5.683755943084341</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>6.74683351404206</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>5.223864562892786</v>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>4.371675151821418</v>
-      </c>
-      <c r="O4" s="5" t="n">
-        <v>6.738683713827723</v>
-      </c>
-      <c r="P4" s="5" t="n">
-        <v>4.504203046849016</v>
+        <v>5.332907850942417e-05</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>4.865281377643835e-05</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>5.357074022180665e-05</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>5.676352527782154e-05</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>7.275878724623238e-05</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>6.074147253117858e-05</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>5.215356945372686e-05</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>5.469338729362393e-05</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>6.825600142859501e-05</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>6.98761117770862e-05</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>5.029198476345724e-05</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>6.088194550093458e-05</v>
+      </c>
+      <c r="T4" s="7" t="n">
+        <v>6.246900962949448e-05</v>
+      </c>
+      <c r="U4" s="8" t="n">
+        <v>5.85893561150575e-05</v>
+      </c>
+      <c r="V4" s="8" t="n">
+        <v>4.386177227766285e-05</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>4.509182072771315e-05</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>5.918767261424045e-05</v>
+      </c>
+      <c r="Y4" s="6" t="n">
+        <v>6.128237549586455e-05</v>
+      </c>
+      <c r="Z4" s="6" t="n">
+        <v>4.938981873881744e-05</v>
+      </c>
+      <c r="AA4" s="7" t="n">
+        <v>5.722691017563883e-05</v>
+      </c>
+      <c r="AB4" s="7" t="n">
+        <v>5.586019692874386e-05</v>
+      </c>
+      <c r="AC4" s="8" t="n">
+        <v>4.572602990350861e-05</v>
+      </c>
+      <c r="AD4" s="8" t="n">
+        <v>4.13012136209082e-05</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>5.279988417844522e-05</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>6.419648494791675e-05</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="3" t="n">
-        <v>2.636288970593771</v>
+        <v>7.401235316627802e-05</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>5.598686549809776</v>
+        <v>6.033033376727412e-05</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.74739802392018</v>
+        <v>6.901141708205969e-05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>2.536365096911963</v>
+        <v>5.706502822749805e-05</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>3.429739756141884</v>
+        <v>6.922659590985895e-05</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>6.466253333489817</v>
+        <v>7.342793992349678e-05</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.344867046149227</v>
+        <v>5.278415339039543e-05</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>3.040512771195056</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>3.473403369707919</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>6.649949295352826</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>6.758483248944378</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>3.616243399157779</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>5.541543204595959</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>3.234105784323433</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>2.832933872586024</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>4.496963876613224</v>
+        <v>4.152510155051401e-05</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>4.32289358682184e-05</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>3.937514060674237e-05</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.697912893152993e-05</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>5.329499432500774e-05</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>4.657049334219972e-05</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>7.352225317305977e-05</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>5.379247551129208e-05</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>4.370664707580221e-05</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>6.904870031586303e-05</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>7.170976686716229e-05</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>4.213380712464974e-05</v>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>7.400407298141611e-05</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>4.021235074600784e-05</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>5.600110522027494e-05</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>4.661596373584947e-05</v>
+      </c>
+      <c r="X5" s="6" t="n">
+        <v>6.331529748160931e-05</v>
+      </c>
+      <c r="Y5" s="7" t="n">
+        <v>6.646487336063936e-05</v>
+      </c>
+      <c r="Z5" s="7" t="n">
+        <v>5.744617558529242e-05</v>
+      </c>
+      <c r="AA5" s="8" t="n">
+        <v>4.343961860823515e-05</v>
+      </c>
+      <c r="AB5" s="8" t="n">
+        <v>4.571748275274901e-05</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>5.264978230663359e-05</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>5.887976114513877e-05</v>
+      </c>
+      <c r="AE5" s="6" t="n">
+        <v>4.370115956033377e-05</v>
+      </c>
+      <c r="AF5" s="6" t="n">
+        <v>5.795145006126705e-05</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="3" t="n">
-        <v>3.06391621393226</v>
+        <v>6.073666643458197e-05</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>5.07119133763026</v>
+        <v>4.099940079425283e-05</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.980875592345168</v>
+        <v>5.323603656489652e-05</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>4.986712438241089</v>
+        <v>4.491453903189931e-05</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>3.168238922043614</v>
+        <v>6.742425212510841e-05</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>3.052469276988863</v>
+        <v>3.771275034150361e-05</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.007887504597622</v>
+        <v>5.630757534564919e-05</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>5.294117944249461</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>4.44685568629068</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v>5.308785970132625</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>4.009546954401521</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>5.000604126399675</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>3.112390769733419</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>6.943033328323473</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>4.492547197605632</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>6.33356484420021</v>
+        <v>7.312291928001776e-05</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>5.675337304279702e-05</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>5.480819021950384e-05</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.561651886382521e-05</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.859579417348757e-05</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>6.646895916060114e-05</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>6.024197602674584e-05</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>4.73590095069228e-05</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>3.74835420191146e-05</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>6.896446016353218e-05</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>7.120929570588845e-05</v>
+      </c>
+      <c r="S6" s="8" t="n">
+        <v>4.169882992722347e-05</v>
+      </c>
+      <c r="T6" s="8" t="n">
+        <v>4.06049016614389e-05</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>6.644303881956327e-05</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>6.24955972178163e-05</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>4.820567400447172e-05</v>
+      </c>
+      <c r="X6" s="6" t="n">
+        <v>6.271450197446645e-05</v>
+      </c>
+      <c r="Y6" s="7" t="n">
+        <v>4.625615395799785e-05</v>
+      </c>
+      <c r="Z6" s="7" t="n">
+        <v>4.850271459845344e-05</v>
+      </c>
+      <c r="AA6" s="8" t="n">
+        <v>5.4579966819307e-05</v>
+      </c>
+      <c r="AB6" s="8" t="n">
+        <v>6.134998353050649e-05</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>4.154496768750604e-05</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>6.31750745578759e-05</v>
+      </c>
+      <c r="AE6" s="6" t="n">
+        <v>4.480575228214631e-05</v>
+      </c>
+      <c r="AF6" s="6" t="n">
+        <v>5.527777909177482e-05</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="4" t="n">
-        <v>7.052126258872061</v>
+        <v>4.390599967300144e-05</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3.284047073962878</v>
+        <v>5.250975330064101e-05</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>4.129134392288512</v>
+        <v>5.79015747551694e-05</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>6.948864409065642</v>
+        <v>3.827023178748605e-05</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.519547158554324</v>
+        <v>7.275112180274874e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.064645641357379</v>
+        <v>5.423675902752601e-05</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>3.013238142272167</v>
+        <v>5.559419462805462e-05</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>6.276379623936763</v>
-      </c>
-      <c r="I7" s="8" t="n">
-        <v>7.092778684700678</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>3.606190084850887</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>7.28067303262214</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>3.968446906587391</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>6.793344949633989</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>7.084260598992883</v>
-      </c>
-      <c r="O7" s="7" t="n">
-        <v>3.790117500957658</v>
-      </c>
-      <c r="P7" s="7" t="n">
-        <v>7.279343145231868</v>
+        <v>6.26550219584441e-05</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>5.529062692237403e-05</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>6.766885882944899e-05</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>6.425411046756494e-05</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>4.999352533767729e-05</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>4.844736089108582e-05</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>3.741429115640428e-05</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>4.166017998810244e-05</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>3.80598620554829e-05</v>
+      </c>
+      <c r="Q7" s="8" t="n">
+        <v>5.68591405387557e-05</v>
+      </c>
+      <c r="R7" s="8" t="n">
+        <v>4.42054349152232e-05</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>5.097605520830317e-05</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>4.645147704870604e-05</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>4.266017020925447e-05</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>6.240889328603575e-05</v>
+      </c>
+      <c r="W7" s="7" t="n">
+        <v>6.741313285331326e-05</v>
+      </c>
+      <c r="X7" s="7" t="n">
+        <v>6.468634803648949e-05</v>
+      </c>
+      <c r="Y7" s="8" t="n">
+        <v>4.102933209414812e-05</v>
+      </c>
+      <c r="Z7" s="8" t="n">
+        <v>7.372249117114814e-05</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>3.770857578987646e-05</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>4.795371444390263e-05</v>
+      </c>
+      <c r="AC7" s="6" t="n">
+        <v>7.224009737969007e-05</v>
+      </c>
+      <c r="AD7" s="6" t="n">
+        <v>6.764403972320757e-05</v>
+      </c>
+      <c r="AE7" s="7" t="n">
+        <v>3.79144256026208e-05</v>
+      </c>
+      <c r="AF7" s="7" t="n">
+        <v>5.720715084176931e-05</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="4" t="n">
-        <v>6.957180661685118</v>
+        <v>7.240946485135389e-05</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>6.383950144814563</v>
+        <v>5.077016301897593e-05</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>7.437325332343404</v>
+        <v>4.428952282315113e-05</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>3.685756014176857</v>
+        <v>5.723631039765476e-05</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3.203837980016258</v>
+        <v>4.190381360101713e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.208260308325726</v>
+        <v>6.913019558339519e-05</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>4.05047103332386</v>
+        <v>6.154626635707566e-05</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>3.160385488697595</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>6.873186153943234</v>
-      </c>
-      <c r="J8" s="8" t="n">
-        <v>2.513435225637851</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>6.365121273357486</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>5.000669129559636</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>5.120714812092758</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>5.628446215810471</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>3.382345448911284</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>3.927314699748175</v>
+        <v>7.035539697147787e-05</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>4.569065483909835e-05</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>6.467008093860212e-05</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>3.833686432889706e-05</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>6.594396395695849e-05</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>5.951677800545348e-05</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>4.985981463836002e-05</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>5.665177732454179e-05</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>5.248658186796876e-05</v>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v>6.38514721198464e-05</v>
+      </c>
+      <c r="R8" s="8" t="n">
+        <v>6.636483588377362e-05</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>5.864437206194704e-05</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>5.175495909005125e-05</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>5.579192344358358e-05</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>5.453308107733433e-05</v>
+      </c>
+      <c r="W8" s="7" t="n">
+        <v>4.85914483222845e-05</v>
+      </c>
+      <c r="X8" s="7" t="n">
+        <v>5.424424651278863e-05</v>
+      </c>
+      <c r="Y8" s="8" t="n">
+        <v>3.905180620634551e-05</v>
+      </c>
+      <c r="Z8" s="8" t="n">
+        <v>6.514890039278252e-05</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>5.521487180301552e-05</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>4.657735663436703e-05</v>
+      </c>
+      <c r="AC8" s="6" t="n">
+        <v>6.025664853217163e-05</v>
+      </c>
+      <c r="AD8" s="6" t="n">
+        <v>5.503660441810464e-05</v>
+      </c>
+      <c r="AE8" s="7" t="n">
+        <v>4.677201570443078e-05</v>
+      </c>
+      <c r="AF8" s="7" t="n">
+        <v>5.654967648753314e-05</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5.370419285387139e-05</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>5.292428854133791e-05</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>4.167361129489742e-05</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>6.1922794517161e-05</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>5.567883219292426e-05</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>7.041382458909059e-05</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>4.047764723241448e-05</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>4.080767845244463e-05</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>4.004463902737122e-05</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>5.282780833429373e-05</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>6.674760902957599e-05</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>5.686345592078685e-05</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>4.205449305768984e-05</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>6.335203729082281e-05</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>5.249718005012342e-05</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>5.24795798423579e-05</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>5.591534509323446e-05</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>4.914765322302828e-05</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>6.739573508548868e-05</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>4.88411823875166e-05</v>
+      </c>
+      <c r="U9" s="7" t="n">
+        <v>3.766351229276344e-05</v>
+      </c>
+      <c r="V9" s="7" t="n">
+        <v>7.225961906649223e-05</v>
+      </c>
+      <c r="W9" s="8" t="n">
+        <v>6.25392943349911e-05</v>
+      </c>
+      <c r="X9" s="8" t="n">
+        <v>5.889912248118536e-05</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>4.771834221723166e-05</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>4.360959945455281e-05</v>
+      </c>
+      <c r="AA9" s="6" t="n">
+        <v>4.304345972120963e-05</v>
+      </c>
+      <c r="AB9" s="6" t="n">
+        <v>4.590786183391973e-05</v>
+      </c>
+      <c r="AC9" s="7" t="n">
+        <v>5.041449182866292e-05</v>
+      </c>
+      <c r="AD9" s="7" t="n">
+        <v>4.914166308352829e-05</v>
+      </c>
+      <c r="AE9" s="8" t="n">
+        <v>5.583215651793121e-05</v>
+      </c>
+      <c r="AF9" s="8" t="n">
+        <v>4.383884807598465e-05</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>5.441128569688008e-05</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>4.447119349985215e-05</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>6.043333278481575e-05</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>5.586546348557181e-05</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>5.971836341849053e-05</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>6.549914666739855e-05</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>5.648001121933141e-05</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>5.030484165709435e-05</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>6.173598528690577e-05</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>5.248877643856671e-05</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>5.589577099368987e-05</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>6.533797904001516e-05</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>5.359397393350221e-05</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>6.954843666061598e-05</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>4.897605516083894e-05</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>4.248367907603829e-05</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>7.353384355011447e-05</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>5.380658607092908e-05</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>5.225047303098374e-05</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>5.627632437660488e-05</v>
+      </c>
+      <c r="U10" s="7" t="n">
+        <v>6.118317083644765e-05</v>
+      </c>
+      <c r="V10" s="7" t="n">
+        <v>6.447895696470748e-05</v>
+      </c>
+      <c r="W10" s="8" t="n">
+        <v>4.948953121935465e-05</v>
+      </c>
+      <c r="X10" s="8" t="n">
+        <v>6.451418424892178e-05</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>6.604933087633249e-05</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>5.906098458675345e-05</v>
+      </c>
+      <c r="AA10" s="6" t="n">
+        <v>6.858315008548624e-05</v>
+      </c>
+      <c r="AB10" s="6" t="n">
+        <v>4.465054141563657e-05</v>
+      </c>
+      <c r="AC10" s="7" t="n">
+        <v>4.356387232343385e-05</v>
+      </c>
+      <c r="AD10" s="7" t="n">
+        <v>5.622893348287393e-05</v>
+      </c>
+      <c r="AE10" s="8" t="n">
+        <v>5.574432142571225e-05</v>
+      </c>
+      <c r="AF10" s="8" t="n">
+        <v>4.417949935452835e-05</v>
       </c>
     </row>
   </sheetData>
@@ -911,7 +1507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,406 +1531,1002 @@
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="18" max="18"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="27" max="27"/>
+    <col width="5" customWidth="1" min="28" max="28"/>
+    <col width="5" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>4.964790473455103</v>
+        <v>3.774792654372062e-05</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>6.854744055578411</v>
+        <v>5.873346411485595e-05</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>5.420378417162102</v>
+        <v>4.015979034144518e-05</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>3.267964426388154</v>
+        <v>4.645764552180246e-05</v>
       </c>
       <c r="E1" s="3" t="n">
-        <v>7.431769698280652</v>
+        <v>3.947650073934271e-05</v>
       </c>
       <c r="F1" s="3" t="n">
-        <v>4.456781194463741</v>
+        <v>5.304013346260374e-05</v>
       </c>
       <c r="G1" s="4" t="n">
-        <v>7.233112262445052</v>
+        <v>5.267923902263845e-05</v>
       </c>
       <c r="H1" s="4" t="n">
-        <v>3.298933930069698</v>
-      </c>
-      <c r="I1" s="5" t="n">
-        <v>6.229048947468991</v>
-      </c>
-      <c r="J1" s="5" t="n">
-        <v>5.077879254855961</v>
-      </c>
-      <c r="K1" s="6" t="n">
-        <v>4.929283348126359</v>
-      </c>
-      <c r="L1" s="6" t="n">
-        <v>2.598710326022109</v>
-      </c>
-      <c r="M1" s="7" t="n">
-        <v>7.424926306139287</v>
-      </c>
-      <c r="N1" s="7" t="n">
-        <v>4.569572047202868</v>
-      </c>
-      <c r="O1" s="8" t="n">
-        <v>3.229443922253472</v>
-      </c>
-      <c r="P1" s="8" t="n">
-        <v>3.684074290872431</v>
+        <v>5.950891306579085e-05</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>4.867973991547918e-05</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>4.189677664675524e-05</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>4.441401580857238e-05</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>5.030104748268475e-05</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>6.584890612049204e-05</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>6.647107123552423e-05</v>
+      </c>
+      <c r="O1" s="4" t="n">
+        <v>4.868977550442596e-05</v>
+      </c>
+      <c r="P1" s="4" t="n">
+        <v>5.748933532045654e-05</v>
+      </c>
+      <c r="Q1" s="5" t="n">
+        <v>4.70601171718963e-05</v>
+      </c>
+      <c r="R1" s="5" t="n">
+        <v>4.617287916357027e-05</v>
+      </c>
+      <c r="S1" s="6" t="n">
+        <v>5.715604854237426e-05</v>
+      </c>
+      <c r="T1" s="6" t="n">
+        <v>4.584956213571414e-05</v>
+      </c>
+      <c r="U1" s="7" t="n">
+        <v>3.742252151170304e-05</v>
+      </c>
+      <c r="V1" s="7" t="n">
+        <v>4.824113633929799e-05</v>
+      </c>
+      <c r="W1" s="8" t="n">
+        <v>6.298586353837898e-05</v>
+      </c>
+      <c r="X1" s="8" t="n">
+        <v>5.475389264206972e-05</v>
+      </c>
+      <c r="Y1" s="5" t="n">
+        <v>4.354791256893242e-05</v>
+      </c>
+      <c r="Z1" s="5" t="n">
+        <v>4.001353463996507e-05</v>
+      </c>
+      <c r="AA1" s="6" t="n">
+        <v>6.735804929703461e-05</v>
+      </c>
+      <c r="AB1" s="6" t="n">
+        <v>5.249471365176162e-05</v>
+      </c>
+      <c r="AC1" s="7" t="n">
+        <v>4.22417780968195e-05</v>
+      </c>
+      <c r="AD1" s="7" t="n">
+        <v>4.990736268021831e-05</v>
+      </c>
+      <c r="AE1" s="8" t="n">
+        <v>6.274949369172265e-05</v>
+      </c>
+      <c r="AF1" s="8" t="n">
+        <v>3.984378360182973e-05</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>4.341658724886597</v>
+        <v>4.014936436327258e-05</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>6.580639622671218</v>
+        <v>5.326422236708233e-05</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.611320851457358</v>
+        <v>4.707804865670228e-05</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.70981248833738</v>
+        <v>6.125214270326468e-05</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>5.710797450583516</v>
+        <v>5.839628230830166e-05</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>7.467226478868005</v>
+        <v>6.598593512233586e-05</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.286878897096399</v>
+        <v>6.785381885140799e-05</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.75697254976418</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>4.998675578778206</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>5.393472843949504</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>4.503343945362858</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>4.298298857382562</v>
-      </c>
-      <c r="M2" s="7" t="n">
-        <v>6.138570914881556</v>
-      </c>
-      <c r="N2" s="7" t="n">
-        <v>4.421666941830321</v>
-      </c>
-      <c r="O2" s="8" t="n">
-        <v>7.117051454264295</v>
-      </c>
-      <c r="P2" s="8" t="n">
-        <v>4.793034112653828</v>
+        <v>6.592384805533106e-05</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>3.872594924508067e-05</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>7.384584077321744e-05</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>3.792579471490433e-05</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>6.381638976963265e-05</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>6.976741135741318e-05</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>5.361328225874766e-05</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>6.236521311209598e-05</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6.123978505494395e-05</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>4.111141766405625e-05</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>6.298212837038007e-05</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>6.41952919522639e-05</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>4.382964075643772e-05</v>
+      </c>
+      <c r="U2" s="7" t="n">
+        <v>7.314619415194559e-05</v>
+      </c>
+      <c r="V2" s="7" t="n">
+        <v>5.746406470516421e-05</v>
+      </c>
+      <c r="W2" s="8" t="n">
+        <v>4.262313575566562e-05</v>
+      </c>
+      <c r="X2" s="8" t="n">
+        <v>4.410489076812966e-05</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>3.927764507630667e-05</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>4.075677423587668e-05</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>4.294552209795071e-05</v>
+      </c>
+      <c r="AB2" s="6" t="n">
+        <v>4.907875209525673e-05</v>
+      </c>
+      <c r="AC2" s="7" t="n">
+        <v>7.285924544182782e-05</v>
+      </c>
+      <c r="AD2" s="7" t="n">
+        <v>3.895642310352646e-05</v>
+      </c>
+      <c r="AE2" s="8" t="n">
+        <v>4.151330668435308e-05</v>
+      </c>
+      <c r="AF2" s="8" t="n">
+        <v>6.430771696287644e-05</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="2" t="n">
-        <v>5.92444342205707</v>
+        <v>5.026346434480115e-05</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>6.817663040821937</v>
+        <v>4.221801187772253e-05</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>4.87031618233153</v>
+        <v>5.551417567636032e-05</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>5.45863805633913</v>
+        <v>4.604875058650502e-05</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.750294442286077</v>
+        <v>3.841388810966168e-05</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.089139066376624</v>
+        <v>4.485071977624064e-05</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>5.514789894578181</v>
+        <v>5.106018899658702e-05</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>7.183737324545115</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>5.453620568664565</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>2.985708399429163</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>2.595845049952424</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>4.920599203616503</v>
-      </c>
-      <c r="M3" s="8" t="n">
-        <v>3.899256467828241</v>
-      </c>
-      <c r="N3" s="8" t="n">
-        <v>3.120772119398563</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>6.019756775134294</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>4.918427101585201</v>
+        <v>4.903346193644726e-05</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>6.991350181154455e-05</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>7.357097339177258e-05</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>4.567072015802602e-05</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>5.305926589750129e-05</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>5.728447187905897e-05</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>5.326095441040346e-05</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>4.796617656038587e-05</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>6.72174862661038e-05</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>6.442087695305459e-05</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>5.3225127620764e-05</v>
+      </c>
+      <c r="S3" s="7" t="n">
+        <v>6.842010274685562e-05</v>
+      </c>
+      <c r="T3" s="7" t="n">
+        <v>6.771151893978263e-05</v>
+      </c>
+      <c r="U3" s="8" t="n">
+        <v>6.863257238743427e-05</v>
+      </c>
+      <c r="V3" s="8" t="n">
+        <v>7.077662378566921e-05</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>6.015517736276062e-05</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>5.112957033105402e-05</v>
+      </c>
+      <c r="Y3" s="6" t="n">
+        <v>6.324136506409412e-05</v>
+      </c>
+      <c r="Z3" s="6" t="n">
+        <v>5.035076527232736e-05</v>
+      </c>
+      <c r="AA3" s="7" t="n">
+        <v>4.722674528650933e-05</v>
+      </c>
+      <c r="AB3" s="7" t="n">
+        <v>5.56547460942785e-05</v>
+      </c>
+      <c r="AC3" s="8" t="n">
+        <v>5.760789158076786e-05</v>
+      </c>
+      <c r="AD3" s="8" t="n">
+        <v>6.536992739107541e-05</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>5.130775637211412e-05</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>6.792685095532469e-05</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="n">
-        <v>2.543813809295964</v>
+        <v>6.188537874373311e-05</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.572741313951961</v>
+        <v>6.277743265290242e-05</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>5.105323533923</v>
+        <v>6.031965550086764e-05</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4.260047150219648</v>
+        <v>6.495065047143636e-05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.332154119761352</v>
+        <v>6.855634455828193e-05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.655292479716778</v>
+        <v>4.60290064628711e-05</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>6.671122720661105</v>
+        <v>5.09854668146928e-05</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>7.238170539920981</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>3.382171486191473</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>3.835132866597635</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>6.013023916864744</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>4.74652108377568</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>4.130287714398392</v>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>6.713797066992755</v>
-      </c>
-      <c r="O4" s="5" t="n">
-        <v>5.288009621787601</v>
-      </c>
-      <c r="P4" s="5" t="n">
-        <v>5.493904826536307</v>
+        <v>4.211687561994722e-05</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>4.525859401013101e-05</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>4.369880346028597e-05</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>4.322282667080921e-05</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>3.893059660183412e-05</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.941630696256612e-05</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>5.317753243554171e-05</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>4.972233256341856e-05</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>5.512155323151495e-05</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>3.758406377526157e-05</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>3.974902157617393e-05</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>4.777190457076685e-05</v>
+      </c>
+      <c r="T4" s="7" t="n">
+        <v>3.765297411889642e-05</v>
+      </c>
+      <c r="U4" s="8" t="n">
+        <v>4.203349689654679e-05</v>
+      </c>
+      <c r="V4" s="8" t="n">
+        <v>3.827234224428061e-05</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>7.149318886613954e-05</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>4.904289253704513e-05</v>
+      </c>
+      <c r="Y4" s="6" t="n">
+        <v>4.545754779453611e-05</v>
+      </c>
+      <c r="Z4" s="6" t="n">
+        <v>5.011729063247085e-05</v>
+      </c>
+      <c r="AA4" s="7" t="n">
+        <v>5.232851866771233e-05</v>
+      </c>
+      <c r="AB4" s="7" t="n">
+        <v>4.13473941947503e-05</v>
+      </c>
+      <c r="AC4" s="8" t="n">
+        <v>3.734024878671584e-05</v>
+      </c>
+      <c r="AD4" s="8" t="n">
+        <v>6.547991158029122e-05</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>5.296018733055396e-05</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>5.424354208200028e-05</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="3" t="n">
-        <v>6.116206352127653</v>
+        <v>4.702168778309167e-05</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>6.98780079020751</v>
+        <v>4.32383752383966e-05</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.635290358344469</v>
+        <v>4.103826987173646e-05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>4.380356122900804</v>
+        <v>6.57207936654202e-05</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>6.944428327675362</v>
+        <v>5.700339029315634e-05</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>3.264229437885697</v>
+        <v>4.692599723508524e-05</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.987597128814719</v>
+        <v>5.298279838563423e-05</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>3.339594388907137</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>3.885258680236048</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>5.666652534546847</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>5.126712671901971</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>4.633971884600262</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>5.125587629162862</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>7.460417005595388</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>7.111355814733916</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>4.814619778239935</v>
+        <v>4.790561870494478e-05</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>5.899350129701475e-05</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>4.234794570273798e-05</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>7.272536879949964e-05</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.350826274509555e-05</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>4.289750325708864e-05</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>5.343364130481754e-05</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>6.247074097133582e-05</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>4.518781140271986e-05</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>4.773969252073514e-05</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.221443366382908e-05</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>6.442766062094377e-05</v>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>4.907019644719661e-05</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>5.14503571936353e-05</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>5.908664956354212e-05</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>4.632549331059614e-05</v>
+      </c>
+      <c r="X5" s="6" t="n">
+        <v>6.457140350186268e-05</v>
+      </c>
+      <c r="Y5" s="7" t="n">
+        <v>4.739514743893154e-05</v>
+      </c>
+      <c r="Z5" s="7" t="n">
+        <v>4.08448165051525e-05</v>
+      </c>
+      <c r="AA5" s="8" t="n">
+        <v>4.475034345046427e-05</v>
+      </c>
+      <c r="AB5" s="8" t="n">
+        <v>4.525962448408494e-05</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>6.141398635694416e-05</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>5.447587956260295e-05</v>
+      </c>
+      <c r="AE5" s="6" t="n">
+        <v>5.478775081310039e-05</v>
+      </c>
+      <c r="AF5" s="6" t="n">
+        <v>7.336041198797449e-05</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="3" t="n">
-        <v>3.174202384600151</v>
+        <v>4.671417806572972e-05</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>5.934195799826129</v>
+        <v>4.06130150560683e-05</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.473477151699514</v>
+        <v>3.895302111701113e-05</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>6.93284285463916</v>
+        <v>6.478923752154184e-05</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>5.88877105273732</v>
+        <v>6.542945712136374e-05</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>5.101001600109845</v>
+        <v>5.048821021748249e-05</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.493739367783421</v>
+        <v>6.424997832507498e-05</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>6.425914208075585</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>4.961460560276334</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v>4.718091099496207</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>5.444272211145455</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>2.990041374347125</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>6.053799806930476</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>3.941962477976413</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>4.85405011549024</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>5.798514895298339</v>
+        <v>5.601651336963495e-05</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>6.969540653999995e-05</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>4.985867920008567e-05</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.805453464489574e-05</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.132803611843411e-05</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>5.050979701039374e-05</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>4.197056954046539e-05</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>6.714998545375618e-05</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>5.810628031024047e-05</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>4.24218596971814e-05</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>7.332395333648975e-05</v>
+      </c>
+      <c r="S6" s="8" t="n">
+        <v>6.407914556218689e-05</v>
+      </c>
+      <c r="T6" s="8" t="n">
+        <v>3.880236731403198e-05</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>4.887716109886855e-05</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>6.05681713382502e-05</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>5.2832507556565e-05</v>
+      </c>
+      <c r="X6" s="6" t="n">
+        <v>5.963158761614663e-05</v>
+      </c>
+      <c r="Y6" s="7" t="n">
+        <v>3.870490124209094e-05</v>
+      </c>
+      <c r="Z6" s="7" t="n">
+        <v>4.121808366711048e-05</v>
+      </c>
+      <c r="AA6" s="8" t="n">
+        <v>5.122179758986937e-05</v>
+      </c>
+      <c r="AB6" s="8" t="n">
+        <v>6.441010930156108e-05</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>5.439518708106446e-05</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>4.434983942457772e-05</v>
+      </c>
+      <c r="AE6" s="6" t="n">
+        <v>4.555422111775982e-05</v>
+      </c>
+      <c r="AF6" s="6" t="n">
+        <v>4.782244255227013e-05</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="4" t="n">
-        <v>5.44314273479065</v>
+        <v>5.204690245593266e-05</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3.094252591759974</v>
+        <v>4.207852416451338e-05</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>3.08193985834221</v>
+        <v>4.527564218589526e-05</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>5.988631445687817</v>
+        <v>6.340729158901991e-05</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.323026851388079</v>
+        <v>6.692724438946254e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.362783371606263</v>
+        <v>5.453805798907957e-05</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>3.2194394487765</v>
+        <v>3.790103667730949e-05</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>7.106294156135959</v>
-      </c>
-      <c r="I7" s="8" t="n">
-        <v>5.931162668793052</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>3.206532481525393</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>3.537040821575921</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>3.139771409496928</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>5.590926373020927</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>3.363507192626937</v>
-      </c>
-      <c r="O7" s="7" t="n">
-        <v>6.30873764001974</v>
-      </c>
-      <c r="P7" s="7" t="n">
-        <v>5.990373542162562</v>
+        <v>4.039928304283665e-05</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>4.61089528437828e-05</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>6.232095966352986e-05</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>4.840117812899075e-05</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>6.074584448053547e-05</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>6.882201644577522e-05</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>6.748502320201455e-05</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>6.576277235998081e-05</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>5.837762520634508e-05</v>
+      </c>
+      <c r="Q7" s="8" t="n">
+        <v>5.070827656667107e-05</v>
+      </c>
+      <c r="R7" s="8" t="n">
+        <v>5.732566378276409e-05</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>7.063153937010894e-05</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>3.855761906497684e-05</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>6.596157636296006e-05</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>4.699979721271619e-05</v>
+      </c>
+      <c r="W7" s="7" t="n">
+        <v>4.898213226708502e-05</v>
+      </c>
+      <c r="X7" s="7" t="n">
+        <v>6.934961551547601e-05</v>
+      </c>
+      <c r="Y7" s="8" t="n">
+        <v>4.086151576299158e-05</v>
+      </c>
+      <c r="Z7" s="8" t="n">
+        <v>4.786665332571225e-05</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>6.813898960964949e-05</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>5.465588348342918e-05</v>
+      </c>
+      <c r="AC7" s="6" t="n">
+        <v>5.410769380954481e-05</v>
+      </c>
+      <c r="AD7" s="6" t="n">
+        <v>7.04187165534721e-05</v>
+      </c>
+      <c r="AE7" s="7" t="n">
+        <v>5.820662670730739e-05</v>
+      </c>
+      <c r="AF7" s="7" t="n">
+        <v>5.997547587974915e-05</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="4" t="n">
-        <v>3.193327767004297</v>
+        <v>7.295120923658872e-05</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.501997206603397</v>
+        <v>4.622161228889309e-05</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>5.104675205968983</v>
+        <v>3.754139645934825e-05</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>2.572024439405609</v>
+        <v>4.896344314097168e-05</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7.102941831960035</v>
+        <v>5.828784644183961e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.585789344559561</v>
+        <v>3.965894551522327e-05</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>7.478798635832755</v>
+        <v>4.433383776288707e-05</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>3.297143496238642</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>3.577228245375053</v>
-      </c>
-      <c r="J8" s="8" t="n">
-        <v>5.756210580675798</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>6.455097162269636</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>4.969123913650565</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>4.485418937646051</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>7.462392777640742</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>2.879802545979648</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>5.987479255789692</v>
+        <v>6.074136726602718e-05</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>3.828860812654541e-05</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>4.897071928443686e-05</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>6.465222920543771e-05</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>7.041083536839639e-05</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>5.805388058239474e-05</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>6.630809907023979e-05</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>5.905120853760591e-05</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>7.274743395083491e-05</v>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v>5.766135006690883e-05</v>
+      </c>
+      <c r="R8" s="8" t="n">
+        <v>6.662002578307947e-05</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>6.957669478923125e-05</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>4.307814154115251e-05</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>4.402158859649245e-05</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>6.780926674634948e-05</v>
+      </c>
+      <c r="W8" s="7" t="n">
+        <v>5.397059460141451e-05</v>
+      </c>
+      <c r="X8" s="7" t="n">
+        <v>3.914018431588807e-05</v>
+      </c>
+      <c r="Y8" s="8" t="n">
+        <v>5.76150604643715e-05</v>
+      </c>
+      <c r="Z8" s="8" t="n">
+        <v>4.332760649136454e-05</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>5.117398416026238e-05</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>6.456947507854886e-05</v>
+      </c>
+      <c r="AC8" s="6" t="n">
+        <v>6.232043431004503e-05</v>
+      </c>
+      <c r="AD8" s="6" t="n">
+        <v>7.174397669262388e-05</v>
+      </c>
+      <c r="AE8" s="7" t="n">
+        <v>4.901542184043449e-05</v>
+      </c>
+      <c r="AF8" s="7" t="n">
+        <v>7.121457944286359e-05</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>6.738408924043576e-05</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>4.933610196166121e-05</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>3.955492659641624e-05</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>6.189145052351867e-05</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>4.381052311130413e-05</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>6.417166897869201e-05</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>5.226338975573334e-05</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>6.366116259204675e-05</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>4.098438684622051e-05</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>6.960103015106838e-05</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>5.76798205298717e-05</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>4.117791739112218e-05</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>3.862742610913546e-05</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>3.826863950268915e-05</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>5.726730408347293e-05</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>6.295893684416555e-05</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>4.241684449064229e-05</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>6.900044625140254e-05</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>5.763540552140222e-05</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>5.716588931323089e-05</v>
+      </c>
+      <c r="U9" s="7" t="n">
+        <v>5.984304853780462e-05</v>
+      </c>
+      <c r="V9" s="7" t="n">
+        <v>5.052121859400251e-05</v>
+      </c>
+      <c r="W9" s="8" t="n">
+        <v>4.417906602863969e-05</v>
+      </c>
+      <c r="X9" s="8" t="n">
+        <v>4.283503911571242e-05</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>5.753474347347188e-05</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>4.293995914153826e-05</v>
+      </c>
+      <c r="AA9" s="6" t="n">
+        <v>7.319582918711161e-05</v>
+      </c>
+      <c r="AB9" s="6" t="n">
+        <v>4.836900983014243e-05</v>
+      </c>
+      <c r="AC9" s="7" t="n">
+        <v>6.162494179335696e-05</v>
+      </c>
+      <c r="AD9" s="7" t="n">
+        <v>7.280428449437745e-05</v>
+      </c>
+      <c r="AE9" s="8" t="n">
+        <v>6.385678404859666e-05</v>
+      </c>
+      <c r="AF9" s="8" t="n">
+        <v>4.008686807911207e-05</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>5.522209692135592e-05</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>4.288856293454726e-05</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>4.711769163045422e-05</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>3.940510760906982e-05</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>6.488418826038957e-05</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>4.695641701717143e-05</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>5.418955385919557e-05</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>4.417525696001656e-05</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>6.524892449844679e-05</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>3.799851093838416e-05</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>5.198327308430521e-05</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>4.397291072491976e-05</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>6.727116506632573e-05</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>6.164479214086874e-05</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>5.940206512352619e-05</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>5.999049005237552e-05</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>5.022466154036703e-05</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>6.596227194963981e-05</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>4.769875299438299e-05</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>4.495602415942492e-05</v>
+      </c>
+      <c r="U10" s="7" t="n">
+        <v>5.54571409622742e-05</v>
+      </c>
+      <c r="V10" s="7" t="n">
+        <v>3.750106694311101e-05</v>
+      </c>
+      <c r="W10" s="8" t="n">
+        <v>5.627002739342275e-05</v>
+      </c>
+      <c r="X10" s="8" t="n">
+        <v>6.820754448421759e-05</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>5.445682918260443e-05</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>6.70328050935772e-05</v>
+      </c>
+      <c r="AA10" s="6" t="n">
+        <v>4.155743979263315e-05</v>
+      </c>
+      <c r="AB10" s="6" t="n">
+        <v>6.423834914795849e-05</v>
+      </c>
+      <c r="AC10" s="7" t="n">
+        <v>4.981833836689048e-05</v>
+      </c>
+      <c r="AD10" s="7" t="n">
+        <v>5.256476769897754e-05</v>
+      </c>
+      <c r="AE10" s="8" t="n">
+        <v>6.711746813287012e-05</v>
+      </c>
+      <c r="AF10" s="8" t="n">
+        <v>6.838607032726799e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +2540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,406 +2564,1002 @@
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="18" max="18"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="27" max="27"/>
+    <col width="5" customWidth="1" min="28" max="28"/>
+    <col width="5" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>5.663882644882806</v>
+        <v>5.131470626832721e-05</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>4.627138837666146</v>
+        <v>6.076669854032945e-05</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>2.611041666553048</v>
+        <v>5.957997105481903e-05</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>2.98939990697674</v>
+        <v>5.847463740207063e-05</v>
       </c>
       <c r="E1" s="3" t="n">
-        <v>5.466294290533076</v>
+        <v>6.134295857418612e-05</v>
       </c>
       <c r="F1" s="3" t="n">
-        <v>3.306519787415678</v>
+        <v>6.938171963140851e-05</v>
       </c>
       <c r="G1" s="4" t="n">
-        <v>4.951941014195519</v>
+        <v>4.991014902798697e-05</v>
       </c>
       <c r="H1" s="4" t="n">
-        <v>6.247914205887145</v>
-      </c>
-      <c r="I1" s="5" t="n">
-        <v>7.405793700254433</v>
-      </c>
-      <c r="J1" s="5" t="n">
-        <v>6.204130350137886</v>
-      </c>
-      <c r="K1" s="6" t="n">
-        <v>4.762448287676744</v>
-      </c>
-      <c r="L1" s="6" t="n">
-        <v>2.525595398324947</v>
-      </c>
-      <c r="M1" s="7" t="n">
-        <v>6.752131494405916</v>
-      </c>
-      <c r="N1" s="7" t="n">
-        <v>6.897149634945187</v>
-      </c>
-      <c r="O1" s="8" t="n">
-        <v>5.67268796333359</v>
-      </c>
-      <c r="P1" s="8" t="n">
-        <v>2.704681019098607</v>
+        <v>6.05331538078972e-05</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>3.969546478659429e-05</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>4.851468868767047e-05</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>4.355490620506957e-05</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>5.989681584560187e-05</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>6.862033125850408e-05</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>4.555887250985238e-05</v>
+      </c>
+      <c r="O1" s="4" t="n">
+        <v>6.750271450447087e-05</v>
+      </c>
+      <c r="P1" s="4" t="n">
+        <v>5.64817693227557e-05</v>
+      </c>
+      <c r="Q1" s="5" t="n">
+        <v>5.430079874075405e-05</v>
+      </c>
+      <c r="R1" s="5" t="n">
+        <v>6.816670829537148e-05</v>
+      </c>
+      <c r="S1" s="6" t="n">
+        <v>3.775580632590548e-05</v>
+      </c>
+      <c r="T1" s="6" t="n">
+        <v>4.530553289535552e-05</v>
+      </c>
+      <c r="U1" s="7" t="n">
+        <v>7.402703856936558e-05</v>
+      </c>
+      <c r="V1" s="7" t="n">
+        <v>5.426817522427396e-05</v>
+      </c>
+      <c r="W1" s="8" t="n">
+        <v>6.411015610394514e-05</v>
+      </c>
+      <c r="X1" s="8" t="n">
+        <v>4.232981583998831e-05</v>
+      </c>
+      <c r="Y1" s="5" t="n">
+        <v>5.872740256298863e-05</v>
+      </c>
+      <c r="Z1" s="5" t="n">
+        <v>4.545112394249223e-05</v>
+      </c>
+      <c r="AA1" s="6" t="n">
+        <v>6.852283351976543e-05</v>
+      </c>
+      <c r="AB1" s="6" t="n">
+        <v>5.191176735812252e-05</v>
+      </c>
+      <c r="AC1" s="7" t="n">
+        <v>4.624383235801603e-05</v>
+      </c>
+      <c r="AD1" s="7" t="n">
+        <v>4.029636694926779e-05</v>
+      </c>
+      <c r="AE1" s="8" t="n">
+        <v>3.735985541338017e-05</v>
+      </c>
+      <c r="AF1" s="8" t="n">
+        <v>5.827754195179461e-05</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>3.265234667750346</v>
+        <v>4.38838529415696e-05</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>3.699887542613838</v>
+        <v>3.824360728669493e-05</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5.451385222251808</v>
+        <v>6.164883788186794e-05</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4.766212365182103</v>
+        <v>4.395400445386658e-05</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>5.416303064248607</v>
+        <v>4.567386567615707e-05</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>4.727061744548716</v>
+        <v>4.302850207365935e-05</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.327750780820618</v>
+        <v>6.312481507078417e-05</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.730058680792696</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>7.331545257432946</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>6.599470613771898</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>3.41419322424695</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>6.581159535835759</v>
-      </c>
-      <c r="M2" s="7" t="n">
-        <v>4.70901850505839</v>
-      </c>
-      <c r="N2" s="7" t="n">
-        <v>2.905358324436643</v>
-      </c>
-      <c r="O2" s="8" t="n">
-        <v>3.979569808937082</v>
-      </c>
-      <c r="P2" s="8" t="n">
-        <v>6.195421362689571</v>
+        <v>6.580267851512815e-05</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>4.538307000899319e-05</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>6.315719199532454e-05</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>4.413634614424436e-05</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>4.271684446793585e-05</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>4.481146222159757e-05</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>5.593758178923734e-05</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>4.602587865704539e-05</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>7.291340247215436e-05</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>6.054937204044194e-05</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>6.558742773862754e-05</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>5.382216506979035e-05</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>6.514558838460666e-05</v>
+      </c>
+      <c r="U2" s="7" t="n">
+        <v>5.690202816650926e-05</v>
+      </c>
+      <c r="V2" s="7" t="n">
+        <v>7.256515957659664e-05</v>
+      </c>
+      <c r="W2" s="8" t="n">
+        <v>4.763545088550728e-05</v>
+      </c>
+      <c r="X2" s="8" t="n">
+        <v>4.821958268527741e-05</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>7.251405681071197e-05</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>4.027953976369071e-05</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>6.212923100717513e-05</v>
+      </c>
+      <c r="AB2" s="6" t="n">
+        <v>3.864189382968645e-05</v>
+      </c>
+      <c r="AC2" s="7" t="n">
+        <v>5.304231669840103e-05</v>
+      </c>
+      <c r="AD2" s="7" t="n">
+        <v>6.98773029122878e-05</v>
+      </c>
+      <c r="AE2" s="8" t="n">
+        <v>4.712017826028126e-05</v>
+      </c>
+      <c r="AF2" s="8" t="n">
+        <v>5.31263948785717e-05</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="2" t="n">
-        <v>5.180555464432864</v>
+        <v>6.471499333216514e-05</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3.992190218676515</v>
+        <v>6.372750313424539e-05</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>6.03710328141669</v>
+        <v>4.349746514688798e-05</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>5.368208201671061</v>
+        <v>7.072530078045212e-05</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.1703558079971</v>
+        <v>4.752086089336466e-05</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.380450139755832</v>
+        <v>5.617873574550247e-05</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>3.777061050971595</v>
+        <v>4.177602612664807e-05</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>4.448000818416403</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>4.354404065319757</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>5.258346741937745</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>6.85045885474578</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>3.618235796850936</v>
-      </c>
-      <c r="M3" s="8" t="n">
-        <v>4.072336232174899</v>
-      </c>
-      <c r="N3" s="8" t="n">
-        <v>5.908252239502215</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>5.08437621355378</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>6.929401219555384</v>
+        <v>7.163076258160122e-05</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>3.789083033392033e-05</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>5.826444733445385e-05</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>7.095022469778492e-05</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>4.412268938904139e-05</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>6.644883625845922e-05</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>6.705187712843647e-05</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>7.009634469073017e-05</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>7.406461932182733e-05</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>4.569614703689434e-05</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>4.957943688954851e-05</v>
+      </c>
+      <c r="S3" s="7" t="n">
+        <v>5.320069997285058e-05</v>
+      </c>
+      <c r="T3" s="7" t="n">
+        <v>6.635171535665883e-05</v>
+      </c>
+      <c r="U3" s="8" t="n">
+        <v>7.356329359718054e-05</v>
+      </c>
+      <c r="V3" s="8" t="n">
+        <v>4.369655431827184e-05</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>6.158683536602252e-05</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>6.241894632781228e-05</v>
+      </c>
+      <c r="Y3" s="6" t="n">
+        <v>4.444975189531485e-05</v>
+      </c>
+      <c r="Z3" s="6" t="n">
+        <v>7.078625834936825e-05</v>
+      </c>
+      <c r="AA3" s="7" t="n">
+        <v>4.645931112574641e-05</v>
+      </c>
+      <c r="AB3" s="7" t="n">
+        <v>5.105123994048348e-05</v>
+      </c>
+      <c r="AC3" s="8" t="n">
+        <v>5.566375149061578e-05</v>
+      </c>
+      <c r="AD3" s="8" t="n">
+        <v>6.294098120800955e-05</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>7.395912279059311e-05</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>3.828221580694433e-05</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="n">
-        <v>3.75550617577747</v>
+        <v>3.757209593640799e-05</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6.412866694353463</v>
+        <v>6.612356614460695e-05</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>4.883125743038078</v>
+        <v>5.208766469326766e-05</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>6.669679651889524</v>
+        <v>3.847276448924016e-05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.974925477984324</v>
+        <v>4.521677626672683e-05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.398340397175444</v>
+        <v>3.753371508870169e-05</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>7.294046416968216</v>
+        <v>4.954163529584548e-05</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>4.52666372145138</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>4.643348420321636</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>4.374133795809213</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>6.894349155754107</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>3.956465566344767</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>6.4448801526423</v>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>3.295848718961496</v>
-      </c>
-      <c r="O4" s="5" t="n">
-        <v>2.715597161235285</v>
-      </c>
-      <c r="P4" s="5" t="n">
-        <v>6.545675025660135</v>
+        <v>6.248392208244309e-05</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>4.722012968196232e-05</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>6.546340197330534e-05</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>5.172016356679185e-05</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>4.041627350236613e-05</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.762039320184371e-05</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>6.461230598116705e-05</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>5.885765311623102e-05</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>6.759405350586229e-05</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>7.266394871845944e-05</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>4.509597698094804e-05</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>5.223101615105075e-05</v>
+      </c>
+      <c r="T4" s="7" t="n">
+        <v>5.104511100206662e-05</v>
+      </c>
+      <c r="U4" s="8" t="n">
+        <v>4.707668772721452e-05</v>
+      </c>
+      <c r="V4" s="8" t="n">
+        <v>3.98815817560765e-05</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>5.034302209340009e-05</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>6.147161969008765e-05</v>
+      </c>
+      <c r="Y4" s="6" t="n">
+        <v>5.320620427822912e-05</v>
+      </c>
+      <c r="Z4" s="6" t="n">
+        <v>4.574026837902091e-05</v>
+      </c>
+      <c r="AA4" s="7" t="n">
+        <v>6.459276191490308e-05</v>
+      </c>
+      <c r="AB4" s="7" t="n">
+        <v>3.935083343148716e-05</v>
+      </c>
+      <c r="AC4" s="8" t="n">
+        <v>7.27723844804715e-05</v>
+      </c>
+      <c r="AD4" s="8" t="n">
+        <v>5.889795094580735e-05</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>6.587266198532511e-05</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>4.022735197091237e-05</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="3" t="n">
-        <v>4.88489974278814</v>
+        <v>5.491598631177185e-05</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>3.839014243634673</v>
+        <v>5.678973523857413e-05</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.921072525426863</v>
+        <v>6.812080585940279e-05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>6.207841074535065</v>
+        <v>4.608218152529516e-05</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.567127090452251</v>
+        <v>6.582429331226972e-05</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>4.581952984092882</v>
+        <v>6.347229946510768e-05</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.245186095260001</v>
+        <v>6.619799658365882e-05</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>6.674404771310092</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>6.459690260577455</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>3.322222607601566</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>4.021717092671088</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>3.827203681916637</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.414908306516551</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>6.115628733102332</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>2.525310784610165</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>5.566171545577139</v>
+        <v>4.198241506928582e-05</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>5.223364879384625e-05</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>5.432346625280791e-05</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>6.925787684618795e-05</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.81358918163043e-05</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>5.015165818360599e-05</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>7.031589443253569e-05</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>7.385926706515252e-05</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>5.105903109630077e-05</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>4.890554101092373e-05</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.12923823675501e-05</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>6.500364455044104e-05</v>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>4.664591105103751e-05</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>5.163634195855052e-05</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>4.605006116351591e-05</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>5.407417447840516e-05</v>
+      </c>
+      <c r="X5" s="6" t="n">
+        <v>4.148102447435705e-05</v>
+      </c>
+      <c r="Y5" s="7" t="n">
+        <v>6.166739894794878e-05</v>
+      </c>
+      <c r="Z5" s="7" t="n">
+        <v>4.640132990915713e-05</v>
+      </c>
+      <c r="AA5" s="8" t="n">
+        <v>7.167186568132926e-05</v>
+      </c>
+      <c r="AB5" s="8" t="n">
+        <v>5.793202144485905e-05</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>5.06814875665036e-05</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>4.816738470557051e-05</v>
+      </c>
+      <c r="AE5" s="6" t="n">
+        <v>5.093970401891772e-05</v>
+      </c>
+      <c r="AF5" s="6" t="n">
+        <v>6.332994473941383e-05</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="3" t="n">
-        <v>4.98476796581518</v>
+        <v>3.819614659191525e-05</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>6.44231779874893</v>
+        <v>5.583941806295175e-05</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.0664518115357</v>
+        <v>7.113918048987443e-05</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>7.271233302432325</v>
+        <v>4.861160950339144e-05</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>5.296217457959937</v>
+        <v>3.777438525522613e-05</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>3.330486162862079</v>
+        <v>5.592019857072785e-05</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.224579463868864</v>
+        <v>5.487802285778527e-05</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>6.673273578525684</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>6.188079428475676</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v>3.612582557473178</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>4.754470580757824</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>3.212275701308926</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>3.732957483678242</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>4.279948307507771</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>3.32656858150604</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>6.545541138885403</v>
+        <v>6.754824107647642e-05</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>5.101660655750646e-05</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>6.154109974956772e-05</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.01568708477916e-05</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.791920084921058e-05</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>6.593189236102913e-05</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>5.670260689990948e-05</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>6.191506687191125e-05</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>4.282025453108477e-05</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>4.557578930225204e-05</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>4.679589658827288e-05</v>
+      </c>
+      <c r="S6" s="8" t="n">
+        <v>4.649830611697303e-05</v>
+      </c>
+      <c r="T6" s="8" t="n">
+        <v>6.099074710449944e-05</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>7.349863271315686e-05</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>6.913344977195166e-05</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>5.140136366178161e-05</v>
+      </c>
+      <c r="X6" s="6" t="n">
+        <v>7.202684249965667e-05</v>
+      </c>
+      <c r="Y6" s="7" t="n">
+        <v>4.598439628023096e-05</v>
+      </c>
+      <c r="Z6" s="7" t="n">
+        <v>6.882046964014702e-05</v>
+      </c>
+      <c r="AA6" s="8" t="n">
+        <v>5.350662781031253e-05</v>
+      </c>
+      <c r="AB6" s="8" t="n">
+        <v>5.177346396284547e-05</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>4.375789307081882e-05</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>5.367115306985518e-05</v>
+      </c>
+      <c r="AE6" s="6" t="n">
+        <v>4.346860374244389e-05</v>
+      </c>
+      <c r="AF6" s="6" t="n">
+        <v>6.592058765454894e-05</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="4" t="n">
-        <v>4.983154431771559</v>
+        <v>5.982178866457529e-05</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4.65550286030708</v>
+        <v>4.084659389475574e-05</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>4.663708079881786</v>
+        <v>5.483434292934545e-05</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>4.399863217133128</v>
+        <v>7.349192285942425e-05</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6.220639805868835</v>
+        <v>6.019845137557319e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.398368663760898</v>
+        <v>5.416064278531417e-05</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>2.880848452148995</v>
+        <v>5.900876913346154e-05</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>6.625827617460152</v>
-      </c>
-      <c r="I7" s="8" t="n">
-        <v>7.032966287700855</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>2.560963902657472</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>6.305449968565085</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>7.243358118751642</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>4.838290035118964</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>6.958192647732155</v>
-      </c>
-      <c r="O7" s="7" t="n">
-        <v>6.113390186562393</v>
-      </c>
-      <c r="P7" s="7" t="n">
-        <v>6.293702924716817</v>
+        <v>4.949199596324956e-05</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>7.347184717678132e-05</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>6.108369368983585e-05</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>5.41948166714771e-05</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>6.886154328786216e-05</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>5.733897890080639e-05</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>6.502112566477423e-05</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>4.529154042229973e-05</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>4.392250368258137e-05</v>
+      </c>
+      <c r="Q7" s="8" t="n">
+        <v>4.861458617444796e-05</v>
+      </c>
+      <c r="R7" s="8" t="n">
+        <v>6.749066183799583e-05</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>6.116263880054677e-05</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>4.065396483762587e-05</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>6.095660733195971e-05</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>5.677003592178525e-05</v>
+      </c>
+      <c r="W7" s="7" t="n">
+        <v>5.731954936566165e-05</v>
+      </c>
+      <c r="X7" s="7" t="n">
+        <v>6.078568962642053e-05</v>
+      </c>
+      <c r="Y7" s="8" t="n">
+        <v>6.549470660411229e-05</v>
+      </c>
+      <c r="Z7" s="8" t="n">
+        <v>6.805234457892135e-05</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>4.79663574433481e-05</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>4.504766547175382e-05</v>
+      </c>
+      <c r="AC7" s="6" t="n">
+        <v>7.248393682063215e-05</v>
+      </c>
+      <c r="AD7" s="6" t="n">
+        <v>7.072827625506933e-05</v>
+      </c>
+      <c r="AE7" s="7" t="n">
+        <v>4.764686952880722e-05</v>
+      </c>
+      <c r="AF7" s="7" t="n">
+        <v>5.506959319659778e-05</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="4" t="n">
-        <v>4.799861810386895</v>
+        <v>7.341581843260972e-05</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>5.07491242571419</v>
+        <v>4.291128530900187e-05</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>5.050327574187947</v>
+        <v>3.782688320220792e-05</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>6.328241100385412</v>
+        <v>5.66385776647185e-05</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.97216761641844</v>
+        <v>6.249052616462408e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.126807920189461</v>
+        <v>3.856661778241107e-05</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>5.743181114220228</v>
+        <v>6.487022696161361e-05</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>6.603728908418304</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>7.488399529371533</v>
-      </c>
-      <c r="J8" s="8" t="n">
-        <v>6.029301060448958</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>3.063610574934054</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>3.073871923769225</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>3.97593586828195</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>7.247392059599451</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>4.230489322772445</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>6.142470580260663</v>
+        <v>5.511908898043917e-05</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>3.77737296852595e-05</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>5.423572185859234e-05</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>5.358117224001585e-05</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>4.224382397537839e-05</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>7.339066257916631e-05</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>5.906802429827029e-05</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>4.944574000013413e-05</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>5.525425426753466e-05</v>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v>6.058358471201711e-05</v>
+      </c>
+      <c r="R8" s="8" t="n">
+        <v>4.33846902396173e-05</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>4.677160809288238e-05</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>5.880651085766081e-05</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>4.864713178452741e-05</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>5.572265444148424e-05</v>
+      </c>
+      <c r="W8" s="7" t="n">
+        <v>4.954215763664044e-05</v>
+      </c>
+      <c r="X8" s="7" t="n">
+        <v>5.394051544624592e-05</v>
+      </c>
+      <c r="Y8" s="8" t="n">
+        <v>4.518018082358873e-05</v>
+      </c>
+      <c r="Z8" s="8" t="n">
+        <v>5.154054905078855e-05</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>6.376399399670558e-05</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>5.876541237986957e-05</v>
+      </c>
+      <c r="AC8" s="6" t="n">
+        <v>3.8424713012205e-05</v>
+      </c>
+      <c r="AD8" s="6" t="n">
+        <v>6.532105653494526e-05</v>
+      </c>
+      <c r="AE8" s="7" t="n">
+        <v>5.247896675863648e-05</v>
+      </c>
+      <c r="AF8" s="7" t="n">
+        <v>5.416195486296945e-05</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>4.762154632350623e-05</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>5.307381823741096e-05</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>4.844926184099358e-05</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>6.624716153752247e-05</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>7.328278765370797e-05</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>7.033308004234086e-05</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>4.500829284976558e-05</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>4.522486360167306e-05</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>3.809842689633089e-05</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>5.586932711769937e-05</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>6.017463692732583e-05</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>4.496215254208923e-05</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>4.614546444285929e-05</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>7.042772955401736e-05</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>5.808532482219037e-05</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>4.749129529345113e-05</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>4.295271100059029e-05</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>5.66896253199268e-05</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>5.94917558389684e-05</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>4.305540790661219e-05</v>
+      </c>
+      <c r="U9" s="7" t="n">
+        <v>6.006651077413547e-05</v>
+      </c>
+      <c r="V9" s="7" t="n">
+        <v>7.240198260238378e-05</v>
+      </c>
+      <c r="W9" s="8" t="n">
+        <v>4.400576640037973e-05</v>
+      </c>
+      <c r="X9" s="8" t="n">
+        <v>7.380965457026153e-05</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>4.379745867243919e-05</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>4.624569436079878e-05</v>
+      </c>
+      <c r="AA9" s="6" t="n">
+        <v>6.797438873549895e-05</v>
+      </c>
+      <c r="AB9" s="6" t="n">
+        <v>4.372982956866828e-05</v>
+      </c>
+      <c r="AC9" s="7" t="n">
+        <v>3.779761529784867e-05</v>
+      </c>
+      <c r="AD9" s="7" t="n">
+        <v>7.328133071917289e-05</v>
+      </c>
+      <c r="AE9" s="8" t="n">
+        <v>5.063894643143086e-05</v>
+      </c>
+      <c r="AF9" s="8" t="n">
+        <v>4.74601887816894e-05</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>4.512927754363451e-05</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>4.2273238029587e-05</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>4.017919303228706e-05</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>5.417368981745091e-05</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>5.566788221008405e-05</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>5.781663256293795e-05</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>3.9025260339016e-05</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>5.801525501289903e-05</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>6.440957241592855e-05</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>5.007702039135762e-05</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>3.924201575881765e-05</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>5.004458704884566e-05</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>6.349480641392175e-05</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>4.611593471599428e-05</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>7.369745851125739e-05</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>5.867135216344663e-05</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>5.867771903178823e-05</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>6.529086121713364e-05</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>4.374039907590797e-05</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>6.40971722415164e-05</v>
+      </c>
+      <c r="U10" s="7" t="n">
+        <v>5.437830205327078e-05</v>
+      </c>
+      <c r="V10" s="7" t="n">
+        <v>4.817619076510881e-05</v>
+      </c>
+      <c r="W10" s="8" t="n">
+        <v>3.857229068654089e-05</v>
+      </c>
+      <c r="X10" s="8" t="n">
+        <v>7.360851317963738e-05</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>6.030339948677011e-05</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>6.179496673864795e-05</v>
+      </c>
+      <c r="AA10" s="6" t="n">
+        <v>6.436026952213772e-05</v>
+      </c>
+      <c r="AB10" s="6" t="n">
+        <v>5.420823959568039e-05</v>
+      </c>
+      <c r="AC10" s="7" t="n">
+        <v>6.473335146756654e-05</v>
+      </c>
+      <c r="AD10" s="7" t="n">
+        <v>3.994293429246961e-05</v>
+      </c>
+      <c r="AE10" s="8" t="n">
+        <v>6.444069572050615e-05</v>
+      </c>
+      <c r="AF10" s="8" t="n">
+        <v>4.980445684315833e-05</v>
       </c>
     </row>
   </sheetData>

--- a/matriz_total.xlsx
+++ b/matriz_total.xlsx
@@ -39,7 +39,7 @@
       <u val="single"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -58,6 +58,18 @@
         <bgColor rgb="00CCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCFF"/>
+        <bgColor rgb="00CCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCFF"/>
+        <bgColor rgb="00FFCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -71,9 +83,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -444,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,14 +484,770 @@
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="5" customWidth="1" min="10" max="10"/>
+    <col width="5" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>5.571481589718384e-06</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>5.571481589718384e-06</v>
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +1261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +1271,770 @@
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="5" customWidth="1" min="10" max="10"/>
+    <col width="5" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>5.571481589718384e-06</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>5.571481589718384e-06</v>
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
       </c>
     </row>
   </sheetData>
@@ -506,7 +2048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,14 +2058,770 @@
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="5" customWidth="1" min="10" max="10"/>
+    <col width="5" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>5.571481589718384e-06</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>5.571481589718384e-06</v>
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P1" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P13" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P14" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
+      </c>
+      <c r="P15" s="8" t="n">
+        <v>7.428642119624512e-06</v>
       </c>
     </row>
   </sheetData>

--- a/matriz_total.xlsx
+++ b/matriz_total.xlsx
@@ -502,752 +502,752 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.162102148185732e-06</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.377454329926005e-06</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.067720287143237e-06</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.535993339854943e-06</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.294856588555558e-06</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.347029802430596e-06</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.001360806505802e-06</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.94334249196203e-06</v>
       </c>
       <c r="I1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.385764953901383e-06</v>
       </c>
       <c r="J1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.493895238087437e-06</v>
       </c>
       <c r="K1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.57483612306976e-06</v>
       </c>
       <c r="L1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.070946766143154e-06</v>
       </c>
       <c r="M1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.776188310327406e-06</v>
       </c>
       <c r="N1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.471437029678064e-06</v>
       </c>
       <c r="O1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.437081004278052e-06</v>
       </c>
       <c r="P1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.749447980909547e-06</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.097014624116211e-06</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.416487061483319e-06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.293344523162182e-06</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.108806229722512e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.117905835334477e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.00052748592988e-06</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.5027170190694e-06</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.762318101979985e-06</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.70096013760193e-06</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.333747237644964e-06</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.992411641327108e-06</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.605260046933472e-06</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.069090220403329e-06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.146782557696892e-06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.611489271403093e-06</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.825511804434068e-06</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.696861347901785e-06</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.349196924508719e-06</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.050263808618528e-06</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.13820119584347e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.617558024068222e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.78389545314471e-06</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.275466390965092e-06</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.176994552001957e-06</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.21482379483765e-06</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.144836920849774e-06</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.363060696336248e-06</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.992831200249225e-06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.100963233606481e-06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.622549167273308e-06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.434980466991298e-06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.920429172206649e-06</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.01929809473233e-06</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.698077057481385e-06</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.904033497554644e-06</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.665285047042002e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.101759558476232e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.147973205632136e-06</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.666686938539351e-06</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.638934164659382e-06</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.214852707940209e-06</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.411628985370877e-06</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.434476172823856e-06</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.546773788868343e-06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.064620305315406e-06</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.683104489776517e-06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.784871496295133e-06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.29887061584622e-06</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.291367193856367e-06</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.26576035837764e-06</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.542090153581178e-06</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.914137524581438e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.045087384469813e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.939167260380811e-06</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.15814004745126e-06</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.771507419236705e-06</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.529757881044564e-06</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.715869873526678e-06</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.415479498272646e-06</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.375343365552212e-06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.683727240996738e-06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.844445398927691e-06</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.704291940896592e-06</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.635690720078368e-06</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.932640136665507e-06</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.689202179184594e-06</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.22941954859135e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.365182203246651e-06</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.676247313325503e-06</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.379292328448883e-06</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.783465654582396e-06</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.348607192099081e-06</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.32315313701214e-06</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.439392694902566e-06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.425130373078025e-06</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.903402010841974e-06</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.27681091603786e-06</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.257478538516737e-06</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.052674011760023e-06</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.689839698665512e-06</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.42333302670566e-06</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.633151258580718e-06</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.309258605618288e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.594511650299358e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.434072877831764e-06</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.571003074999344e-06</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.333563106902227e-06</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.856102009555097e-06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.395440509898297e-06</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.517968155026952e-06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.69074421702415e-06</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.029335470560503e-06</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.149932073544113e-06</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.588936415533912e-06</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.78238570903154e-06</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.020658799035283e-06</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.827206459586611e-06</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.292514781291278e-06</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.388806643960371e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.188597919175704e-06</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.358891598599676e-06</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.611934898462773e-06</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.516857765180213e-06</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.619995721296067e-06</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.475969553597508e-06</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.712580158852153e-06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.678828459782844e-06</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.80445249767422e-06</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.878950821978567e-06</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.704380127261462e-06</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.14944895634329e-06</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.511821034468134e-06</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.259143549620847e-06</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.820620903560632e-06</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.619713178409743e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.633889604503577e-06</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.097964744385756e-06</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.837428395720683e-06</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.48117375067023e-06</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.388559724219626e-06</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.57829600689439e-06</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.467118274461982e-06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.529894935571031e-06</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.737857184858951e-06</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.674789904331736e-06</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.623655762393249e-06</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.473735090549953e-06</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.954322641671288e-06</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.425694039394805e-06</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.856855506408523e-06</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.884933220585396e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.511665441775444e-06</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.242471890939978e-06</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.030717093828275e-06</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.575934733124465e-06</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.232193788371553e-06</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.634283185930097e-06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.901269495590738e-06</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.676633595563243e-06</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.001936055020884e-06</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.523220981078406e-06</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.849753078313484e-06</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.222650942886687e-06</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.798246100406466e-06</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.745632552188551e-06</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.266097626361654e-06</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.381900507099744e-06</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.543671921915391e-06</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.998534488879234e-06</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.435222707122951e-06</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.481475015049026e-06</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.091365506757729e-06</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.107258755925665e-06</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.17113846530999e-06</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.648546021911883e-06</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.447523875711927e-06</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.775614979382172e-06</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.351498242299024e-06</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.769041095304454e-06</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.123664406442388e-06</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.605447393090791e-06</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.281209120464513e-06</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.615582260462691e-06</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.801874826446159e-06</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.560526153074448e-06</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.379437412238521e-06</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.539484215598912e-06</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.745969413904752e-06</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.872000251994194e-06</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.613014128045829e-06</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.022477666970006e-06</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.230682135849915e-06</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.355850689447678e-06</v>
       </c>
       <c r="N12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.13307137595473e-06</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.822858006359653e-06</v>
       </c>
       <c r="P12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.24483146190726e-06</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.223005561403924e-06</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.691254514965645e-06</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.763188071475137e-06</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.610693345163949e-06</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.479184224948497e-06</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.364269746792953e-06</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.691200676730684e-06</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.13463643154489e-06</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.472374713441809e-06</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.398379012583667e-06</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.716231232673824e-06</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.303005541424297e-06</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.879686531123622e-06</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.011829992603877e-06</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.296563576904122e-06</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.217836363284242e-06</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.96029148064274e-06</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.594988615475839e-06</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.976166227146015e-06</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.551506027784334e-06</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.53696262609496e-06</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.060956623065717e-06</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.361877117203978e-06</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.014013704167641e-06</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.808086480955949e-06</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.349159443735918e-06</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.585865905400894e-06</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.013033399139719e-06</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.996112153465977e-06</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.036436936866485e-06</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.386547079480034e-06</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.624659051589613e-06</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.037727330605252e-06</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.226526883851909e-06</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.491343544534679e-06</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.532107752570395e-06</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.964513893546857e-06</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.847961500105076e-06</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.858891646423574e-06</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.078426809571127e-06</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.343035151900426e-06</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.700561936576434e-06</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.393488223760002e-06</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.951009299126902e-06</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.553954118423131e-06</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.009077031757997e-06</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.549252995724026e-06</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.727989028325452e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1289,752 +1289,752 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.764634628746846e-06</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.477856751575263e-06</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.732637997907596e-06</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.560409212998172e-06</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.098638001145793e-06</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.656832158288055e-06</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.305852465392853e-06</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.526825920234605e-06</v>
       </c>
       <c r="I1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.477684377808422e-06</v>
       </c>
       <c r="J1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.729806673410124e-06</v>
       </c>
       <c r="K1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.781532135078852e-06</v>
       </c>
       <c r="L1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.795427620696285e-06</v>
       </c>
       <c r="M1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.248783861130533e-06</v>
       </c>
       <c r="N1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.715620442795172e-06</v>
       </c>
       <c r="O1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.494841692805952e-06</v>
       </c>
       <c r="P1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.839157917315083e-06</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.769338562192778e-06</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.387516872430618e-06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.18513400354102e-06</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.574533935701873e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.018273624199477e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.746161099334445e-06</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.197770110419259e-06</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.463231249088544e-06</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.028984817747228e-06</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.418783570306606e-06</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.675732731973326e-06</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.954680900435531e-06</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.153571199783782e-06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.056391823005011e-06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.587666394133222e-06</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.426037023521946e-06</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.961548439816206e-06</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.868794090279346e-06</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.262651888584874e-06</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.569509316238132e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.032241429594916e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.382573102433044e-06</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.309196537397032e-06</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.610741604887682e-06</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.154669989440384e-06</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.150373038324953e-06</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.399563395860449e-06</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.74347119781413e-06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.008033806100804e-06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.129427001171383e-06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.45111091442193e-06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.428438756739377e-06</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.250220970788646e-06</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.129150484265378e-06</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.0796663107512e-06</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.83050850859021e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.318582629915778e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.993686306343424e-06</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.977190003636102e-06</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.833106039687606e-06</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.838413732183918e-06</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.44009959312619e-06</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.471029883992352e-06</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.693728154849896e-06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.43539708360284e-06</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.59446089333152e-06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.490574976408796e-06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.473573761402099e-06</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.791708023791446e-06</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.457802910497212e-06</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.985775582279995e-06</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.98696152672394e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.545904860850686e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.618076338451651e-06</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.062437605651321e-06</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.144455835080694e-06</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.713071433425602e-06</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.218756745533496e-06</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.287028839631135e-06</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.714550418290489e-06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.971005195636183e-06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.422329519739349e-06</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.421396421585375e-06</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.372782944665334e-06</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.153372489536447e-06</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.846349107545984e-06</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.885524326391002e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.886644438658643e-06</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.266611940723174e-06</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.209578506494029e-06</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.21490256666367e-06</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.597536564681347e-06</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.845094949692202e-06</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.128787613359197e-06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.392878098694006e-06</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.128820541939995e-06</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.967329478772981e-06</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.677720029877996e-06</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.626589478707365e-06</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.967397031145887e-06</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.012110564573463e-06</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.53316976403775e-06</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.172308780348135e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.596886369835104e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.802929261944583e-06</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.491644883964918e-06</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.740635590120243e-06</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.229225014117291e-06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.970940800092526e-06</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.7192262015762e-06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.444919601303617e-06</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.717899786627212e-06</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.417654414780878e-06</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.257654409666036e-06</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.716196782471063e-06</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.647523890295145e-06</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.565805191718741e-06</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.051604710180216e-06</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.076183492366746e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.02197012531044e-06</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.851847641756557e-06</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.105779808285705e-06</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.354183093448673e-06</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.59269023866781e-06</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.456648086667267e-06</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.857482789644339e-06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.509165187911419e-06</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.032807082362647e-06</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.956998946798441e-06</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.713683923067391e-06</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.039621511698246e-06</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.402062170561331e-06</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.588528497177857e-06</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.185290572737573e-06</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.000628320093702e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.580832599066135e-06</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.029955572718718e-06</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.877229846933737e-06</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.608076566687362e-06</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.39938645990017e-06</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.704272921365338e-06</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.909373679736821e-06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.588668798933324e-06</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.064969223102254e-06</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.997853262022674e-06</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.79954581254715e-06</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.055027693426352e-06</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.967737337454062e-06</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.157982061683679e-06</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.967113253421439e-06</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.806384633666809e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.748638948900997e-06</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.617347497633212e-06</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.866157682550388e-06</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.522868122282721e-06</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.300216118254575e-06</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.573686793766137e-06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.522420180184089e-06</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.164589742212655e-06</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.5265116352669e-06</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.657949028053008e-06</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.226554016457058e-06</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.071529137909195e-06</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.052512790893034e-06</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.341980942905435e-06</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.64795312943418e-06</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.227998919150888e-06</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.891189939504661e-06</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.335210429698109e-06</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.157429738079606e-06</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.357051495821772e-06</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.2289059509458e-06</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.325723665000356e-06</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.629004466930908e-06</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.82748236741686e-06</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.234330644945061e-06</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.47688985570763e-06</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.873515835993598e-06</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.787897754058361e-06</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.781784617396371e-06</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.374108655716052e-06</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.566426196395481e-06</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.905928281213189e-06</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.936662986771394e-06</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.403938387832976e-06</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.7768924866455e-06</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.044427531408503e-06</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.828965744503139e-06</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.69294932692457e-06</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.598042860335672e-06</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.707782492094702e-06</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.890320479777717e-06</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.122863848518904e-06</v>
       </c>
       <c r="N12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.039433213027675e-06</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.062350363262222e-06</v>
       </c>
       <c r="P12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.413368882811666e-06</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.089117749429497e-06</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.290193376921767e-06</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.464900383274253e-06</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.011929925176436e-06</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.974875403883197e-06</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.360523387290789e-06</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.214794260946551e-06</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.194025437683395e-06</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.513688365307623e-06</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.295981384669398e-06</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.48261368661361e-06</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.335940508893979e-06</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.553896013282587e-06</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.20713809265471e-06</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.647867773458101e-06</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.198793609567596e-06</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.860033686909355e-06</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.598844750080794e-06</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.728160840719481e-06</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.492192134116037e-06</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.038509445874542e-06</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.649610391537647e-06</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.720706362309892e-06</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.595867039503047e-06</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.603496014337711e-06</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.137872754781997e-06</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.461584734795488e-06</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.523733080268773e-06</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.731832860324168e-06</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.845512930388687e-06</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.162654246743568e-06</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.239536742042392e-06</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.250677017847583e-06</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.042037384897293e-06</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.209795929515989e-06</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.463290931872438e-06</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.989104927305079e-06</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.176712931978114e-06</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.990629736404999e-06</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.503427612102167e-06</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.863938599527941e-06</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.673092762897965e-06</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.905200576027082e-06</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.123918456415588e-06</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.481709209025606e-06</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.418612157755121e-06</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.812080683158264e-06</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.010420040593866e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2076,752 +2076,752 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.767647987971834e-06</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.183916220626324e-06</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.941422426914077e-06</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.967963154454087e-06</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.708406159500983e-06</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.566783856434761e-06</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.851037918164103e-06</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.463159524718842e-06</v>
       </c>
       <c r="I1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.728219772821325e-06</v>
       </c>
       <c r="J1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.075541473894299e-06</v>
       </c>
       <c r="K1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.305199667146141e-06</v>
       </c>
       <c r="L1" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.561924368897579e-06</v>
       </c>
       <c r="M1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.316559323529261e-06</v>
       </c>
       <c r="N1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.265779176569241e-06</v>
       </c>
       <c r="O1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.3481178199402e-06</v>
       </c>
       <c r="P1" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.491488950222074e-06</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.862142609130143e-06</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.020478660862406e-06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.058403144439114e-06</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.979157170475191e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.067089681872838e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.543842597705521e-06</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.422552836348209e-06</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.80209851214913e-06</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.824059041633107e-06</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.204004336450977e-06</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.606987013502074e-06</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.314706974884214e-06</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.088886976134328e-06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.951737554136186e-06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.143650562222665e-06</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.906253348800962e-06</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.710514465870431e-06</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.024234896615473e-06</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.3303980579761e-06</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.496554118666683e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.13288167519397e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.761559712259294e-06</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.480109182970518e-06</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.917607826402806e-06</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.407633806485762e-06</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.65982708277929e-06</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.616655782306152e-06</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.59446680532089e-06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.229653194681021e-06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.014899492019877e-06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.359002033097097e-06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.739307604800059e-06</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.156565775539044e-06</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.476726210116724e-06</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.776499516950519e-06</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.407457391445218e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.351735641398356e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.182068704893531e-06</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.971039922087421e-06</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.067587738728047e-06</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.296442911223788e-06</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.470300940529247e-06</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.264407761600318e-06</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.322333810877688e-06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.542805991257083e-06</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.03809124298996e-06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.834928894935495e-06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.781176598123958e-06</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.235224225544473e-06</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.779874797904261e-06</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.118935629044185e-06</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.287174690117313e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.019077843642189e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.30678287335392e-06</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.792842790300035e-06</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.426326413563889e-06</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.582557133754762e-06</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.893770354689838e-06</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.466523644129229e-06</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.286444439211476e-06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.512420259604778e-06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.609033450768706e-06</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.504402118215302e-06</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.439533296814384e-06</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.80344605397702e-06</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.40804779419227e-06</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.798177377423163e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.918015392385354e-06</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.056852300733416e-06</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.12024638768554e-06</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.009030268903815e-06</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.543835936555879e-06</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.385017736940984e-06</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.279424593026585e-06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.825196384634011e-06</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.947617781375994e-06</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.061207346989707e-06</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.427012324420792e-06</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.075069655397197e-06</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.750168196860771e-06</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.179237973966635e-06</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.584060996661992e-06</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.638335326471029e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.109123854414348e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.612232786439475e-06</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.870997984914728e-06</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.146806359380529e-06</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.086323843595014e-06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.180236910698411e-06</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.731100348315193e-06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.088951794066558e-06</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.288569137445782e-06</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.702012408347711e-06</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.276927302203421e-06</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.916179081546721e-06</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.706143492736463e-06</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.521692047019202e-06</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.652945755758355e-06</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.164561471056439e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.11191950335975e-06</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.448219206213554e-06</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.731431436353781e-06</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.620206465994404e-06</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.469766635946171e-06</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.507335112829877e-06</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.236968939312293e-06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.538523796979618e-06</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.991677267166101e-06</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.181922505010807e-06</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.151761398224134e-06</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.995643363622134e-06</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.745667924535037e-06</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.062718805159388e-06</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.93267404864303e-06</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.535280665712334e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.655749166088529e-06</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.618586830284061e-06</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.98282115957921e-06</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.003730763970219e-06</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.624665778962605e-06</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.548744324495783e-06</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.894046442896283e-06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.051271469699346e-06</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.967492135913429e-06</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.589122369652713e-06</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.667914392536935e-06</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.161767730906367e-06</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.108179161960034e-06</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.323661246546719e-06</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.838894899510744e-06</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.86016038456304e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.235590697118159e-06</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.118560225196321e-06</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.729063863911054e-06</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.165053674801278e-06</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.856111778352302e-06</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.69675636461375e-06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.73890168227432e-06</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.782477207973768e-06</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.164170544062865e-06</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.613738463801787e-06</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.64347271273122e-06</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.183652490756707e-06</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.012114889575376e-06</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.14091189816778e-06</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.545678578061004e-06</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.484294880507755e-06</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.443663293729211e-06</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.381379399554216e-06</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.523983624144472e-06</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.71263053978217e-06</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.006001521587623e-06</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.701574780241543e-06</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.849744130471439e-06</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.693895492242878e-06</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.907994049428348e-06</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.253960136531279e-06</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.471294138861313e-06</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.170943263851151e-06</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.2069428058704e-06</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.897428491222587e-06</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.309582716743977e-06</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.30291225784703e-06</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.013642426214025e-06</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.36904325228357e-06</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.535100589393871e-06</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.64272131001373e-06</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.699291932342909e-06</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.972885824766181e-06</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.30567174722871e-06</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.456884746653684e-06</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.280611872752788e-06</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.451353645426505e-06</v>
       </c>
       <c r="N12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.466670820383577e-06</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.319362440354475e-06</v>
       </c>
       <c r="P12" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.853641147168508e-06</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.09418487192774e-06</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.473163839898786e-06</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.66276899675182e-06</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.154058390869148e-06</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.460371494664975e-06</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.20844011267925e-06</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.894543564122408e-06</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.723983751817854e-06</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.436367665952807e-06</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.636827315627888e-06</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.350865162988496e-06</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.377172185830864e-06</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.838566386662142e-06</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.448439069683793e-06</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.474727392739828e-06</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.344412422304705e-06</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.409374960819441e-06</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.822391442564014e-06</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>5.996155024448747e-06</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.022113401946469e-06</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.052483600921073e-06</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.709447373376346e-06</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.58757216201769e-06</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.997427403512643e-06</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.221700466273132e-06</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.655706407474821e-06</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.881942540529273e-06</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.276486051657964e-06</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.584013016907516e-06</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.310971751361084e-06</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.263845456927975e-06</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.678870584547758e-06</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.75535511203993e-06</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.846606906953927e-06</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.351211488263478e-06</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.459296577513734e-06</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.626051112520743e-06</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.046004212484963e-06</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.212919473905433e-06</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.108048948658342e-06</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.416421084388531e-06</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.170422919781833e-06</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.203625106207524e-06</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>8.548655614013355e-06</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.980495823671507e-06</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>7.270758322980076e-06</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.022761756546161e-06</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>7.428642119624512e-06</v>
+        <v>6.252290358747579e-06</v>
       </c>
     </row>
   </sheetData>

--- a/matriz_total.xlsx
+++ b/matriz_total.xlsx
@@ -502,752 +502,752 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>8.162102148185732e-06</v>
+        <v>5.983004059049366e-06</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>6.377454329926005e-06</v>
+        <v>7.596687633590307e-06</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>6.067720287143237e-06</v>
+        <v>6.86007387288517e-06</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>8.535993339854943e-06</v>
+        <v>6.624747137339183e-06</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>8.294856588555558e-06</v>
+        <v>8.575334156694389e-06</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>7.347029802430596e-06</v>
+        <v>8.763036334186609e-06</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>8.001360806505802e-06</v>
+        <v>7.487741296730513e-06</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>7.94334249196203e-06</v>
+        <v>7.883457856208619e-06</v>
       </c>
       <c r="I1" s="3" t="n">
-        <v>8.385764953901383e-06</v>
+        <v>8.239746166372251e-06</v>
       </c>
       <c r="J1" s="3" t="n">
-        <v>6.493895238087437e-06</v>
+        <v>8.033728688728296e-06</v>
       </c>
       <c r="K1" s="3" t="n">
-        <v>6.57483612306976e-06</v>
+        <v>7.465607519058532e-06</v>
       </c>
       <c r="L1" s="3" t="n">
-        <v>8.070946766143154e-06</v>
+        <v>7.527164265008892e-06</v>
       </c>
       <c r="M1" s="4" t="n">
-        <v>7.776188310327406e-06</v>
+        <v>6.206719394230816e-06</v>
       </c>
       <c r="N1" s="4" t="n">
-        <v>7.471437029678064e-06</v>
+        <v>7.919306030968348e-06</v>
       </c>
       <c r="O1" s="4" t="n">
-        <v>8.437081004278052e-06</v>
+        <v>7.351971058241464e-06</v>
       </c>
       <c r="P1" s="4" t="n">
-        <v>8.749447980909547e-06</v>
+        <v>6.432008834513144e-06</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>8.097014624116211e-06</v>
+        <v>6.859415694661639e-06</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>7.416487061483319e-06</v>
+        <v>6.451261507511703e-06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>6.293344523162182e-06</v>
+        <v>6.840123942797475e-06</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>7.108806229722512e-06</v>
+        <v>7.191671817252786e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.117905835334477e-06</v>
+        <v>6.65609154931533e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.00052748592988e-06</v>
+        <v>7.266805987138149e-06</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.5027170190694e-06</v>
+        <v>6.252752495502716e-06</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>8.762318101979985e-06</v>
+        <v>6.252981949735176e-06</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>6.70096013760193e-06</v>
+        <v>6.666043499674794e-06</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>7.333747237644964e-06</v>
+        <v>6.917645714176488e-06</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>5.992411641327108e-06</v>
+        <v>8.047848639386568e-06</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>6.605260046933472e-06</v>
+        <v>8.87136389792411e-06</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.069090220403329e-06</v>
+        <v>7.720188588525922e-06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>7.146782557696892e-06</v>
+        <v>8.575461383692108e-06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.611489271403093e-06</v>
+        <v>6.32938710370028e-06</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.825511804434068e-06</v>
+        <v>6.848887438005191e-06</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>8.696861347901785e-06</v>
+        <v>7.133523726018892e-06</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>8.349196924508719e-06</v>
+        <v>6.355208848462492e-06</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>6.050263808618528e-06</v>
+        <v>7.85080206968054e-06</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>6.13820119584347e-06</v>
+        <v>7.089722755828648e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7.617558024068222e-06</v>
+        <v>7.538366023625595e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.78389545314471e-06</v>
+        <v>6.482426488328945e-06</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.275466390965092e-06</v>
+        <v>6.079846753080058e-06</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>6.176994552001957e-06</v>
+        <v>6.092170831973777e-06</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>6.21482379483765e-06</v>
+        <v>7.680074571851428e-06</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>6.144836920849774e-06</v>
+        <v>8.451242661095003e-06</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>6.363060696336248e-06</v>
+        <v>6.861751050962458e-06</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>5.992831200249225e-06</v>
+        <v>7.077445701584849e-06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.100963233606481e-06</v>
+        <v>8.263618726824209e-06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>8.622549167273308e-06</v>
+        <v>8.381362081694834e-06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.434980466991298e-06</v>
+        <v>8.33882875220283e-06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.920429172206649e-06</v>
+        <v>6.978249339492699e-06</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="1" t="n">
-        <v>6.01929809473233e-06</v>
+        <v>7.628957148412505e-06</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>8.698077057481385e-06</v>
+        <v>7.803848157026033e-06</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>6.904033497554644e-06</v>
+        <v>7.354123722019152e-06</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>6.665285047042002e-06</v>
+        <v>7.055443506719941e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.101759558476232e-06</v>
+        <v>8.490237597069886e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.147973205632136e-06</v>
+        <v>8.827372385099548e-06</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.666686938539351e-06</v>
+        <v>8.521080943314832e-06</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>6.638934164659382e-06</v>
+        <v>6.158677435644393e-06</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>8.214852707940209e-06</v>
+        <v>6.050924461462008e-06</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>8.411628985370877e-06</v>
+        <v>7.888526991848883e-06</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>6.434476172823856e-06</v>
+        <v>7.09633715962634e-06</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>7.546773788868343e-06</v>
+        <v>7.173590882062603e-06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.064620305315406e-06</v>
+        <v>5.968398772829697e-06</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.683104489776517e-06</v>
+        <v>6.428844805336912e-06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.784871496295133e-06</v>
+        <v>8.095007819893499e-06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.29887061584622e-06</v>
+        <v>7.045341865323583e-06</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="n">
-        <v>6.291367193856367e-06</v>
+        <v>6.986397396002721e-06</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>8.26576035837764e-06</v>
+        <v>6.149980162334323e-06</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>7.542090153581178e-06</v>
+        <v>7.188977708442908e-06</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>6.914137524581438e-06</v>
+        <v>8.591727861183071e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8.045087384469813e-06</v>
+        <v>7.367625291279495e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.939167260380811e-06</v>
+        <v>6.17242748160215e-06</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.15814004745126e-06</v>
+        <v>8.469066555141069e-06</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>7.771507419236705e-06</v>
+        <v>6.052077624668936e-06</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>7.529757881044564e-06</v>
+        <v>8.651643156012491e-06</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>7.715869873526678e-06</v>
+        <v>8.85522269187389e-06</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>8.415479498272646e-06</v>
+        <v>8.845004399922991e-06</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>6.375343365552212e-06</v>
+        <v>8.785899355438635e-06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.683727240996738e-06</v>
+        <v>8.037617259541882e-06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.844445398927691e-06</v>
+        <v>8.876562226689024e-06</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.704291940896592e-06</v>
+        <v>6.971842702042923e-06</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.635690720078368e-06</v>
+        <v>8.374099283010732e-06</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="n">
-        <v>7.932640136665507e-06</v>
+        <v>8.835055639079398e-06</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>8.689202179184594e-06</v>
+        <v>8.320512441971648e-06</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7.22941954859135e-06</v>
+        <v>7.452343615029527e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>7.365182203246651e-06</v>
+        <v>6.192668226639409e-06</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.676247313325503e-06</v>
+        <v>7.381161727837386e-06</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.379292328448883e-06</v>
+        <v>6.5758354631e-06</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.783465654582396e-06</v>
+        <v>6.648956234125084e-06</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.348607192099081e-06</v>
+        <v>7.347171969817244e-06</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>8.32315313701214e-06</v>
+        <v>7.415047151170448e-06</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.439392694902566e-06</v>
+        <v>7.355545683893953e-06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>8.425130373078025e-06</v>
+        <v>8.654956719052204e-06</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.903402010841974e-06</v>
+        <v>6.590054049376554e-06</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7.27681091603786e-06</v>
+        <v>6.063578895755473e-06</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6.257478538516737e-06</v>
+        <v>6.3125553991945e-06</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>8.052674011760023e-06</v>
+        <v>7.782615824468416e-06</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>6.689839698665512e-06</v>
+        <v>8.19538553824029e-06</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="n">
-        <v>7.42333302670566e-06</v>
+        <v>7.209195798520258e-06</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>7.633151258580718e-06</v>
+        <v>7.215886234412863e-06</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.309258605618288e-06</v>
+        <v>8.31344904486887e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>8.594511650299358e-06</v>
+        <v>6.083159090450077e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8.434072877831764e-06</v>
+        <v>6.338857708934391e-06</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.571003074999344e-06</v>
+        <v>8.31406303427224e-06</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>8.333563106902227e-06</v>
+        <v>8.189395995778085e-06</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>6.856102009555097e-06</v>
+        <v>8.831631401646334e-06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.395440509898297e-06</v>
+        <v>6.291541113528372e-06</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.517968155026952e-06</v>
+        <v>7.922406092011041e-06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>7.69074421702415e-06</v>
+        <v>8.330784315373295e-06</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.029335470560503e-06</v>
+        <v>6.366476900247011e-06</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6.149932073544113e-06</v>
+        <v>8.270425772960005e-06</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>8.588936415533912e-06</v>
+        <v>6.046552420365196e-06</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>7.78238570903154e-06</v>
+        <v>7.089897750424321e-06</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>8.020658799035283e-06</v>
+        <v>7.552505899418689e-06</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="2" t="n">
-        <v>7.827206459586611e-06</v>
+        <v>7.212595568993278e-06</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>7.292514781291278e-06</v>
+        <v>7.004570484913275e-06</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>8.388806643960371e-06</v>
+        <v>6.78186581724137e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8.188597919175704e-06</v>
+        <v>7.422972055563768e-06</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.358891598599676e-06</v>
+        <v>7.502788642974581e-06</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.611934898462773e-06</v>
+        <v>6.690669687268829e-06</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.516857765180213e-06</v>
+        <v>6.79501327535806e-06</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.619995721296067e-06</v>
+        <v>6.129162967597744e-06</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>6.475969553597508e-06</v>
+        <v>7.700442195736332e-06</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.712580158852153e-06</v>
+        <v>6.713185608459032e-06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.678828459782844e-06</v>
+        <v>6.248900592976134e-06</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.80445249767422e-06</v>
+        <v>7.876083853033682e-06</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>8.878950821978567e-06</v>
+        <v>8.121639422358494e-06</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>8.704380127261462e-06</v>
+        <v>6.108776905918479e-06</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>7.14944895634329e-06</v>
+        <v>8.017987404707642e-06</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>7.511821034468134e-06</v>
+        <v>8.06235123207049e-06</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="n">
-        <v>6.259143549620847e-06</v>
+        <v>6.849519177761501e-06</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>7.820620903560632e-06</v>
+        <v>6.78374932067284e-06</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.619713178409743e-06</v>
+        <v>6.676352230411579e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>6.633889604503577e-06</v>
+        <v>7.352343863684894e-06</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.097964744385756e-06</v>
+        <v>6.55589176564064e-06</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.837428395720683e-06</v>
+        <v>7.671231853851029e-06</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.48117375067023e-06</v>
+        <v>7.595229966336924e-06</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.388559724219626e-06</v>
+        <v>6.595206119501978e-06</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.57829600689439e-06</v>
+        <v>7.389273518851767e-06</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>6.467118274461982e-06</v>
+        <v>8.75238034243385e-06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.529894935571031e-06</v>
+        <v>8.231542467503607e-06</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.737857184858951e-06</v>
+        <v>6.808815347309854e-06</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>8.674789904331736e-06</v>
+        <v>6.468405819179471e-06</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>6.623655762393249e-06</v>
+        <v>7.697127749804319e-06</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>6.473735090549953e-06</v>
+        <v>8.087791242033813e-06</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>5.954322641671288e-06</v>
+        <v>6.092811672214737e-06</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="2" t="n">
-        <v>7.425694039394805e-06</v>
+        <v>7.92972942604482e-06</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>6.856855506408523e-06</v>
+        <v>7.577655405418131e-06</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>8.884933220585396e-06</v>
+        <v>7.726900834938783e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6.511665441775444e-06</v>
+        <v>7.593229020004354e-06</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.242471890939978e-06</v>
+        <v>7.143427304130878e-06</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.030717093828275e-06</v>
+        <v>7.098580625628912e-06</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>8.575934733124465e-06</v>
+        <v>6.443788554010379e-06</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.232193788371553e-06</v>
+        <v>6.946199451434101e-06</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.634283185930097e-06</v>
+        <v>8.380158529240937e-06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.901269495590738e-06</v>
+        <v>6.199875026096633e-06</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>6.676633595563243e-06</v>
+        <v>7.806226430093818e-06</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>6.001936055020884e-06</v>
+        <v>7.98181530001979e-06</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8.523220981078406e-06</v>
+        <v>8.549751409194273e-06</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8.849753078313484e-06</v>
+        <v>6.432497940354147e-06</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>7.222650942886687e-06</v>
+        <v>6.130966637093578e-06</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>6.798246100406466e-06</v>
+        <v>7.455063602364509e-06</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="5" t="n">
-        <v>8.745632552188551e-06</v>
+        <v>8.348331699729899e-06</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>8.266097626361654e-06</v>
+        <v>7.214823460937726e-06</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.381900507099744e-06</v>
+        <v>6.170993137239562e-06</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.543671921915391e-06</v>
+        <v>6.555932945362803e-06</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>7.998534488879234e-06</v>
+        <v>8.678063751500414e-06</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>8.435222707122951e-06</v>
+        <v>8.432258186470374e-06</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>6.481475015049026e-06</v>
+        <v>6.26223038866407e-06</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>6.091365506757729e-06</v>
+        <v>8.708099252005796e-06</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8.107258755925665e-06</v>
+        <v>6.917197654757671e-06</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6.17113846530999e-06</v>
+        <v>8.416192878951446e-06</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8.648546021911883e-06</v>
+        <v>8.34052908184961e-06</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7.447523875711927e-06</v>
+        <v>6.935879344891957e-06</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>8.775614979382172e-06</v>
+        <v>6.870883693896208e-06</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>8.351498242299024e-06</v>
+        <v>8.834547572165955e-06</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>7.769041095304454e-06</v>
+        <v>7.268041167659511e-06</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>8.123664406442388e-06</v>
+        <v>6.428490611574456e-06</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="5" t="n">
-        <v>7.605447393090791e-06</v>
+        <v>8.17232970223544e-06</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>7.281209120464513e-06</v>
+        <v>6.647689632565674e-06</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.615582260462691e-06</v>
+        <v>7.828401092930655e-06</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.801874826446159e-06</v>
+        <v>7.44366699516127e-06</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>6.560526153074448e-06</v>
+        <v>6.139371239018061e-06</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>6.379437412238521e-06</v>
+        <v>7.266847727962275e-06</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>7.539484215598912e-06</v>
+        <v>8.372018260290131e-06</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>7.745969413904752e-06</v>
+        <v>8.86447506147161e-06</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>7.872000251994194e-06</v>
+        <v>8.808230671964751e-06</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>8.613014128045829e-06</v>
+        <v>5.955953302193956e-06</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>6.022477666970006e-06</v>
+        <v>8.500415280189631e-06</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>6.230682135849915e-06</v>
+        <v>7.526938715410862e-06</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>6.355850689447678e-06</v>
+        <v>8.665383261839213e-06</v>
       </c>
       <c r="N12" s="8" t="n">
-        <v>7.13307137595473e-06</v>
+        <v>6.081073751095602e-06</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>6.822858006359653e-06</v>
+        <v>8.696055265894428e-06</v>
       </c>
       <c r="P12" s="8" t="n">
-        <v>6.24483146190726e-06</v>
+        <v>7.108404535314383e-06</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="5" t="n">
-        <v>6.223005561403924e-06</v>
+        <v>7.03271544081005e-06</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>6.691254514965645e-06</v>
+        <v>6.115799563436508e-06</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>8.763188071475137e-06</v>
+        <v>6.688390152915203e-06</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>8.610693345163949e-06</v>
+        <v>8.202838883572755e-06</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>6.479184224948497e-06</v>
+        <v>6.058609987522098e-06</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>7.364269746792953e-06</v>
+        <v>8.156416494457884e-06</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>8.691200676730684e-06</v>
+        <v>7.712213588942157e-06</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>6.13463643154489e-06</v>
+        <v>7.40077644461092e-06</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>8.472374713441809e-06</v>
+        <v>7.334950455904814e-06</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>7.398379012583667e-06</v>
+        <v>7.137538184102592e-06</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>8.716231232673824e-06</v>
+        <v>8.232649459061793e-06</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>8.303005541424297e-06</v>
+        <v>5.97766140270406e-06</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>7.879686531123622e-06</v>
+        <v>7.521253543866128e-06</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>7.011829992603877e-06</v>
+        <v>8.336480901566925e-06</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>6.296563576904122e-06</v>
+        <v>6.900927089215639e-06</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>8.217836363284242e-06</v>
+        <v>6.456600903743359e-06</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="5" t="n">
-        <v>5.96029148064274e-06</v>
+        <v>8.853676893441295e-06</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>7.594988615475839e-06</v>
+        <v>8.133813653417111e-06</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.976166227146015e-06</v>
+        <v>7.510185603706913e-06</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.551506027784334e-06</v>
+        <v>7.26892083821528e-06</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>8.53696262609496e-06</v>
+        <v>7.06314723172705e-06</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>7.060956623065717e-06</v>
+        <v>8.045914773944211e-06</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>7.361877117203978e-06</v>
+        <v>8.786647676462033e-06</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>8.014013704167641e-06</v>
+        <v>7.669375384103951e-06</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7.808086480955949e-06</v>
+        <v>7.87600201662699e-06</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7.349159443735918e-06</v>
+        <v>8.023215522374018e-06</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8.585865905400894e-06</v>
+        <v>8.224412551353444e-06</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6.013033399139719e-06</v>
+        <v>8.49610259677168e-06</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>7.996112153465977e-06</v>
+        <v>7.201632712301858e-06</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>8.036436936866485e-06</v>
+        <v>8.717602425928739e-06</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>6.386547079480034e-06</v>
+        <v>8.867742616501836e-06</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>6.624659051589613e-06</v>
+        <v>6.119476280410174e-06</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="5" t="n">
-        <v>8.037727330605252e-06</v>
+        <v>8.3793451504502e-06</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>6.226526883851909e-06</v>
+        <v>8.353620340451843e-06</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.491343544534679e-06</v>
+        <v>8.630947316681684e-06</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.532107752570395e-06</v>
+        <v>7.150567119585043e-06</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>6.964513893546857e-06</v>
+        <v>8.046924015573297e-06</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>7.847961500105076e-06</v>
+        <v>8.53301950519522e-06</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>8.858891646423574e-06</v>
+        <v>6.952906200560275e-06</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>6.078426809571127e-06</v>
+        <v>8.075484299290944e-06</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.343035151900426e-06</v>
+        <v>7.065607041398785e-06</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7.700561936576434e-06</v>
+        <v>6.502109885046162e-06</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8.393488223760002e-06</v>
+        <v>7.190694957525394e-06</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>6.951009299126902e-06</v>
+        <v>8.746809605179217e-06</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>6.553954118423131e-06</v>
+        <v>6.467688568849385e-06</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>8.009077031757997e-06</v>
+        <v>6.042142734977004e-06</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>8.549252995724026e-06</v>
+        <v>7.926989744273328e-06</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>7.727989028325452e-06</v>
+        <v>8.356416651961385e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1289,752 +1289,752 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>8.764634628746846e-06</v>
+        <v>8.017528346608956e-06</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>7.477856751575263e-06</v>
+        <v>6.581009086247673e-06</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>8.732637997907596e-06</v>
+        <v>7.606601902194344e-06</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>7.560409212998172e-06</v>
+        <v>8.747592081788296e-06</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>6.098638001145793e-06</v>
+        <v>6.597936357368356e-06</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>6.656832158288055e-06</v>
+        <v>6.969206631541144e-06</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>7.305852465392853e-06</v>
+        <v>8.505733232568348e-06</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>8.526825920234605e-06</v>
+        <v>6.307348651159936e-06</v>
       </c>
       <c r="I1" s="3" t="n">
-        <v>8.477684377808422e-06</v>
+        <v>7.801167704797085e-06</v>
       </c>
       <c r="J1" s="3" t="n">
-        <v>6.729806673410124e-06</v>
+        <v>6.806251275762487e-06</v>
       </c>
       <c r="K1" s="3" t="n">
-        <v>7.781532135078852e-06</v>
+        <v>8.482822390746393e-06</v>
       </c>
       <c r="L1" s="3" t="n">
-        <v>8.795427620696285e-06</v>
+        <v>7.320295963900121e-06</v>
       </c>
       <c r="M1" s="4" t="n">
-        <v>6.248783861130533e-06</v>
+        <v>8.372242872365843e-06</v>
       </c>
       <c r="N1" s="4" t="n">
-        <v>6.715620442795172e-06</v>
+        <v>7.25347014176859e-06</v>
       </c>
       <c r="O1" s="4" t="n">
-        <v>7.494841692805952e-06</v>
+        <v>6.137531748336052e-06</v>
       </c>
       <c r="P1" s="4" t="n">
-        <v>7.839157917315083e-06</v>
+        <v>7.075454286473493e-06</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>7.769338562192778e-06</v>
+        <v>6.597658505682494e-06</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>6.387516872430618e-06</v>
+        <v>7.775551861752028e-06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>6.18513400354102e-06</v>
+        <v>5.975846902789627e-06</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8.574533935701873e-06</v>
+        <v>6.111846427034343e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.018273624199477e-06</v>
+        <v>6.400150370188317e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.746161099334445e-06</v>
+        <v>7.089228197327182e-06</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.197770110419259e-06</v>
+        <v>8.833948213889221e-06</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>8.463231249088544e-06</v>
+        <v>6.836824289352994e-06</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>6.028984817747228e-06</v>
+        <v>8.618875291203979e-06</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>8.418783570306606e-06</v>
+        <v>6.324855647284966e-06</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>6.675732731973326e-06</v>
+        <v>8.580611394602349e-06</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>5.954680900435531e-06</v>
+        <v>7.613871536996566e-06</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.153571199783782e-06</v>
+        <v>8.797791036862514e-06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.056391823005011e-06</v>
+        <v>6.384344133208743e-06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.587666394133222e-06</v>
+        <v>6.100247953371711e-06</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.426037023521946e-06</v>
+        <v>6.634745067121455e-06</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>6.961548439816206e-06</v>
+        <v>6.712665046415762e-06</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>8.868794090279346e-06</v>
+        <v>6.080097206187735e-06</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>8.262651888584874e-06</v>
+        <v>6.847237421016469e-06</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>8.569509316238132e-06</v>
+        <v>8.372457174213229e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.032241429594916e-06</v>
+        <v>6.262327418945225e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.382573102433044e-06</v>
+        <v>6.507767962186786e-06</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.309196537397032e-06</v>
+        <v>7.792142115170054e-06</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>8.610741604887682e-06</v>
+        <v>6.090344572998163e-06</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>8.154669989440384e-06</v>
+        <v>7.344297297500674e-06</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>6.150373038324953e-06</v>
+        <v>7.276085839310192e-06</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>8.399563395860449e-06</v>
+        <v>6.055755551229006e-06</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>7.74347119781413e-06</v>
+        <v>8.790881827245392e-06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.008033806100804e-06</v>
+        <v>6.333493824914073e-06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>7.129427001171383e-06</v>
+        <v>7.827290092817779e-06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.45111091442193e-06</v>
+        <v>8.466989344524714e-06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.428438756739377e-06</v>
+        <v>8.608646851365587e-06</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="1" t="n">
-        <v>8.250220970788646e-06</v>
+        <v>7.594672465862135e-06</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>7.129150484265378e-06</v>
+        <v>8.884289310148412e-06</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>6.0796663107512e-06</v>
+        <v>6.096088488303502e-06</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>8.83050850859021e-06</v>
+        <v>6.780842739780153e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>8.318582629915778e-06</v>
+        <v>7.742306412012775e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.993686306343424e-06</v>
+        <v>7.714289705854491e-06</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.977190003636102e-06</v>
+        <v>8.206458203671217e-06</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>6.833106039687606e-06</v>
+        <v>6.065288687243898e-06</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>7.838413732183918e-06</v>
+        <v>8.04587253093964e-06</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>7.44009959312619e-06</v>
+        <v>7.590444491092401e-06</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>8.471029883992352e-06</v>
+        <v>8.198636861869857e-06</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>6.693728154849896e-06</v>
+        <v>7.198791223768656e-06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.43539708360284e-06</v>
+        <v>7.692212003783564e-06</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.59446089333152e-06</v>
+        <v>7.208447066637692e-06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.490574976408796e-06</v>
+        <v>8.390994052978318e-06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.473573761402099e-06</v>
+        <v>8.47551742937568e-06</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="n">
-        <v>8.791708023791446e-06</v>
+        <v>6.11504751779267e-06</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>6.457802910497212e-06</v>
+        <v>8.327362005197772e-06</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>5.985775582279995e-06</v>
+        <v>7.613736681484366e-06</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>7.98696152672394e-06</v>
+        <v>7.702970482103869e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.545904860850686e-06</v>
+        <v>7.290198016607332e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.618076338451651e-06</v>
+        <v>6.125536993345116e-06</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.062437605651321e-06</v>
+        <v>7.213048143354183e-06</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>8.144455835080694e-06</v>
+        <v>7.114964589061403e-06</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>7.713071433425602e-06</v>
+        <v>8.604312808511355e-06</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>6.218756745533496e-06</v>
+        <v>7.849546898072384e-06</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>8.287028839631135e-06</v>
+        <v>8.393391442448194e-06</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>7.714550418290489e-06</v>
+        <v>8.39688688990958e-06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.971005195636183e-06</v>
+        <v>7.057409500527017e-06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>8.422329519739349e-06</v>
+        <v>6.666427201659552e-06</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.421396421585375e-06</v>
+        <v>6.014265880593528e-06</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.372782944665334e-06</v>
+        <v>7.383634783064114e-06</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="n">
-        <v>7.153372489536447e-06</v>
+        <v>7.958790137904807e-06</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>8.846349107545984e-06</v>
+        <v>6.57001270880689e-06</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7.885524326391002e-06</v>
+        <v>7.078051907049926e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6.886644438658643e-06</v>
+        <v>6.966687813777908e-06</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.266611940723174e-06</v>
+        <v>6.173837243568013e-06</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.209578506494029e-06</v>
+        <v>7.024748519561256e-06</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.21490256666367e-06</v>
+        <v>8.377320692632334e-06</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.597536564681347e-06</v>
+        <v>8.003344193853363e-06</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>8.845094949692202e-06</v>
+        <v>8.085918455103448e-06</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.128787613359197e-06</v>
+        <v>8.102281889514726e-06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.392878098694006e-06</v>
+        <v>6.455498579471429e-06</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.128820541939995e-06</v>
+        <v>6.677054084900337e-06</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7.967329478772981e-06</v>
+        <v>8.415875652674692e-06</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6.677720029877996e-06</v>
+        <v>8.537023613743366e-06</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>8.626589478707365e-06</v>
+        <v>7.441618632132228e-06</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>6.967397031145887e-06</v>
+        <v>6.689738368259499e-06</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="n">
-        <v>8.012110564573463e-06</v>
+        <v>6.550342038524418e-06</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>7.53316976403775e-06</v>
+        <v>6.207261082288517e-06</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.172308780348135e-06</v>
+        <v>7.595055534894141e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6.596886369835104e-06</v>
+        <v>6.254481519249584e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6.802929261944583e-06</v>
+        <v>7.264371757848778e-06</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.491644883964918e-06</v>
+        <v>7.753072349626659e-06</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>8.740635590120243e-06</v>
+        <v>7.926090124982633e-06</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>6.229225014117291e-06</v>
+        <v>6.197698187832946e-06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>5.970940800092526e-06</v>
+        <v>6.190600316562311e-06</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.7192262015762e-06</v>
+        <v>6.72152887768842e-06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>8.444919601303617e-06</v>
+        <v>7.222478301094492e-06</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>8.717899786627212e-06</v>
+        <v>7.592827351919907e-06</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7.417654414780878e-06</v>
+        <v>8.365145986408345e-06</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>8.257654409666036e-06</v>
+        <v>8.615547149153807e-06</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>8.716196782471063e-06</v>
+        <v>8.764063472426897e-06</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>7.647523890295145e-06</v>
+        <v>7.455455136216989e-06</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="2" t="n">
-        <v>7.565805191718741e-06</v>
+        <v>8.665104460083528e-06</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>8.051604710180216e-06</v>
+        <v>7.934283132111662e-06</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.076183492366746e-06</v>
+        <v>5.995983359880226e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>6.02197012531044e-06</v>
+        <v>7.541375271054474e-06</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.851847641756557e-06</v>
+        <v>7.738162313506746e-06</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.105779808285705e-06</v>
+        <v>5.968601337390252e-06</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>8.354183093448673e-06</v>
+        <v>8.694273868158686e-06</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.59269023866781e-06</v>
+        <v>7.976712915146606e-06</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>6.456648086667267e-06</v>
+        <v>6.511432344571082e-06</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.857482789644339e-06</v>
+        <v>8.845515336832885e-06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.509165187911419e-06</v>
+        <v>7.709366883311797e-06</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8.032807082362647e-06</v>
+        <v>7.394056564975186e-06</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>5.956998946798441e-06</v>
+        <v>6.672894682678423e-06</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>7.713683923067391e-06</v>
+        <v>6.088647056434002e-06</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>8.039621511698246e-06</v>
+        <v>8.333439310760283e-06</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>7.402062170561331e-06</v>
+        <v>7.044000978855254e-06</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="n">
-        <v>6.588528497177857e-06</v>
+        <v>8.441093542991664e-06</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>7.185290572737573e-06</v>
+        <v>6.078891211967019e-06</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.000628320093702e-06</v>
+        <v>6.491426602609052e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7.580832599066135e-06</v>
+        <v>7.555843859916848e-06</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.029955572718718e-06</v>
+        <v>6.764635398018864e-06</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.877229846933737e-06</v>
+        <v>8.050752459838845e-06</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.608076566687362e-06</v>
+        <v>6.352419094378914e-06</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.39938645990017e-06</v>
+        <v>6.281991574917334e-06</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.704272921365338e-06</v>
+        <v>6.575370082976097e-06</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.909373679736821e-06</v>
+        <v>8.749517934188441e-06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.588668798933324e-06</v>
+        <v>7.632533324109756e-06</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.064969223102254e-06</v>
+        <v>7.418272715368454e-06</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>5.997853262022674e-06</v>
+        <v>6.527809840423038e-06</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>7.79954581254715e-06</v>
+        <v>7.621335375719357e-06</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>8.055027693426352e-06</v>
+        <v>6.31420274857396e-06</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>5.967737337454062e-06</v>
+        <v>5.966003229137843e-06</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="2" t="n">
-        <v>6.157982061683679e-06</v>
+        <v>7.010879014016659e-06</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>7.967113253421439e-06</v>
+        <v>8.094360606090596e-06</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>8.806384633666809e-06</v>
+        <v>8.248764539349171e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6.748638948900997e-06</v>
+        <v>8.043339949663328e-06</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.617347497633212e-06</v>
+        <v>7.730445370776333e-06</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.866157682550388e-06</v>
+        <v>7.709672712275557e-06</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>8.522868122282721e-06</v>
+        <v>8.521154051136744e-06</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.300216118254575e-06</v>
+        <v>8.280626743980049e-06</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>7.573686793766137e-06</v>
+        <v>6.642657040290676e-06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.522420180184089e-06</v>
+        <v>7.609673637211817e-06</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>8.164589742212655e-06</v>
+        <v>8.020537397582182e-06</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>8.5265116352669e-06</v>
+        <v>8.375984434002601e-06</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6.657949028053008e-06</v>
+        <v>8.571983728268078e-06</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8.226554016457058e-06</v>
+        <v>7.600566663978513e-06</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>8.071529137909195e-06</v>
+        <v>5.996307639272561e-06</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>8.052512790893034e-06</v>
+        <v>7.158162459958331e-06</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="5" t="n">
-        <v>7.341980942905435e-06</v>
+        <v>7.582234479510031e-06</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>8.64795312943418e-06</v>
+        <v>8.199714557788891e-06</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.227998919150888e-06</v>
+        <v>7.279085241297705e-06</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.891189939504661e-06</v>
+        <v>6.696246448761112e-06</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>7.335210429698109e-06</v>
+        <v>8.208385157829638e-06</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>8.157429738079606e-06</v>
+        <v>8.19242307805128e-06</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>7.357051495821772e-06</v>
+        <v>7.653385739173836e-06</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>7.2289059509458e-06</v>
+        <v>6.463561979370288e-06</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8.325723665000356e-06</v>
+        <v>8.662959280885898e-06</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6.629004466930908e-06</v>
+        <v>6.652533703533563e-06</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7.82748236741686e-06</v>
+        <v>8.745907709247209e-06</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>8.234330644945061e-06</v>
+        <v>7.46811032816206e-06</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>7.47688985570763e-06</v>
+        <v>6.646886159114095e-06</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>6.873515835993598e-06</v>
+        <v>8.371608332025783e-06</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>7.787897754058361e-06</v>
+        <v>5.985718618035938e-06</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>7.781784617396371e-06</v>
+        <v>6.926135319793373e-06</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="5" t="n">
-        <v>8.374108655716052e-06</v>
+        <v>7.791293231205165e-06</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>7.566426196395481e-06</v>
+        <v>8.075871245196705e-06</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.905928281213189e-06</v>
+        <v>6.541019527447483e-06</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.936662986771394e-06</v>
+        <v>8.476715340921689e-06</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>8.403938387832976e-06</v>
+        <v>7.139930599693715e-06</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>6.7768924866455e-06</v>
+        <v>6.001334230537356e-06</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>6.044427531408503e-06</v>
+        <v>6.410280099542154e-06</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>7.828965744503139e-06</v>
+        <v>8.461270879118624e-06</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>7.69294932692457e-06</v>
+        <v>7.73844332193766e-06</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>7.598042860335672e-06</v>
+        <v>8.723621356926074e-06</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>7.707782492094702e-06</v>
+        <v>6.514115682379111e-06</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>6.890320479777717e-06</v>
+        <v>7.15871662225591e-06</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>8.122863848518904e-06</v>
+        <v>7.589215182993134e-06</v>
       </c>
       <c r="N12" s="8" t="n">
-        <v>6.039433213027675e-06</v>
+        <v>8.535374909866111e-06</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>8.062350363262222e-06</v>
+        <v>6.92396768598434e-06</v>
       </c>
       <c r="P12" s="8" t="n">
-        <v>6.413368882811666e-06</v>
+        <v>8.60431897614681e-06</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="5" t="n">
-        <v>8.089117749429497e-06</v>
+        <v>6.044542917493234e-06</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>8.290193376921767e-06</v>
+        <v>6.590637793921368e-06</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>6.464900383274253e-06</v>
+        <v>7.422124800488538e-06</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>8.011929925176436e-06</v>
+        <v>6.324276612845037e-06</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>5.974875403883197e-06</v>
+        <v>8.759881598018488e-06</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>8.360523387290789e-06</v>
+        <v>7.75063381532506e-06</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>6.214794260946551e-06</v>
+        <v>7.001920655273752e-06</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>7.194025437683395e-06</v>
+        <v>8.218292286818617e-06</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>6.513688365307623e-06</v>
+        <v>7.700431533034235e-06</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>8.295981384669398e-06</v>
+        <v>8.100433409015002e-06</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>6.48261368661361e-06</v>
+        <v>6.78969306278061e-06</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>7.335940508893979e-06</v>
+        <v>6.442850395056929e-06</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>6.553896013282587e-06</v>
+        <v>6.482850038452679e-06</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>7.20713809265471e-06</v>
+        <v>8.055155142718484e-06</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>8.647867773458101e-06</v>
+        <v>7.969233032185953e-06</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>7.198793609567596e-06</v>
+        <v>7.587305771642715e-06</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="5" t="n">
-        <v>8.860033686909355e-06</v>
+        <v>6.086780700479153e-06</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>8.598844750080794e-06</v>
+        <v>6.424428111026552e-06</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.728160840719481e-06</v>
+        <v>8.780647690188575e-06</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.492192134116037e-06</v>
+        <v>7.786534474881399e-06</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>7.038509445874542e-06</v>
+        <v>8.087735160990124e-06</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>7.649610391537647e-06</v>
+        <v>6.500414165507396e-06</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>7.720706362309892e-06</v>
+        <v>7.154245170546523e-06</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>7.595867039503047e-06</v>
+        <v>7.809188189108427e-06</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7.603496014337711e-06</v>
+        <v>7.984180329205324e-06</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6.137872754781997e-06</v>
+        <v>5.944322966559824e-06</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6.461584734795488e-06</v>
+        <v>8.539635022049072e-06</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6.523733080268773e-06</v>
+        <v>8.615427287957937e-06</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>7.731832860324168e-06</v>
+        <v>8.192672519144144e-06</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>6.845512930388687e-06</v>
+        <v>8.796966934353897e-06</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>6.162654246743568e-06</v>
+        <v>8.025870922406467e-06</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>7.239536742042392e-06</v>
+        <v>6.507733442323225e-06</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="5" t="n">
-        <v>8.250677017847583e-06</v>
+        <v>7.97098694192706e-06</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>7.042037384897293e-06</v>
+        <v>8.352734218138426e-06</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.209795929515989e-06</v>
+        <v>7.894744850384377e-06</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.463290931872438e-06</v>
+        <v>6.520033121231775e-06</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>7.989104927305079e-06</v>
+        <v>7.07161674893948e-06</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>8.176712931978114e-06</v>
+        <v>7.372364680694556e-06</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>6.990629736404999e-06</v>
+        <v>7.144634308486576e-06</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>8.503427612102167e-06</v>
+        <v>7.612641873544738e-06</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6.863938599527941e-06</v>
+        <v>6.661829912830535e-06</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6.673092762897965e-06</v>
+        <v>7.924434572465364e-06</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7.905200576027082e-06</v>
+        <v>6.525073271078051e-06</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>6.123918456415588e-06</v>
+        <v>7.921369006311172e-06</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>7.481709209025606e-06</v>
+        <v>7.757726103349175e-06</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>7.418612157755121e-06</v>
+        <v>8.571767487114963e-06</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>8.812080683158264e-06</v>
+        <v>7.097659272810931e-06</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>6.010420040593866e-06</v>
+        <v>8.400240296633001e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2076,752 +2076,752 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>6.767647987971834e-06</v>
+        <v>6.38692266217517e-06</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>6.183916220626324e-06</v>
+        <v>6.824014480101199e-06</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>7.941422426914077e-06</v>
+        <v>6.016318958885493e-06</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>6.967963154454087e-06</v>
+        <v>7.429090894507124e-06</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>6.708406159500983e-06</v>
+        <v>8.82402016175271e-06</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>6.566783856434761e-06</v>
+        <v>8.715896284496554e-06</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>8.851037918164103e-06</v>
+        <v>8.398932893638099e-06</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>8.463159524718842e-06</v>
+        <v>8.895208032546793e-06</v>
       </c>
       <c r="I1" s="3" t="n">
-        <v>6.728219772821325e-06</v>
+        <v>8.172565036261941e-06</v>
       </c>
       <c r="J1" s="3" t="n">
-        <v>7.075541473894299e-06</v>
+        <v>8.474205020306241e-06</v>
       </c>
       <c r="K1" s="3" t="n">
-        <v>8.305199667146141e-06</v>
+        <v>6.600985875296842e-06</v>
       </c>
       <c r="L1" s="3" t="n">
-        <v>8.561924368897579e-06</v>
+        <v>6.246083581789676e-06</v>
       </c>
       <c r="M1" s="4" t="n">
-        <v>8.316559323529261e-06</v>
+        <v>8.054528424179267e-06</v>
       </c>
       <c r="N1" s="4" t="n">
-        <v>8.265779176569241e-06</v>
+        <v>8.040481731056436e-06</v>
       </c>
       <c r="O1" s="4" t="n">
-        <v>6.3481178199402e-06</v>
+        <v>8.43923074313812e-06</v>
       </c>
       <c r="P1" s="4" t="n">
-        <v>8.491488950222074e-06</v>
+        <v>6.968075013579517e-06</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>6.862142609130143e-06</v>
+        <v>8.421868259591704e-06</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>8.020478660862406e-06</v>
+        <v>6.219166311033919e-06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>6.058403144439114e-06</v>
+        <v>7.988206260357608e-06</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>5.979157170475191e-06</v>
+        <v>8.827221168185303e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.067089681872838e-06</v>
+        <v>8.759312400973695e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.543842597705521e-06</v>
+        <v>8.287488616147064e-06</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.422552836348209e-06</v>
+        <v>7.57624840919717e-06</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>6.80209851214913e-06</v>
+        <v>6.862826086072986e-06</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>6.824059041633107e-06</v>
+        <v>6.586282386487229e-06</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>8.204004336450977e-06</v>
+        <v>6.352945651444488e-06</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>6.606987013502074e-06</v>
+        <v>6.289140673670378e-06</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>8.314706974884214e-06</v>
+        <v>6.970208656925568e-06</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.088886976134328e-06</v>
+        <v>6.035308205149598e-06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.951737554136186e-06</v>
+        <v>8.065217879881703e-06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.143650562222665e-06</v>
+        <v>8.734065757124751e-06</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.906253348800962e-06</v>
+        <v>8.091253663360795e-06</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>6.710514465870431e-06</v>
+        <v>8.391377097428031e-06</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>6.024234896615473e-06</v>
+        <v>8.649630646435279e-06</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>8.3303980579761e-06</v>
+        <v>7.300048836615272e-06</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>7.496554118666683e-06</v>
+        <v>8.132918679126149e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.13288167519397e-06</v>
+        <v>6.593396356244815e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.761559712259294e-06</v>
+        <v>5.965942012820701e-06</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.480109182970518e-06</v>
+        <v>5.981269458920615e-06</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>6.917607826402806e-06</v>
+        <v>8.191672264863842e-06</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>8.407633806485762e-06</v>
+        <v>7.90634462869281e-06</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>6.65982708277929e-06</v>
+        <v>7.065387012085695e-06</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>8.616655782306152e-06</v>
+        <v>8.292416172101556e-06</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>6.59446680532089e-06</v>
+        <v>8.384322004370331e-06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.229653194681021e-06</v>
+        <v>7.843246808750359e-06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.014899492019877e-06</v>
+        <v>6.508196124499508e-06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.359002033097097e-06</v>
+        <v>6.709585169101207e-06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.739307604800059e-06</v>
+        <v>6.093269381336145e-06</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="1" t="n">
-        <v>6.156565775539044e-06</v>
+        <v>6.297260362967304e-06</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>7.476726210116724e-06</v>
+        <v>7.145863452387536e-06</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>6.776499516950519e-06</v>
+        <v>7.417705576174924e-06</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>7.407457391445218e-06</v>
+        <v>6.843897964903621e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6.351735641398356e-06</v>
+        <v>7.303890165251995e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.182068704893531e-06</v>
+        <v>8.902292247134687e-06</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.971039922087421e-06</v>
+        <v>8.619463513228615e-06</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>8.067587738728047e-06</v>
+        <v>7.224581842444085e-06</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>7.296442911223788e-06</v>
+        <v>6.097692641494444e-06</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>6.470300940529247e-06</v>
+        <v>6.408355291262071e-06</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>7.264407761600318e-06</v>
+        <v>6.980768691332632e-06</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>8.322333810877688e-06</v>
+        <v>6.096111119253107e-06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.542805991257083e-06</v>
+        <v>6.011029505419188e-06</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.03809124298996e-06</v>
+        <v>7.632102114217397e-06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.834928894935495e-06</v>
+        <v>7.279772191832389e-06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.781176598123958e-06</v>
+        <v>7.203456154151347e-06</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="n">
-        <v>7.235224225544473e-06</v>
+        <v>8.46310806856468e-06</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>6.779874797904261e-06</v>
+        <v>6.573061859559389e-06</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>6.118935629044185e-06</v>
+        <v>7.021046845756112e-06</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>7.287174690117313e-06</v>
+        <v>6.136431679784525e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8.019077843642189e-06</v>
+        <v>8.614625556840632e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.30678287335392e-06</v>
+        <v>6.507610391814026e-06</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.792842790300035e-06</v>
+        <v>7.577035594945598e-06</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>8.426326413563889e-06</v>
+        <v>8.390073157306337e-06</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>7.582557133754762e-06</v>
+        <v>6.551543820635198e-06</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>7.893770354689838e-06</v>
+        <v>8.769703450871682e-06</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>8.466523644129229e-06</v>
+        <v>7.051934992348515e-06</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>7.286444439211476e-06</v>
+        <v>6.033030018738196e-06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.512420259604778e-06</v>
+        <v>7.023763853917202e-06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>7.609033450768706e-06</v>
+        <v>7.510280485619313e-06</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.504402118215302e-06</v>
+        <v>8.611560264535177e-06</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.439533296814384e-06</v>
+        <v>8.573158793188457e-06</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="n">
-        <v>7.80344605397702e-06</v>
+        <v>8.883936560369227e-06</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>6.40804779419227e-06</v>
+        <v>7.43476139658716e-06</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7.798177377423163e-06</v>
+        <v>6.568508800421271e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6.918015392385354e-06</v>
+        <v>7.697231392388621e-06</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.056852300733416e-06</v>
+        <v>7.342819591818575e-06</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.12024638768554e-06</v>
+        <v>8.822586529171277e-06</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.009030268903815e-06</v>
+        <v>6.49934961954705e-06</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.543835936555879e-06</v>
+        <v>7.607979679397138e-06</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.385017736940984e-06</v>
+        <v>6.169874184198201e-06</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.279424593026585e-06</v>
+        <v>8.324545938761534e-06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>8.825196384634011e-06</v>
+        <v>7.267755515348252e-06</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>5.947617781375994e-06</v>
+        <v>6.97810154612827e-06</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8.061207346989707e-06</v>
+        <v>7.522969312430452e-06</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7.427012324420792e-06</v>
+        <v>6.319611767310164e-06</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>6.075069655397197e-06</v>
+        <v>8.600953304058452e-06</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>8.750168196860771e-06</v>
+        <v>6.177106189620303e-06</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="n">
-        <v>7.179237973966635e-06</v>
+        <v>6.900018842586899e-06</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>8.584060996661992e-06</v>
+        <v>8.677901014083745e-06</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.638335326471029e-06</v>
+        <v>8.465635191095847e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>7.109123854414348e-06</v>
+        <v>6.517939022249407e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.612232786439475e-06</v>
+        <v>7.948662045982774e-06</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.870997984914728e-06</v>
+        <v>8.756199183998107e-06</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>8.146806359380529e-06</v>
+        <v>7.804292836684467e-06</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>8.086323843595014e-06</v>
+        <v>7.725266333302649e-06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.180236910698411e-06</v>
+        <v>6.854818789675475e-06</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.731100348315193e-06</v>
+        <v>7.290969111175721e-06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>6.088951794066558e-06</v>
+        <v>7.835074901020562e-06</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>8.288569137445782e-06</v>
+        <v>8.140188253962503e-06</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7.702012408347711e-06</v>
+        <v>7.474462087689348e-06</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>8.276927302203421e-06</v>
+        <v>8.580578765342202e-06</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>6.916179081546721e-06</v>
+        <v>8.856428464318515e-06</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>7.706143492736463e-06</v>
+        <v>8.162625261867204e-06</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="2" t="n">
-        <v>6.521692047019202e-06</v>
+        <v>7.202054344064405e-06</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>7.652945755758355e-06</v>
+        <v>7.387888330010481e-06</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>6.164561471056439e-06</v>
+        <v>7.642055400055519e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>6.11191950335975e-06</v>
+        <v>7.062787595275799e-06</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.448219206213554e-06</v>
+        <v>7.264507619380234e-06</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.731431436353781e-06</v>
+        <v>7.137984428256672e-06</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>8.620206465994404e-06</v>
+        <v>7.605897618519304e-06</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.469766635946171e-06</v>
+        <v>8.317097705907311e-06</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>8.507335112829877e-06</v>
+        <v>8.221632876508598e-06</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.236968939312293e-06</v>
+        <v>7.627637807250126e-06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.538523796979618e-06</v>
+        <v>7.523194669088322e-06</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>5.991677267166101e-06</v>
+        <v>6.823130047521098e-06</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>7.181922505010807e-06</v>
+        <v>6.234563190954139e-06</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>6.151761398224134e-06</v>
+        <v>6.494413097347225e-06</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>6.995643363622134e-06</v>
+        <v>7.625294537218122e-06</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>6.745667924535037e-06</v>
+        <v>8.846620352610858e-06</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="n">
-        <v>7.062718805159388e-06</v>
+        <v>6.564025658926548e-06</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>7.93267404864303e-06</v>
+        <v>7.683912922041934e-06</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>6.535280665712334e-06</v>
+        <v>8.040646518762513e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>8.655749166088529e-06</v>
+        <v>8.30116727688448e-06</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.618586830284061e-06</v>
+        <v>6.157250120626098e-06</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.98282115957921e-06</v>
+        <v>6.140489550608604e-06</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.003730763970219e-06</v>
+        <v>7.784801568455479e-06</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.624665778962605e-06</v>
+        <v>8.4351486820609e-06</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>8.548744324495783e-06</v>
+        <v>6.13115910818092e-06</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.894046442896283e-06</v>
+        <v>8.677171041485666e-06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.051271469699346e-06</v>
+        <v>6.466360783777017e-06</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.967492135913429e-06</v>
+        <v>7.335201376206804e-06</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>7.589122369652713e-06</v>
+        <v>5.945609826813115e-06</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>7.667914392536935e-06</v>
+        <v>8.647827395275961e-06</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>6.161767730906367e-06</v>
+        <v>6.316068869676883e-06</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>8.108179161960034e-06</v>
+        <v>6.056743059711345e-06</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="2" t="n">
-        <v>7.323661246546719e-06</v>
+        <v>6.149459932103535e-06</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>6.838894899510744e-06</v>
+        <v>7.715753039943958e-06</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>8.86016038456304e-06</v>
+        <v>7.325328073400196e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7.235590697118159e-06</v>
+        <v>8.819696304930459e-06</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.118560225196321e-06</v>
+        <v>8.399708127355549e-06</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.729063863911054e-06</v>
+        <v>7.126021128287635e-06</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>7.165053674801278e-06</v>
+        <v>8.569357496458369e-06</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.856111778352302e-06</v>
+        <v>8.120786603258837e-06</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.69675636461375e-06</v>
+        <v>8.077849624211523e-06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.73890168227432e-06</v>
+        <v>8.166364132378864e-06</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>6.782477207973768e-06</v>
+        <v>5.962495748035686e-06</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.164170544062865e-06</v>
+        <v>8.775214920783798e-06</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6.613738463801787e-06</v>
+        <v>7.189624430943264e-06</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6.64347271273122e-06</v>
+        <v>8.308568635738933e-06</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>7.183652490756707e-06</v>
+        <v>6.447028577113539e-06</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>7.012114889575376e-06</v>
+        <v>6.964153371342381e-06</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="5" t="n">
-        <v>7.14091189816778e-06</v>
+        <v>6.898080434161741e-06</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>8.545678578061004e-06</v>
+        <v>6.305610826249426e-06</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.484294880507755e-06</v>
+        <v>7.107405285727177e-06</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.443663293729211e-06</v>
+        <v>6.286787334094934e-06</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>8.381379399554216e-06</v>
+        <v>6.324728496061039e-06</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>7.523983624144472e-06</v>
+        <v>7.807448815060188e-06</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>6.71263053978217e-06</v>
+        <v>7.566325714384118e-06</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>7.006001521587623e-06</v>
+        <v>8.420462603668055e-06</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7.701574780241543e-06</v>
+        <v>8.801455017421058e-06</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6.849744130471439e-06</v>
+        <v>8.645135887711114e-06</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6.693895492242878e-06</v>
+        <v>8.220085438696238e-06</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>6.907994049428348e-06</v>
+        <v>7.625711430261685e-06</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>6.253960136531279e-06</v>
+        <v>6.810843625354453e-06</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>7.471294138861313e-06</v>
+        <v>6.472553428846667e-06</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>7.170943263851151e-06</v>
+        <v>8.225700219730443e-06</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>8.2069428058704e-06</v>
+        <v>6.59277574792358e-06</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="5" t="n">
-        <v>7.897428491222587e-06</v>
+        <v>7.4117749156205e-06</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>7.309582716743977e-06</v>
+        <v>6.923017912230812e-06</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.30291225784703e-06</v>
+        <v>7.799747682620833e-06</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.013642426214025e-06</v>
+        <v>7.516778905722704e-06</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>7.36904325228357e-06</v>
+        <v>6.352539535681131e-06</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>6.535100589393871e-06</v>
+        <v>8.171239849191318e-06</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>6.64272131001373e-06</v>
+        <v>7.324433505189325e-06</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>7.699291932342909e-06</v>
+        <v>8.287600205259744e-06</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.972885824766181e-06</v>
+        <v>6.917594772413922e-06</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>6.30567174722871e-06</v>
+        <v>7.338773229418988e-06</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>6.456884746653684e-06</v>
+        <v>7.90355117013174e-06</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>7.280611872752788e-06</v>
+        <v>6.695590684077369e-06</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>8.451353645426505e-06</v>
+        <v>8.748911585033858e-06</v>
       </c>
       <c r="N12" s="8" t="n">
-        <v>8.466670820383577e-06</v>
+        <v>7.464575428854664e-06</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>8.319362440354475e-06</v>
+        <v>6.351456480967948e-06</v>
       </c>
       <c r="P12" s="8" t="n">
-        <v>7.853641147168508e-06</v>
+        <v>8.501297251401733e-06</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="5" t="n">
-        <v>6.09418487192774e-06</v>
+        <v>6.142993390169125e-06</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>8.473163839898786e-06</v>
+        <v>8.427781657639974e-06</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>8.66276899675182e-06</v>
+        <v>7.41654077385847e-06</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>8.154058390869148e-06</v>
+        <v>6.417115062690066e-06</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>8.460371494664975e-06</v>
+        <v>7.022734367369193e-06</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>7.20844011267925e-06</v>
+        <v>6.345113478136875e-06</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>7.894543564122408e-06</v>
+        <v>8.734103591055699e-06</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>6.723983751817854e-06</v>
+        <v>6.085980150100921e-06</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>6.436367665952807e-06</v>
+        <v>7.247550601337671e-06</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>7.636827315627888e-06</v>
+        <v>8.880787105197612e-06</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>8.350865162988496e-06</v>
+        <v>8.387078321411798e-06</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>7.377172185830864e-06</v>
+        <v>6.827384442988015e-06</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>8.838566386662142e-06</v>
+        <v>7.083461780359749e-06</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>7.448439069683793e-06</v>
+        <v>8.643309563206576e-06</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>6.474727392739828e-06</v>
+        <v>8.634434995733209e-06</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>6.344412422304705e-06</v>
+        <v>8.638448945799825e-06</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="5" t="n">
-        <v>6.409374960819441e-06</v>
+        <v>8.731527588184237e-06</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>7.822391442564014e-06</v>
+        <v>7.929381838072848e-06</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.996155024448747e-06</v>
+        <v>7.449346135669223e-06</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.022113401946469e-06</v>
+        <v>7.903588173422919e-06</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>7.052483600921073e-06</v>
+        <v>6.139271166248332e-06</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>6.709447373376346e-06</v>
+        <v>8.223619747050324e-06</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>8.58757216201769e-06</v>
+        <v>6.469691557383448e-06</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>7.997427403512643e-06</v>
+        <v>7.50764182237731e-06</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6.221700466273132e-06</v>
+        <v>7.019060174806815e-06</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6.655706407474821e-06</v>
+        <v>7.131461020995786e-06</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6.881942540529273e-06</v>
+        <v>7.055333471419225e-06</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8.276486051657964e-06</v>
+        <v>7.347489299019215e-06</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>8.584013016907516e-06</v>
+        <v>6.185435974254432e-06</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>6.310971751361084e-06</v>
+        <v>7.56551734045202e-06</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>8.263845456927975e-06</v>
+        <v>7.752659817687229e-06</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>8.678870584547758e-06</v>
+        <v>7.471662828599859e-06</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="5" t="n">
-        <v>6.75535511203993e-06</v>
+        <v>8.264568817077425e-06</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>8.846606906953927e-06</v>
+        <v>8.557882866312807e-06</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.351211488263478e-06</v>
+        <v>7.352720908215758e-06</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.459296577513734e-06</v>
+        <v>8.804610328493986e-06</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>7.626051112520743e-06</v>
+        <v>8.542474684862361e-06</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>6.046004212484963e-06</v>
+        <v>8.675392488142712e-06</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>7.212919473905433e-06</v>
+        <v>7.819819816788024e-06</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>7.108048948658342e-06</v>
+        <v>6.142670255726807e-06</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.416421084388531e-06</v>
+        <v>8.143691295542347e-06</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8.170422919781833e-06</v>
+        <v>7.852212012520907e-06</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8.203625106207524e-06</v>
+        <v>6.111932419739105e-06</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>8.548655614013355e-06</v>
+        <v>6.14182281316916e-06</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>6.980495823671507e-06</v>
+        <v>6.89633226899515e-06</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>7.270758322980076e-06</v>
+        <v>7.230165281076152e-06</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>6.022761756546161e-06</v>
+        <v>6.400165434005926e-06</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>6.252290358747579e-06</v>
+        <v>6.616091980205863e-06</v>
       </c>
     </row>
   </sheetData>

--- a/matriz_total.xlsx
+++ b/matriz_total.xlsx
@@ -502,752 +502,752 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>5.983004059049366e-06</v>
+        <v>6.000964476471443e-06</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>7.596687633590307e-06</v>
+        <v>7.065838005155467e-06</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>6.86007387288517e-06</v>
+        <v>6.014301896626503e-06</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>6.624747137339183e-06</v>
+        <v>7.705650878114575e-06</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>8.575334156694389e-06</v>
+        <v>6.395748868757458e-06</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>8.763036334186609e-06</v>
+        <v>7.206043626282252e-06</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>7.487741296730513e-06</v>
+        <v>6.73892719341021e-06</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>7.883457856208619e-06</v>
+        <v>6.695648146499203e-06</v>
       </c>
       <c r="I1" s="3" t="n">
-        <v>8.239746166372251e-06</v>
+        <v>7.518630479442101e-06</v>
       </c>
       <c r="J1" s="3" t="n">
-        <v>8.033728688728296e-06</v>
+        <v>7.784593212442352e-06</v>
       </c>
       <c r="K1" s="3" t="n">
-        <v>7.465607519058532e-06</v>
+        <v>7.567675291368618e-06</v>
       </c>
       <c r="L1" s="3" t="n">
-        <v>7.527164265008892e-06</v>
+        <v>8.78890554507989e-06</v>
       </c>
       <c r="M1" s="4" t="n">
-        <v>6.206719394230816e-06</v>
+        <v>8.472088951098977e-06</v>
       </c>
       <c r="N1" s="4" t="n">
-        <v>7.919306030968348e-06</v>
+        <v>6.283037105349798e-06</v>
       </c>
       <c r="O1" s="4" t="n">
-        <v>7.351971058241464e-06</v>
+        <v>8.898902811928694e-06</v>
       </c>
       <c r="P1" s="4" t="n">
-        <v>6.432008834513144e-06</v>
+        <v>6.455524666058088e-06</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>6.859415694661639e-06</v>
+        <v>8.704633915611098e-06</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>6.451261507511703e-06</v>
+        <v>8.210107224900775e-06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>6.840123942797475e-06</v>
+        <v>7.165395129783623e-06</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>7.191671817252786e-06</v>
+        <v>6.525672535368376e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.65609154931533e-06</v>
+        <v>7.671408940170347e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.266805987138149e-06</v>
+        <v>7.070745279314446e-06</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.252752495502716e-06</v>
+        <v>8.709097386616418e-06</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>6.252981949735176e-06</v>
+        <v>8.682595653270801e-06</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>6.666043499674794e-06</v>
+        <v>7.120456883519908e-06</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>6.917645714176488e-06</v>
+        <v>7.816259880824433e-06</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>8.047848639386568e-06</v>
+        <v>6.174552039501129e-06</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>8.87136389792411e-06</v>
+        <v>6.184443125499292e-06</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.720188588525922e-06</v>
+        <v>8.548185173861579e-06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>8.575461383692108e-06</v>
+        <v>7.494269477714766e-06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.32938710370028e-06</v>
+        <v>6.993359210697773e-06</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.848887438005191e-06</v>
+        <v>8.845106545358982e-06</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>7.133523726018892e-06</v>
+        <v>7.471110288574147e-06</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>6.355208848462492e-06</v>
+        <v>8.037143498709929e-06</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>7.85080206968054e-06</v>
+        <v>7.340840543403671e-06</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>7.089722755828648e-06</v>
+        <v>6.338117975057377e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7.538366023625595e-06</v>
+        <v>7.314098044353988e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.482426488328945e-06</v>
+        <v>7.460841388215886e-06</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.079846753080058e-06</v>
+        <v>6.106259506266198e-06</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>6.092170831973777e-06</v>
+        <v>6.923358508466865e-06</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>7.680074571851428e-06</v>
+        <v>8.84898157899551e-06</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>8.451242661095003e-06</v>
+        <v>7.034921719871885e-06</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>6.861751050962458e-06</v>
+        <v>8.082019539358678e-06</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>7.077445701584849e-06</v>
+        <v>6.205794009534885e-06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.263618726824209e-06</v>
+        <v>8.557500959669177e-06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>8.381362081694834e-06</v>
+        <v>6.218819970937698e-06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.33882875220283e-06</v>
+        <v>8.895542393725356e-06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.978249339492699e-06</v>
+        <v>8.010519550679435e-06</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="1" t="n">
-        <v>7.628957148412505e-06</v>
+        <v>7.801805542268178e-06</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>7.803848157026033e-06</v>
+        <v>8.734895080356528e-06</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>7.354123722019152e-06</v>
+        <v>7.036474411793547e-06</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>7.055443506719941e-06</v>
+        <v>7.535468056811181e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>8.490237597069886e-06</v>
+        <v>7.17480736303831e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.827372385099548e-06</v>
+        <v>7.003947067231146e-06</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.521080943314832e-06</v>
+        <v>7.855935018634831e-06</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>6.158677435644393e-06</v>
+        <v>8.733278193248906e-06</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>6.050924461462008e-06</v>
+        <v>6.370872922286825e-06</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>7.888526991848883e-06</v>
+        <v>7.224694218440325e-06</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>7.09633715962634e-06</v>
+        <v>6.869409767658982e-06</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>7.173590882062603e-06</v>
+        <v>8.580988177963178e-06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.968398772829697e-06</v>
+        <v>6.710861294155156e-06</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.428844805336912e-06</v>
+        <v>8.143599823136623e-06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.095007819893499e-06</v>
+        <v>8.697597525673151e-06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.045341865323583e-06</v>
+        <v>8.698210660681093e-06</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="n">
-        <v>6.986397396002721e-06</v>
+        <v>6.04629297720855e-06</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>6.149980162334323e-06</v>
+        <v>7.316416151509514e-06</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>7.188977708442908e-06</v>
+        <v>8.116736791032111e-06</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>8.591727861183071e-06</v>
+        <v>6.74069177013483e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.367625291279495e-06</v>
+        <v>8.360888984359797e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.17242748160215e-06</v>
+        <v>8.40756580598331e-06</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.469066555141069e-06</v>
+        <v>7.107004782126969e-06</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>6.052077624668936e-06</v>
+        <v>6.866339224733723e-06</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>8.651643156012491e-06</v>
+        <v>7.007329239141552e-06</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>8.85522269187389e-06</v>
+        <v>6.037940464423818e-06</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>8.845004399922991e-06</v>
+        <v>8.711401505058518e-06</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>8.785899355438635e-06</v>
+        <v>7.770100753874057e-06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.037617259541882e-06</v>
+        <v>7.240971624294841e-06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>8.876562226689024e-06</v>
+        <v>8.043375230178601e-06</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.971842702042923e-06</v>
+        <v>8.702636758068742e-06</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.374099283010732e-06</v>
+        <v>8.046837920928537e-06</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="n">
-        <v>8.835055639079398e-06</v>
+        <v>7.491847645141224e-06</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>8.320512441971648e-06</v>
+        <v>8.398032542173397e-06</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7.452343615029527e-06</v>
+        <v>8.412491145927961e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6.192668226639409e-06</v>
+        <v>7.487145964731207e-06</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.381161727837386e-06</v>
+        <v>8.493701822781492e-06</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.5758354631e-06</v>
+        <v>6.659928105421203e-06</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.648956234125084e-06</v>
+        <v>8.107354499135242e-06</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.347171969817244e-06</v>
+        <v>8.679447080707702e-06</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>7.415047151170448e-06</v>
+        <v>8.042418829031385e-06</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.355545683893953e-06</v>
+        <v>6.76805707044628e-06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>8.654956719052204e-06</v>
+        <v>8.065923911453447e-06</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6.590054049376554e-06</v>
+        <v>7.65058159302989e-06</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6.063578895755473e-06</v>
+        <v>6.89939432114497e-06</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6.3125553991945e-06</v>
+        <v>7.625033725014563e-06</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>7.782615824468416e-06</v>
+        <v>6.180065770079594e-06</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>8.19538553824029e-06</v>
+        <v>6.57950702810602e-06</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="n">
-        <v>7.209195798520258e-06</v>
+        <v>7.829087194991491e-06</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>7.215886234412863e-06</v>
+        <v>8.448475448624791e-06</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.31344904486887e-06</v>
+        <v>8.318312321721629e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6.083159090450077e-06</v>
+        <v>6.716935404816968e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6.338857708934391e-06</v>
+        <v>6.103311343098331e-06</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.31406303427224e-06</v>
+        <v>6.382319538592843e-06</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>8.189395995778085e-06</v>
+        <v>7.013878908049125e-06</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>8.831631401646334e-06</v>
+        <v>8.125956505840232e-06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.291541113528372e-06</v>
+        <v>7.044664101931822e-06</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.922406092011041e-06</v>
+        <v>6.223994372348597e-06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>8.330784315373295e-06</v>
+        <v>8.589217021249975e-06</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.366476900247011e-06</v>
+        <v>8.814254066514452e-06</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8.270425772960005e-06</v>
+        <v>8.64348464974563e-06</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6.046552420365196e-06</v>
+        <v>6.933767244880216e-06</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>7.089897750424321e-06</v>
+        <v>6.524402954954107e-06</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>7.552505899418689e-06</v>
+        <v>6.281374914795947e-06</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="2" t="n">
-        <v>7.212595568993278e-06</v>
+        <v>6.866655785843264e-06</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>7.004570484913275e-06</v>
+        <v>6.824824288097064e-06</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>6.78186581724137e-06</v>
+        <v>7.366867757447773e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7.422972055563768e-06</v>
+        <v>7.736623382967539e-06</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.502788642974581e-06</v>
+        <v>7.473874278694042e-06</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.690669687268829e-06</v>
+        <v>8.392391869334662e-06</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.79501327535806e-06</v>
+        <v>7.52869953683275e-06</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.129162967597744e-06</v>
+        <v>8.586775910411763e-06</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>7.700442195736332e-06</v>
+        <v>8.737178083428898e-06</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>6.713185608459032e-06</v>
+        <v>8.329309428544535e-06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>6.248900592976134e-06</v>
+        <v>7.368456907824768e-06</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.876083853033682e-06</v>
+        <v>6.138756063165885e-06</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>8.121639422358494e-06</v>
+        <v>7.88264910109468e-06</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>6.108776905918479e-06</v>
+        <v>6.212964083322265e-06</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>8.017987404707642e-06</v>
+        <v>7.97491315734869e-06</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>8.06235123207049e-06</v>
+        <v>7.007921379005553e-06</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="n">
-        <v>6.849519177761501e-06</v>
+        <v>8.221777554564439e-06</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>6.78374932067284e-06</v>
+        <v>8.167637879763617e-06</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>6.676352230411579e-06</v>
+        <v>6.295227469900181e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7.352343863684894e-06</v>
+        <v>6.905569927289644e-06</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.55589176564064e-06</v>
+        <v>8.046375237165618e-06</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.671231853851029e-06</v>
+        <v>6.959606792110558e-06</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.595229966336924e-06</v>
+        <v>7.024221866044624e-06</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.595206119501978e-06</v>
+        <v>8.719077044850382e-06</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.389273518851767e-06</v>
+        <v>6.714723711251193e-06</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.75238034243385e-06</v>
+        <v>6.467390141666766e-06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>8.231542467503607e-06</v>
+        <v>8.480601515722475e-06</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.808815347309854e-06</v>
+        <v>7.658087379170692e-06</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>6.468405819179471e-06</v>
+        <v>8.060642573081034e-06</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>7.697127749804319e-06</v>
+        <v>6.091211943299023e-06</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>8.087791242033813e-06</v>
+        <v>7.035800427249953e-06</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>6.092811672214737e-06</v>
+        <v>6.971277975771902e-06</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="2" t="n">
-        <v>7.92972942604482e-06</v>
+        <v>8.600243750901362e-06</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>7.577655405418131e-06</v>
+        <v>6.056226360955184e-06</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7.726900834938783e-06</v>
+        <v>6.836775806921247e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7.593229020004354e-06</v>
+        <v>8.349924635388496e-06</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.143427304130878e-06</v>
+        <v>8.310874328581117e-06</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.098580625628912e-06</v>
+        <v>8.173626472297403e-06</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>6.443788554010379e-06</v>
+        <v>7.699129940089161e-06</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.946199451434101e-06</v>
+        <v>8.824762777634838e-06</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>8.380158529240937e-06</v>
+        <v>7.482892420755444e-06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.199875026096633e-06</v>
+        <v>6.504508335901913e-06</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>7.806226430093818e-06</v>
+        <v>7.073850178730667e-06</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.98181530001979e-06</v>
+        <v>8.604096826107749e-06</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8.549751409194273e-06</v>
+        <v>8.764560660727113e-06</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6.432497940354147e-06</v>
+        <v>6.134909145856731e-06</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>6.130966637093578e-06</v>
+        <v>6.109221952894041e-06</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>7.455063602364509e-06</v>
+        <v>8.173510215922481e-06</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="5" t="n">
-        <v>8.348331699729899e-06</v>
+        <v>8.820246751844621e-06</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>7.214823460937726e-06</v>
+        <v>6.12716289284562e-06</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.170993137239562e-06</v>
+        <v>8.860922788407729e-06</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.555932945362803e-06</v>
+        <v>6.066030736179104e-06</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>8.678063751500414e-06</v>
+        <v>6.524409092067835e-06</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>8.432258186470374e-06</v>
+        <v>8.334877564009118e-06</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>6.26223038866407e-06</v>
+        <v>8.691593396566393e-06</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>8.708099252005796e-06</v>
+        <v>8.222296040580266e-06</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6.917197654757671e-06</v>
+        <v>7.205601649795717e-06</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8.416192878951446e-06</v>
+        <v>6.553688843643217e-06</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8.34052908184961e-06</v>
+        <v>8.884371123223488e-06</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>6.935879344891957e-06</v>
+        <v>8.150100179832174e-06</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>6.870883693896208e-06</v>
+        <v>7.43831858606701e-06</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>8.834547572165955e-06</v>
+        <v>7.987652909055055e-06</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>7.268041167659511e-06</v>
+        <v>8.769580264273399e-06</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>6.428490611574456e-06</v>
+        <v>7.937563419632403e-06</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="5" t="n">
-        <v>8.17232970223544e-06</v>
+        <v>6.995022235636086e-06</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>6.647689632565674e-06</v>
+        <v>7.598540614878784e-06</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.828401092930655e-06</v>
+        <v>7.077121417266142e-06</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.44366699516127e-06</v>
+        <v>7.341477300933373e-06</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>6.139371239018061e-06</v>
+        <v>8.843286036200083e-06</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>7.266847727962275e-06</v>
+        <v>8.155423910187498e-06</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>8.372018260290131e-06</v>
+        <v>6.74498944440339e-06</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>8.86447506147161e-06</v>
+        <v>6.961434350106976e-06</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>8.808230671964751e-06</v>
+        <v>6.750639644413633e-06</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>5.955953302193956e-06</v>
+        <v>6.71995221623937e-06</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>8.500415280189631e-06</v>
+        <v>6.413999472113488e-06</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>7.526938715410862e-06</v>
+        <v>6.94811144537709e-06</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>8.665383261839213e-06</v>
+        <v>6.185860095858859e-06</v>
       </c>
       <c r="N12" s="8" t="n">
-        <v>6.081073751095602e-06</v>
+        <v>8.662780853021672e-06</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>8.696055265894428e-06</v>
+        <v>7.134040883583839e-06</v>
       </c>
       <c r="P12" s="8" t="n">
-        <v>7.108404535314383e-06</v>
+        <v>8.771947090765189e-06</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="5" t="n">
-        <v>7.03271544081005e-06</v>
+        <v>6.804020803310637e-06</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>6.115799563436508e-06</v>
+        <v>6.900122888746329e-06</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>6.688390152915203e-06</v>
+        <v>6.367611822871592e-06</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>8.202838883572755e-06</v>
+        <v>7.079152801334263e-06</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>6.058609987522098e-06</v>
+        <v>7.153366412825786e-06</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>8.156416494457884e-06</v>
+        <v>8.620332048289506e-06</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>7.712213588942157e-06</v>
+        <v>8.771595770169214e-06</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>7.40077644461092e-06</v>
+        <v>6.551965814104282e-06</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>7.334950455904814e-06</v>
+        <v>8.27213353826677e-06</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>7.137538184102592e-06</v>
+        <v>8.819494960916586e-06</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>8.232649459061793e-06</v>
+        <v>7.343817923382147e-06</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>5.97766140270406e-06</v>
+        <v>7.056970571832106e-06</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>7.521253543866128e-06</v>
+        <v>6.896957018083856e-06</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>8.336480901566925e-06</v>
+        <v>6.494844047597861e-06</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>6.900927089215639e-06</v>
+        <v>8.560173113672126e-06</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>6.456600903743359e-06</v>
+        <v>8.785712207886899e-06</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="5" t="n">
-        <v>8.853676893441295e-06</v>
+        <v>8.866176063645228e-06</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>8.133813653417111e-06</v>
+        <v>6.976121014009025e-06</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.510185603706913e-06</v>
+        <v>7.222029936475959e-06</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.26892083821528e-06</v>
+        <v>8.304695506997525e-06</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>7.06314723172705e-06</v>
+        <v>6.878273862823503e-06</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>8.045914773944211e-06</v>
+        <v>6.137826375910953e-06</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>8.786647676462033e-06</v>
+        <v>7.450383934933393e-06</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>7.669375384103951e-06</v>
+        <v>6.196770715943187e-06</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7.87600201662699e-06</v>
+        <v>6.533367666669001e-06</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8.023215522374018e-06</v>
+        <v>8.904184180739882e-06</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8.224412551353444e-06</v>
+        <v>8.763149535404149e-06</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8.49610259677168e-06</v>
+        <v>7.844357117037229e-06</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>7.201632712301858e-06</v>
+        <v>6.56511305950941e-06</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>8.717602425928739e-06</v>
+        <v>7.817305090807613e-06</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>8.867742616501836e-06</v>
+        <v>7.564257164757491e-06</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>6.119476280410174e-06</v>
+        <v>6.798311405745017e-06</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="5" t="n">
-        <v>8.3793451504502e-06</v>
+        <v>8.223777204153949e-06</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>8.353620340451843e-06</v>
+        <v>7.353595511988868e-06</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.630947316681684e-06</v>
+        <v>6.180154157942103e-06</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.150567119585043e-06</v>
+        <v>7.190438578202218e-06</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>8.046924015573297e-06</v>
+        <v>6.880483953727152e-06</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>8.53301950519522e-06</v>
+        <v>7.21373919481882e-06</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>6.952906200560275e-06</v>
+        <v>6.522949558850868e-06</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>8.075484299290944e-06</v>
+        <v>7.727069109395745e-06</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.065607041398785e-06</v>
+        <v>6.769712381541609e-06</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6.502109885046162e-06</v>
+        <v>6.917209096477264e-06</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7.190694957525394e-06</v>
+        <v>7.693883150928857e-06</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>8.746809605179217e-06</v>
+        <v>7.976997065422746e-06</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>6.467688568849385e-06</v>
+        <v>7.963706268047562e-06</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>6.042142734977004e-06</v>
+        <v>8.894359954899159e-06</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>7.926989744273328e-06</v>
+        <v>7.91661610493561e-06</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>8.356416651961385e-06</v>
+        <v>7.113740180608645e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1289,752 +1289,752 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>8.017528346608956e-06</v>
+        <v>8.904168558133773e-06</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>6.581009086247673e-06</v>
+        <v>7.144639104874842e-06</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>7.606601902194344e-06</v>
+        <v>7.488191573985801e-06</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>8.747592081788296e-06</v>
+        <v>6.652412367405833e-06</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>6.597936357368356e-06</v>
+        <v>7.488895638582318e-06</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>6.969206631541144e-06</v>
+        <v>7.002031148700995e-06</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>8.505733232568348e-06</v>
+        <v>7.220014584704531e-06</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>6.307348651159936e-06</v>
+        <v>8.167806155799596e-06</v>
       </c>
       <c r="I1" s="3" t="n">
-        <v>7.801167704797085e-06</v>
+        <v>6.406800958741451e-06</v>
       </c>
       <c r="J1" s="3" t="n">
-        <v>6.806251275762487e-06</v>
+        <v>7.129776927129883e-06</v>
       </c>
       <c r="K1" s="3" t="n">
-        <v>8.482822390746393e-06</v>
+        <v>8.053729965742887e-06</v>
       </c>
       <c r="L1" s="3" t="n">
-        <v>7.320295963900121e-06</v>
+        <v>6.556704312177693e-06</v>
       </c>
       <c r="M1" s="4" t="n">
-        <v>8.372242872365843e-06</v>
+        <v>7.58240280509135e-06</v>
       </c>
       <c r="N1" s="4" t="n">
-        <v>7.25347014176859e-06</v>
+        <v>8.575092444314538e-06</v>
       </c>
       <c r="O1" s="4" t="n">
-        <v>6.137531748336052e-06</v>
+        <v>8.90708920842038e-06</v>
       </c>
       <c r="P1" s="4" t="n">
-        <v>7.075454286473493e-06</v>
+        <v>7.664656307670923e-06</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>6.597658505682494e-06</v>
+        <v>8.189216757590932e-06</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>7.775551861752028e-06</v>
+        <v>6.409687929736966e-06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>5.975846902789627e-06</v>
+        <v>6.089456405390649e-06</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>6.111846427034343e-06</v>
+        <v>6.962487395333786e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.400150370188317e-06</v>
+        <v>6.697668737827999e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.089228197327182e-06</v>
+        <v>8.910404951850128e-06</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.833948213889221e-06</v>
+        <v>7.962361504726988e-06</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>6.836824289352994e-06</v>
+        <v>7.804311858453897e-06</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>8.618875291203979e-06</v>
+        <v>6.415237002024738e-06</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>6.324855647284966e-06</v>
+        <v>8.528588944992174e-06</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>8.580611394602349e-06</v>
+        <v>7.069745305015545e-06</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>7.613871536996566e-06</v>
+        <v>8.483602046887395e-06</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.797791036862514e-06</v>
+        <v>6.744480749681932e-06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.384344133208743e-06</v>
+        <v>6.486307693384679e-06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.100247953371711e-06</v>
+        <v>8.495003697092085e-06</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.634745067121455e-06</v>
+        <v>8.340586307810539e-06</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>6.712665046415762e-06</v>
+        <v>7.543224091411715e-06</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>6.080097206187735e-06</v>
+        <v>6.338430097008527e-06</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>6.847237421016469e-06</v>
+        <v>6.833016294335251e-06</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>8.372457174213229e-06</v>
+        <v>7.883736560145008e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.262327418945225e-06</v>
+        <v>6.519840047137397e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.507767962186786e-06</v>
+        <v>6.966423880425023e-06</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.792142115170054e-06</v>
+        <v>6.272911321648937e-06</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>6.090344572998163e-06</v>
+        <v>7.299787348438476e-06</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>7.344297297500674e-06</v>
+        <v>8.870223809044295e-06</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>7.276085839310192e-06</v>
+        <v>6.477811028277065e-06</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>6.055755551229006e-06</v>
+        <v>8.631625877694965e-06</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>8.790881827245392e-06</v>
+        <v>6.892665856430144e-06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.333493824914073e-06</v>
+        <v>7.922931783940094e-06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>7.827290092817779e-06</v>
+        <v>8.301083399793145e-06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.466989344524714e-06</v>
+        <v>8.329618894021507e-06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.608646851365587e-06</v>
+        <v>7.734695257671861e-06</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="1" t="n">
-        <v>7.594672465862135e-06</v>
+        <v>8.764080059886673e-06</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>8.884289310148412e-06</v>
+        <v>8.472446300360029e-06</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>6.096088488303502e-06</v>
+        <v>7.451792169786888e-06</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>6.780842739780153e-06</v>
+        <v>5.982942970155387e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.742306412012775e-06</v>
+        <v>7.380805880817499e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.714289705854491e-06</v>
+        <v>8.844282223113583e-06</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.206458203671217e-06</v>
+        <v>6.797203212209679e-06</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>6.065288687243898e-06</v>
+        <v>8.319726193886948e-06</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>8.04587253093964e-06</v>
+        <v>6.500049342625148e-06</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>7.590444491092401e-06</v>
+        <v>7.503468851198741e-06</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>8.198636861869857e-06</v>
+        <v>7.324041650512616e-06</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>7.198791223768656e-06</v>
+        <v>8.865145131317008e-06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.692212003783564e-06</v>
+        <v>6.101330247995562e-06</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>7.208447066637692e-06</v>
+        <v>6.657924131326354e-06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.390994052978318e-06</v>
+        <v>6.163737246754809e-06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.47551742937568e-06</v>
+        <v>6.137586194298031e-06</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="n">
-        <v>6.11504751779267e-06</v>
+        <v>8.638682238682904e-06</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>8.327362005197772e-06</v>
+        <v>8.623808724888093e-06</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>7.613736681484366e-06</v>
+        <v>8.415124505973624e-06</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>7.702970482103869e-06</v>
+        <v>6.774556162910648e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.290198016607332e-06</v>
+        <v>6.793911427342889e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.125536993345116e-06</v>
+        <v>7.62817268510273e-06</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.213048143354183e-06</v>
+        <v>6.33901382921051e-06</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>7.114964589061403e-06</v>
+        <v>6.70340960640921e-06</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>8.604312808511355e-06</v>
+        <v>6.812347113621832e-06</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>7.849546898072384e-06</v>
+        <v>7.31036093188172e-06</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>8.393391442448194e-06</v>
+        <v>8.479345237320954e-06</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>8.39688688990958e-06</v>
+        <v>7.402786321965602e-06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.057409500527017e-06</v>
+        <v>5.967348704736753e-06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.666427201659552e-06</v>
+        <v>6.634243495518724e-06</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.014265880593528e-06</v>
+        <v>6.154450307170739e-06</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.383634783064114e-06</v>
+        <v>8.446298306995252e-06</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="n">
-        <v>7.958790137904807e-06</v>
+        <v>6.799288392884347e-06</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>6.57001270880689e-06</v>
+        <v>8.906003387798484e-06</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7.078051907049926e-06</v>
+        <v>7.75179395267215e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6.966687813777908e-06</v>
+        <v>7.690426714428887e-06</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.173837243568013e-06</v>
+        <v>6.378169725416158e-06</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.024748519561256e-06</v>
+        <v>7.990777648664687e-06</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.377320692632334e-06</v>
+        <v>8.490596854108539e-06</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.003344193853363e-06</v>
+        <v>8.416414158316824e-06</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>8.085918455103448e-06</v>
+        <v>6.178316447040231e-06</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.102281889514726e-06</v>
+        <v>6.206410743060304e-06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.455498579471429e-06</v>
+        <v>8.315088392796879e-06</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6.677054084900337e-06</v>
+        <v>8.836972540182067e-06</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8.415875652674692e-06</v>
+        <v>7.90251647884597e-06</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8.537023613743366e-06</v>
+        <v>7.309248479282438e-06</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>7.441618632132228e-06</v>
+        <v>5.951624384044102e-06</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>6.689738368259499e-06</v>
+        <v>6.093628848123375e-06</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="n">
-        <v>6.550342038524418e-06</v>
+        <v>8.810432964943197e-06</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>6.207261082288517e-06</v>
+        <v>6.34221421598449e-06</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>7.595055534894141e-06</v>
+        <v>8.197589197996761e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6.254481519249584e-06</v>
+        <v>6.564668243355361e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.264371757848778e-06</v>
+        <v>7.736971045873307e-06</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.753072349626659e-06</v>
+        <v>7.261081533736361e-06</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>7.926090124982633e-06</v>
+        <v>8.416110482709741e-06</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>6.197698187832946e-06</v>
+        <v>6.001042955532604e-06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.190600316562311e-06</v>
+        <v>7.199933088797997e-06</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.72152887768842e-06</v>
+        <v>5.980738249477907e-06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>7.222478301094492e-06</v>
+        <v>6.618346504195117e-06</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7.592827351919907e-06</v>
+        <v>6.951626594022133e-06</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8.365145986408345e-06</v>
+        <v>7.650696625453147e-06</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>8.615547149153807e-06</v>
+        <v>8.499460683268879e-06</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>8.764063472426897e-06</v>
+        <v>7.48934067545412e-06</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>7.455455136216989e-06</v>
+        <v>7.097910984434037e-06</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="2" t="n">
-        <v>8.665104460083528e-06</v>
+        <v>5.948980956527428e-06</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>7.934283132111662e-06</v>
+        <v>8.661557538297865e-06</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>5.995983359880226e-06</v>
+        <v>7.420525220521349e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7.541375271054474e-06</v>
+        <v>6.877303230811227e-06</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.738162313506746e-06</v>
+        <v>5.995054936219305e-06</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.968601337390252e-06</v>
+        <v>8.437844523216962e-06</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>8.694273868158686e-06</v>
+        <v>7.630186484454365e-06</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.976712915146606e-06</v>
+        <v>7.695643838204755e-06</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>6.511432344571082e-06</v>
+        <v>8.494439147914277e-06</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.845515336832885e-06</v>
+        <v>7.077357103046008e-06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.709366883311797e-06</v>
+        <v>8.783638973623523e-06</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.394056564975186e-06</v>
+        <v>8.681416906733322e-06</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>6.672894682678423e-06</v>
+        <v>7.445287658819439e-06</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>6.088647056434002e-06</v>
+        <v>8.905640780090977e-06</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>8.333439310760283e-06</v>
+        <v>6.867167037204978e-06</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>7.044000978855254e-06</v>
+        <v>7.959176977884922e-06</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="n">
-        <v>8.441093542991664e-06</v>
+        <v>7.727689676613195e-06</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>6.078891211967019e-06</v>
+        <v>7.459932694240807e-06</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>6.491426602609052e-06</v>
+        <v>7.162538260956108e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7.555843859916848e-06</v>
+        <v>6.018572040614867e-06</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.764635398018864e-06</v>
+        <v>6.679674609703752e-06</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.050752459838845e-06</v>
+        <v>6.027444643490549e-06</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.352419094378914e-06</v>
+        <v>6.573119297127984e-06</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.281991574917334e-06</v>
+        <v>8.504512112095231e-06</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.575370082976097e-06</v>
+        <v>7.838408587218674e-06</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.749517934188441e-06</v>
+        <v>7.115286966314529e-06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.632533324109756e-06</v>
+        <v>7.992042347560013e-06</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.418272715368454e-06</v>
+        <v>8.419299907301676e-06</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>6.527809840423038e-06</v>
+        <v>7.238188698952979e-06</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>7.621335375719357e-06</v>
+        <v>7.354909946951561e-06</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>6.31420274857396e-06</v>
+        <v>8.898364065260403e-06</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>5.966003229137843e-06</v>
+        <v>6.188615110175884e-06</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="2" t="n">
-        <v>7.010879014016659e-06</v>
+        <v>7.893961595734668e-06</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>8.094360606090596e-06</v>
+        <v>8.668403801873916e-06</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>8.248764539349171e-06</v>
+        <v>8.137585222502491e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>8.043339949663328e-06</v>
+        <v>6.193225478981414e-06</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.730445370776333e-06</v>
+        <v>8.844508585643127e-06</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.709672712275557e-06</v>
+        <v>8.625525852903786e-06</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>8.521154051136744e-06</v>
+        <v>6.830769078199573e-06</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.280626743980049e-06</v>
+        <v>8.896848947862732e-06</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.642657040290676e-06</v>
+        <v>8.747422717962342e-06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.609673637211817e-06</v>
+        <v>6.06525829706e-06</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>8.020537397582182e-06</v>
+        <v>8.152679262940582e-06</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>8.375984434002601e-06</v>
+        <v>6.441986546419582e-06</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8.571983728268078e-06</v>
+        <v>7.331040214294644e-06</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>7.600566663978513e-06</v>
+        <v>8.516118705313287e-06</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>5.996307639272561e-06</v>
+        <v>7.238406036620017e-06</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>7.158162459958331e-06</v>
+        <v>7.524053339629744e-06</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="5" t="n">
-        <v>7.582234479510031e-06</v>
+        <v>7.370491380214498e-06</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>8.199714557788891e-06</v>
+        <v>7.280877006391562e-06</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.279085241297705e-06</v>
+        <v>6.286915940545453e-06</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.696246448761112e-06</v>
+        <v>8.445511386511663e-06</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>8.208385157829638e-06</v>
+        <v>7.054703148422149e-06</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>8.19242307805128e-06</v>
+        <v>6.949319184068639e-06</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>7.653385739173836e-06</v>
+        <v>6.196918148564287e-06</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>6.463561979370288e-06</v>
+        <v>6.988965063966652e-06</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8.662959280885898e-06</v>
+        <v>7.69903727959945e-06</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6.652533703533563e-06</v>
+        <v>8.856891685812962e-06</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8.745907709247209e-06</v>
+        <v>6.631835237842658e-06</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7.46811032816206e-06</v>
+        <v>7.304627691302316e-06</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>6.646886159114095e-06</v>
+        <v>7.450810463311069e-06</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>8.371608332025783e-06</v>
+        <v>7.423441696217907e-06</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>5.985718618035938e-06</v>
+        <v>7.082731690633907e-06</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>6.926135319793373e-06</v>
+        <v>6.097735844669204e-06</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="5" t="n">
-        <v>7.791293231205165e-06</v>
+        <v>8.419602325980373e-06</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>8.075871245196705e-06</v>
+        <v>8.345275759176362e-06</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.541019527447483e-06</v>
+        <v>8.63370397701874e-06</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.476715340921689e-06</v>
+        <v>6.641642126355904e-06</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>7.139930599693715e-06</v>
+        <v>7.56245754468939e-06</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>6.001334230537356e-06</v>
+        <v>8.588611811719425e-06</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>6.410280099542154e-06</v>
+        <v>6.340065753956045e-06</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>8.461270879118624e-06</v>
+        <v>6.179717589708366e-06</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>7.73844332193766e-06</v>
+        <v>7.742172804784262e-06</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>8.723621356926074e-06</v>
+        <v>6.246772155697763e-06</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>6.514115682379111e-06</v>
+        <v>7.134459890100725e-06</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>7.15871662225591e-06</v>
+        <v>6.621578722312553e-06</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>7.589215182993134e-06</v>
+        <v>7.585281063513905e-06</v>
       </c>
       <c r="N12" s="8" t="n">
-        <v>8.535374909866111e-06</v>
+        <v>7.566854753813007e-06</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>6.92396768598434e-06</v>
+        <v>7.475410239612548e-06</v>
       </c>
       <c r="P12" s="8" t="n">
-        <v>8.60431897614681e-06</v>
+        <v>7.626109664055166e-06</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="5" t="n">
-        <v>6.044542917493234e-06</v>
+        <v>8.779352913945284e-06</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>6.590637793921368e-06</v>
+        <v>6.981624914260073e-06</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.422124800488538e-06</v>
+        <v>6.883530613495824e-06</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6.324276612845037e-06</v>
+        <v>8.734182575623234e-06</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>8.759881598018488e-06</v>
+        <v>6.164402996093735e-06</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>7.75063381532506e-06</v>
+        <v>6.39943701566902e-06</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>7.001920655273752e-06</v>
+        <v>6.285163568085676e-06</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>8.218292286818617e-06</v>
+        <v>6.65856836156641e-06</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>7.700431533034235e-06</v>
+        <v>6.779942048866439e-06</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>8.100433409015002e-06</v>
+        <v>6.473413550570704e-06</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>6.78969306278061e-06</v>
+        <v>6.255516424952585e-06</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>6.442850395056929e-06</v>
+        <v>7.712514161463175e-06</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>6.482850038452679e-06</v>
+        <v>7.889154859976735e-06</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>8.055155142718484e-06</v>
+        <v>7.176883238040994e-06</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>7.969233032185953e-06</v>
+        <v>6.901464362389013e-06</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>7.587305771642715e-06</v>
+        <v>6.538722243690387e-06</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="5" t="n">
-        <v>6.086780700479153e-06</v>
+        <v>6.03794803546825e-06</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>6.424428111026552e-06</v>
+        <v>7.274422226614263e-06</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.780647690188575e-06</v>
+        <v>8.295668849791093e-06</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.786534474881399e-06</v>
+        <v>6.677542438317867e-06</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>8.087735160990124e-06</v>
+        <v>8.399460712733821e-06</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>6.500414165507396e-06</v>
+        <v>7.635597217339586e-06</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>7.154245170546523e-06</v>
+        <v>6.592496288195873e-06</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>7.809188189108427e-06</v>
+        <v>7.366114570465928e-06</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7.984180329205324e-06</v>
+        <v>7.9801023743358e-06</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5.944322966559824e-06</v>
+        <v>6.904737380898109e-06</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8.539635022049072e-06</v>
+        <v>6.559307065988307e-06</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8.615427287957937e-06</v>
+        <v>7.360851177241583e-06</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>8.192672519144144e-06</v>
+        <v>8.825281830523045e-06</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>8.796966934353897e-06</v>
+        <v>8.038808862529425e-06</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>8.025870922406467e-06</v>
+        <v>7.503911365667032e-06</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>6.507733442323225e-06</v>
+        <v>8.805168567133862e-06</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="5" t="n">
-        <v>7.97098694192706e-06</v>
+        <v>7.195112966822945e-06</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>8.352734218138426e-06</v>
+        <v>8.372623651998342e-06</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.894744850384377e-06</v>
+        <v>8.606788464478688e-06</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.520033121231775e-06</v>
+        <v>6.368238361810444e-06</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>7.07161674893948e-06</v>
+        <v>6.856793294703893e-06</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>7.372364680694556e-06</v>
+        <v>7.375062739652249e-06</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>7.144634308486576e-06</v>
+        <v>8.064665099287268e-06</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>7.612641873544738e-06</v>
+        <v>6.99665099383921e-06</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6.661829912830535e-06</v>
+        <v>6.883417399861261e-06</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7.924434572465364e-06</v>
+        <v>6.120753337160045e-06</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6.525073271078051e-06</v>
+        <v>7.301615147341489e-06</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7.921369006311172e-06</v>
+        <v>6.849788419876551e-06</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>7.757726103349175e-06</v>
+        <v>7.130306852580053e-06</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>8.571767487114963e-06</v>
+        <v>6.824855188953842e-06</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>7.097659272810931e-06</v>
+        <v>6.8049239867263e-06</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>8.400240296633001e-06</v>
+        <v>6.315545000828553e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2076,752 +2076,752 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="n">
-        <v>6.38692266217517e-06</v>
+        <v>6.116061716323721e-06</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>6.824014480101199e-06</v>
+        <v>6.140117773533571e-06</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>6.016318958885493e-06</v>
+        <v>7.632210386953187e-06</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>7.429090894507124e-06</v>
+        <v>6.228362943136894e-06</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>8.82402016175271e-06</v>
+        <v>8.644033337313747e-06</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>8.715896284496554e-06</v>
+        <v>8.287033051571631e-06</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>8.398932893638099e-06</v>
+        <v>7.434831536957482e-06</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>8.895208032546793e-06</v>
+        <v>7.761242411149269e-06</v>
       </c>
       <c r="I1" s="3" t="n">
-        <v>8.172565036261941e-06</v>
+        <v>7.220570887590813e-06</v>
       </c>
       <c r="J1" s="3" t="n">
-        <v>8.474205020306241e-06</v>
+        <v>6.340013926843149e-06</v>
       </c>
       <c r="K1" s="3" t="n">
-        <v>6.600985875296842e-06</v>
+        <v>7.053336741237493e-06</v>
       </c>
       <c r="L1" s="3" t="n">
-        <v>6.246083581789676e-06</v>
+        <v>8.577917161932729e-06</v>
       </c>
       <c r="M1" s="4" t="n">
-        <v>8.054528424179267e-06</v>
+        <v>6.520923639354435e-06</v>
       </c>
       <c r="N1" s="4" t="n">
-        <v>8.040481731056436e-06</v>
+        <v>7.463845359474346e-06</v>
       </c>
       <c r="O1" s="4" t="n">
-        <v>8.43923074313812e-06</v>
+        <v>8.70691537901956e-06</v>
       </c>
       <c r="P1" s="4" t="n">
-        <v>6.968075013579517e-06</v>
+        <v>7.845589674853153e-06</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>8.421868259591704e-06</v>
+        <v>7.716065867196812e-06</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>6.219166311033919e-06</v>
+        <v>8.08271548826647e-06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>7.988206260357608e-06</v>
+        <v>6.471895658762638e-06</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8.827221168185303e-06</v>
+        <v>8.397335913795531e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.759312400973695e-06</v>
+        <v>7.341466396336475e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.287488616147064e-06</v>
+        <v>8.658433448540383e-06</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.57624840919717e-06</v>
+        <v>8.394476777292356e-06</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>6.862826086072986e-06</v>
+        <v>6.443942251552801e-06</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>6.586282386487229e-06</v>
+        <v>7.294259361679522e-06</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>6.352945651444488e-06</v>
+        <v>6.580541063739427e-06</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>6.289140673670378e-06</v>
+        <v>6.476254872589325e-06</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>6.970208656925568e-06</v>
+        <v>6.784270167925505e-06</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.035308205149598e-06</v>
+        <v>8.184151901354632e-06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>8.065217879881703e-06</v>
+        <v>8.829075339062715e-06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.734065757124751e-06</v>
+        <v>6.373464893906001e-06</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.091253663360795e-06</v>
+        <v>8.837505967025491e-06</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>8.391377097428031e-06</v>
+        <v>7.678305802864939e-06</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>8.649630646435279e-06</v>
+        <v>7.068710223353151e-06</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>7.300048836615272e-06</v>
+        <v>7.144760080777559e-06</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>8.132918679126149e-06</v>
+        <v>8.731131850772862e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.593396356244815e-06</v>
+        <v>6.810985852508547e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.965942012820701e-06</v>
+        <v>8.078277956908337e-06</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.981269458920615e-06</v>
+        <v>7.401345510405412e-06</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>8.191672264863842e-06</v>
+        <v>8.194893568422304e-06</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>7.90634462869281e-06</v>
+        <v>8.094566975009542e-06</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>7.065387012085695e-06</v>
+        <v>6.286524918078872e-06</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>8.292416172101556e-06</v>
+        <v>7.630994921037117e-06</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>8.384322004370331e-06</v>
+        <v>6.171292075300624e-06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.843246808750359e-06</v>
+        <v>7.653762756726364e-06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.508196124499508e-06</v>
+        <v>7.53971339969708e-06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.709585169101207e-06</v>
+        <v>7.557642305758424e-06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.093269381336145e-06</v>
+        <v>7.487252221514402e-06</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="1" t="n">
-        <v>6.297260362967304e-06</v>
+        <v>8.772946207285843e-06</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>7.145863452387536e-06</v>
+        <v>6.609246689904095e-06</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>7.417705576174924e-06</v>
+        <v>7.260834871220907e-06</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>6.843897964903621e-06</v>
+        <v>8.17737116487589e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.303890165251995e-06</v>
+        <v>7.962157508711502e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.902292247134687e-06</v>
+        <v>8.610882048829462e-06</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.619463513228615e-06</v>
+        <v>8.697484830506273e-06</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>7.224581842444085e-06</v>
+        <v>8.14605587174233e-06</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>6.097692641494444e-06</v>
+        <v>6.946944480756763e-06</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>6.408355291262071e-06</v>
+        <v>8.336796444646734e-06</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>6.980768691332632e-06</v>
+        <v>8.67711035487953e-06</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>6.096111119253107e-06</v>
+        <v>7.688310392724601e-06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.011029505419188e-06</v>
+        <v>7.276156796901176e-06</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>7.632102114217397e-06</v>
+        <v>6.605698337814107e-06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.279772191832389e-06</v>
+        <v>7.679644573063365e-06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.203456154151347e-06</v>
+        <v>8.053460297502844e-06</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="n">
-        <v>8.46310806856468e-06</v>
+        <v>8.723039224579579e-06</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>6.573061859559389e-06</v>
+        <v>6.085393228357113e-06</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>7.021046845756112e-06</v>
+        <v>7.849703313717855e-06</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>6.136431679784525e-06</v>
+        <v>8.514350338413033e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8.614625556840632e-06</v>
+        <v>6.055613615932872e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.507610391814026e-06</v>
+        <v>8.857909128959973e-06</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.577035594945598e-06</v>
+        <v>8.645282993062855e-06</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>8.390073157306337e-06</v>
+        <v>8.731193623827454e-06</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>6.551543820635198e-06</v>
+        <v>7.281179467992776e-06</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>8.769703450871682e-06</v>
+        <v>6.454935313390799e-06</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>7.051934992348515e-06</v>
+        <v>6.970122782519888e-06</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>6.033030018738196e-06</v>
+        <v>6.403728902314203e-06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.023763853917202e-06</v>
+        <v>8.79604107567471e-06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>7.510280485619313e-06</v>
+        <v>8.834064504624556e-06</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.611560264535177e-06</v>
+        <v>6.733359227813574e-06</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.573158793188457e-06</v>
+        <v>7.083935678903876e-06</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="n">
-        <v>8.883936560369227e-06</v>
+        <v>7.672762012479341e-06</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>7.43476139658716e-06</v>
+        <v>8.049946895161683e-06</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>6.568508800421271e-06</v>
+        <v>6.686406541410204e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>7.697231392388621e-06</v>
+        <v>6.946855518129481e-06</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.342819591818575e-06</v>
+        <v>7.921858468205994e-06</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.822586529171277e-06</v>
+        <v>7.362253317316291e-06</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.49934961954705e-06</v>
+        <v>6.747045037700798e-06</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.607979679397138e-06</v>
+        <v>6.245463375498116e-06</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.169874184198201e-06</v>
+        <v>7.37609855359987e-06</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.324545938761534e-06</v>
+        <v>7.686373720374868e-06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.267755515348252e-06</v>
+        <v>8.208140029824289e-06</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6.97810154612827e-06</v>
+        <v>6.401472020967247e-06</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7.522969312430452e-06</v>
+        <v>6.007294612520462e-06</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6.319611767310164e-06</v>
+        <v>7.474984588189341e-06</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>8.600953304058452e-06</v>
+        <v>7.365120004277608e-06</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>6.177106189620303e-06</v>
+        <v>7.001026101241908e-06</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="n">
-        <v>6.900018842586899e-06</v>
+        <v>7.789130140330788e-06</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>8.677901014083745e-06</v>
+        <v>8.750986268204937e-06</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.465635191095847e-06</v>
+        <v>8.067603013480018e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6.517939022249407e-06</v>
+        <v>8.835619539969276e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.948662045982774e-06</v>
+        <v>8.232023907136738e-06</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.756199183998107e-06</v>
+        <v>7.322097840912884e-06</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>7.804292836684467e-06</v>
+        <v>7.495841143564012e-06</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>7.725266333302649e-06</v>
+        <v>8.746522895363002e-06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.854818789675475e-06</v>
+        <v>7.797042883654771e-06</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.290969111175721e-06</v>
+        <v>6.438070712867176e-06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>7.835074901020562e-06</v>
+        <v>7.90933670710174e-06</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>8.140188253962503e-06</v>
+        <v>8.498461352350383e-06</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7.474462087689348e-06</v>
+        <v>8.903324610590892e-06</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>8.580578765342202e-06</v>
+        <v>8.156697745662556e-06</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>8.856428464318515e-06</v>
+        <v>6.866899224758444e-06</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>8.162625261867204e-06</v>
+        <v>8.149997635862316e-06</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="2" t="n">
-        <v>7.202054344064405e-06</v>
+        <v>7.048002778392662e-06</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>7.387888330010481e-06</v>
+        <v>6.406263723728615e-06</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.642055400055519e-06</v>
+        <v>6.585783304008831e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7.062787595275799e-06</v>
+        <v>7.796041987353716e-06</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.264507619380234e-06</v>
+        <v>7.934521125215231e-06</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.137984428256672e-06</v>
+        <v>6.51018584553819e-06</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.605897618519304e-06</v>
+        <v>6.491520712897985e-06</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.317097705907311e-06</v>
+        <v>5.957508476054417e-06</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>8.221632876508598e-06</v>
+        <v>7.640940583478298e-06</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.627637807250126e-06</v>
+        <v>7.773462424239484e-06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.523194669088322e-06</v>
+        <v>7.206985499619039e-06</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>6.823130047521098e-06</v>
+        <v>6.534117033441923e-06</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>6.234563190954139e-06</v>
+        <v>6.876279528702593e-06</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>6.494413097347225e-06</v>
+        <v>6.696357729423241e-06</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>7.625294537218122e-06</v>
+        <v>7.310109794011457e-06</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>8.846620352610858e-06</v>
+        <v>8.713384076926638e-06</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="n">
-        <v>6.564025658926548e-06</v>
+        <v>7.799197442964287e-06</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>7.683912922041934e-06</v>
+        <v>6.798887034616031e-06</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>8.040646518762513e-06</v>
+        <v>6.094424684553101e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>8.30116727688448e-06</v>
+        <v>8.738324507666108e-06</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.157250120626098e-06</v>
+        <v>6.006515818732771e-06</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.140489550608604e-06</v>
+        <v>8.474137259671579e-06</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.784801568455479e-06</v>
+        <v>8.625984139487757e-06</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.4351486820609e-06</v>
+        <v>7.045642217107168e-06</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.13115910818092e-06</v>
+        <v>6.541439734427223e-06</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.677171041485666e-06</v>
+        <v>6.187220488656671e-06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>6.466360783777017e-06</v>
+        <v>7.047914846345834e-06</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.335201376206804e-06</v>
+        <v>7.599317684354602e-06</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>5.945609826813115e-06</v>
+        <v>7.828760769580632e-06</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>8.647827395275961e-06</v>
+        <v>7.608289931322801e-06</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>6.316068869676883e-06</v>
+        <v>6.934624613886477e-06</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>6.056743059711345e-06</v>
+        <v>6.963483416733224e-06</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="2" t="n">
-        <v>6.149459932103535e-06</v>
+        <v>7.226427748457468e-06</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>7.715753039943958e-06</v>
+        <v>6.113227852254956e-06</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7.325328073400196e-06</v>
+        <v>7.97725316452139e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>8.819696304930459e-06</v>
+        <v>8.876870633055234e-06</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.399708127355549e-06</v>
+        <v>6.060679580536005e-06</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.126021128287635e-06</v>
+        <v>8.696614516301155e-06</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>8.569357496458369e-06</v>
+        <v>5.976158508085374e-06</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.120786603258837e-06</v>
+        <v>7.156036936707188e-06</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>8.077849624211523e-06</v>
+        <v>8.637457640649645e-06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.166364132378864e-06</v>
+        <v>7.236163309470247e-06</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.962495748035686e-06</v>
+        <v>6.653874806470261e-06</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>8.775214920783798e-06</v>
+        <v>6.119437770099142e-06</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7.189624430943264e-06</v>
+        <v>8.415016956900917e-06</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8.308568635738933e-06</v>
+        <v>8.012547536379521e-06</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>6.447028577113539e-06</v>
+        <v>6.240966214712811e-06</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>6.964153371342381e-06</v>
+        <v>7.16670458192834e-06</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="5" t="n">
-        <v>6.898080434161741e-06</v>
+        <v>6.542468488930613e-06</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>6.305610826249426e-06</v>
+        <v>6.991127883947786e-06</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.107405285727177e-06</v>
+        <v>8.167205716688784e-06</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.286787334094934e-06</v>
+        <v>8.634734503008192e-06</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>6.324728496061039e-06</v>
+        <v>6.183100153487468e-06</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>7.807448815060188e-06</v>
+        <v>7.504727831872902e-06</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>7.566325714384118e-06</v>
+        <v>8.4600477342929e-06</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>8.420462603668055e-06</v>
+        <v>6.972996509020365e-06</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8.801455017421058e-06</v>
+        <v>6.579173371687318e-06</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8.645135887711114e-06</v>
+        <v>7.315988576463277e-06</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8.220085438696238e-06</v>
+        <v>7.637336688749829e-06</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7.625711430261685e-06</v>
+        <v>7.531488627138155e-06</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>6.810843625354453e-06</v>
+        <v>7.181462621660036e-06</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>6.472553428846667e-06</v>
+        <v>8.09564433801888e-06</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>8.225700219730443e-06</v>
+        <v>6.185553610052042e-06</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>6.59277574792358e-06</v>
+        <v>6.614034194967848e-06</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="5" t="n">
-        <v>7.4117749156205e-06</v>
+        <v>7.850030663504484e-06</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>6.923017912230812e-06</v>
+        <v>7.473967928054882e-06</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.799747682620833e-06</v>
+        <v>8.754831963762496e-06</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.516778905722704e-06</v>
+        <v>8.033391455903692e-06</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>6.352539535681131e-06</v>
+        <v>8.175727258774263e-06</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>8.171239849191318e-06</v>
+        <v>7.567839257248284e-06</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>7.324433505189325e-06</v>
+        <v>6.174169567385676e-06</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>8.287600205259744e-06</v>
+        <v>6.271510516559184e-06</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>6.917594772413922e-06</v>
+        <v>6.994438144754784e-06</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>7.338773229418988e-06</v>
+        <v>6.350497243734142e-06</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>7.90355117013174e-06</v>
+        <v>7.555690849063992e-06</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>6.695590684077369e-06</v>
+        <v>7.378197684789945e-06</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>8.748911585033858e-06</v>
+        <v>7.654207147061228e-06</v>
       </c>
       <c r="N12" s="8" t="n">
-        <v>7.464575428854664e-06</v>
+        <v>8.584655213168135e-06</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>6.351456480967948e-06</v>
+        <v>6.185100599134699e-06</v>
       </c>
       <c r="P12" s="8" t="n">
-        <v>8.501297251401733e-06</v>
+        <v>7.458002359471045e-06</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="5" t="n">
-        <v>6.142993390169125e-06</v>
+        <v>7.391816031080871e-06</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>8.427781657639974e-06</v>
+        <v>8.650669242490583e-06</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.41654077385847e-06</v>
+        <v>7.549203134302534e-06</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6.417115062690066e-06</v>
+        <v>7.775202587407069e-06</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>7.022734367369193e-06</v>
+        <v>7.17850808194644e-06</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>6.345113478136875e-06</v>
+        <v>6.87943527453199e-06</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>8.734103591055699e-06</v>
+        <v>5.987312844408414e-06</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>6.085980150100921e-06</v>
+        <v>6.109729312355775e-06</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>7.247550601337671e-06</v>
+        <v>7.044393951455949e-06</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>8.880787105197612e-06</v>
+        <v>7.837377896775238e-06</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>8.387078321411798e-06</v>
+        <v>6.098850327826118e-06</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>6.827384442988015e-06</v>
+        <v>6.329592480252107e-06</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>7.083461780359749e-06</v>
+        <v>7.160325751062416e-06</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>8.643309563206576e-06</v>
+        <v>8.15503912378515e-06</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>8.634434995733209e-06</v>
+        <v>8.190497171819848e-06</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>8.638448945799825e-06</v>
+        <v>6.487099228897411e-06</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="5" t="n">
-        <v>8.731527588184237e-06</v>
+        <v>8.091130657026987e-06</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>7.929381838072848e-06</v>
+        <v>7.358204792110684e-06</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.449346135669223e-06</v>
+        <v>7.656718607889635e-06</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.903588173422919e-06</v>
+        <v>8.156610123976951e-06</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>6.139271166248332e-06</v>
+        <v>7.258191446228581e-06</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>8.223619747050324e-06</v>
+        <v>8.566129675351043e-06</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>6.469691557383448e-06</v>
+        <v>6.59022199383496e-06</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>7.50764182237731e-06</v>
+        <v>6.060570941505389e-06</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7.019060174806815e-06</v>
+        <v>6.623986060135435e-06</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7.131461020995786e-06</v>
+        <v>6.757889730760677e-06</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7.055333471419225e-06</v>
+        <v>6.652875596976135e-06</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7.347489299019215e-06</v>
+        <v>7.144890914553567e-06</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>6.185435974254432e-06</v>
+        <v>6.647505255853819e-06</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>7.56551734045202e-06</v>
+        <v>6.301478947455551e-06</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>7.752659817687229e-06</v>
+        <v>6.108553933950528e-06</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>7.471662828599859e-06</v>
+        <v>6.94566792038044e-06</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="5" t="n">
-        <v>8.264568817077425e-06</v>
+        <v>8.141082664879787e-06</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>8.557882866312807e-06</v>
+        <v>6.804022275202785e-06</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.352720908215758e-06</v>
+        <v>7.47091965061779e-06</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.804610328493986e-06</v>
+        <v>7.38769945865014e-06</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>8.542474684862361e-06</v>
+        <v>6.300015185094641e-06</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>8.675392488142712e-06</v>
+        <v>6.130865652400723e-06</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>7.819819816788024e-06</v>
+        <v>7.826145449170517e-06</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>6.142670255726807e-06</v>
+        <v>7.365359260496387e-06</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8.143691295542347e-06</v>
+        <v>6.914265552377814e-06</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7.852212012520907e-06</v>
+        <v>6.323392452251494e-06</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6.111932419739105e-06</v>
+        <v>7.410528992726513e-06</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>6.14182281316916e-06</v>
+        <v>6.610939629158262e-06</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>6.89633226899515e-06</v>
+        <v>7.282600572554917e-06</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>7.230165281076152e-06</v>
+        <v>6.495059426375627e-06</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>6.400165434005926e-06</v>
+        <v>7.999656025913022e-06</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>6.616091980205863e-06</v>
+        <v>8.225867747619008e-06</v>
       </c>
     </row>
   </sheetData>
